--- a/FLUJO.xlsx
+++ b/FLUJO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="884" activeTab="9"/>
+    <workbookView xWindow="6420" yWindow="0" windowWidth="25600" windowHeight="20480" tabRatio="884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FLUJO CAJA 1" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t>INVERSIÓN</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Presupuesto adhoc de marketing</t>
+  </si>
+  <si>
+    <t>Tasa Crecimiento CF</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -954,6 +957,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -979,7 +993,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1267,18 +1281,54 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1288,41 +1338,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1336,49 +1362,43 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1750,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L27"/>
+  <dimension ref="B4:L31"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="D2" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1761,7 +1781,7 @@
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
@@ -1909,7 +1929,7 @@
       </c>
       <c r="L8">
         <f>D22/6</f>
-        <v>20961588.977240089</v>
+        <v>11534314.579725521</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -1958,24 +1978,24 @@
         <v>-113378600</v>
       </c>
       <c r="F10" s="107">
-        <f>E10*115%</f>
-        <v>-130385389.99999999</v>
+        <f>E10*(1+$D$27)</f>
+        <v>-136054320</v>
       </c>
       <c r="G10" s="107">
-        <f t="shared" ref="G10:J10" si="0">F10*115%</f>
-        <v>-149943198.49999997</v>
+        <f t="shared" ref="G10:J10" si="0">F10*(1+$D$27)</f>
+        <v>-163265184</v>
       </c>
       <c r="H10" s="107">
         <f t="shared" si="0"/>
-        <v>-172434678.27499995</v>
+        <v>-195918220.79999998</v>
       </c>
       <c r="I10" s="107">
         <f t="shared" si="0"/>
-        <v>-198299880.01624992</v>
+        <v>-235101864.95999998</v>
       </c>
       <c r="J10" s="107">
         <f t="shared" si="0"/>
-        <v>-228044862.0186874</v>
+        <v>-282122237.95199996</v>
       </c>
     </row>
     <row r="11" spans="2:12">
@@ -2025,23 +2045,23 @@
       </c>
       <c r="F12" s="109">
         <f t="shared" si="1"/>
-        <v>16246443.333333349</v>
+        <v>10577513.333333334</v>
       </c>
       <c r="G12" s="109">
         <f t="shared" si="1"/>
-        <v>38559784.833333366</v>
+        <v>25237799.333333332</v>
       </c>
       <c r="H12" s="109">
         <f t="shared" si="1"/>
-        <v>69670861.596794948</v>
+        <v>46187319.07179492</v>
       </c>
       <c r="I12" s="109">
         <f t="shared" si="1"/>
-        <v>112467520.63365148</v>
+        <v>75665535.689901426</v>
       </c>
       <c r="J12" s="109">
         <f t="shared" si="1"/>
-        <v>170725772.75426811</v>
+        <v>116648396.82095553</v>
       </c>
     </row>
     <row r="13" spans="2:12">
@@ -2091,23 +2111,23 @@
       </c>
       <c r="F14" s="109">
         <f t="shared" si="2"/>
-        <v>13407118.467768604</v>
+        <v>7738188.467768589</v>
       </c>
       <c r="G14" s="109">
         <f t="shared" si="2"/>
-        <v>35720459.967768617</v>
+        <v>22398474.467768587</v>
       </c>
       <c r="H14" s="109">
         <f t="shared" si="2"/>
-        <v>66831536.731230199</v>
+        <v>43347994.206230171</v>
       </c>
       <c r="I14" s="109">
         <f t="shared" si="2"/>
-        <v>109628195.76808673</v>
+        <v>72826210.824336678</v>
       </c>
       <c r="J14" s="109">
         <f t="shared" si="2"/>
-        <v>167886447.88870338</v>
+        <v>113809071.95539078</v>
       </c>
     </row>
     <row r="15" spans="2:12">
@@ -2124,23 +2144,23 @@
       </c>
       <c r="F15" s="107">
         <f t="shared" si="3"/>
-        <v>-2279210.1395206628</v>
+        <v>-1315492.0395206602</v>
       </c>
       <c r="G15" s="107">
         <f t="shared" si="3"/>
-        <v>-6072478.1945206653</v>
+        <v>-3807740.6595206601</v>
       </c>
       <c r="H15" s="107">
         <f t="shared" si="3"/>
-        <v>-11361361.244309135</v>
+        <v>-7369159.0150591293</v>
       </c>
       <c r="I15" s="107">
         <f t="shared" si="3"/>
-        <v>-18636793.280574746</v>
+        <v>-12380455.840137236</v>
       </c>
       <c r="J15" s="107">
         <f t="shared" si="3"/>
-        <v>-28540696.141079575</v>
+        <v>-19347542.232416432</v>
       </c>
     </row>
     <row r="16" spans="2:12">
@@ -2232,7 +2252,7 @@
       <c r="C19" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="195">
         <f>'G. FINANCIERO'!C5</f>
         <v>12366000</v>
       </c>
@@ -2260,23 +2280,23 @@
       </c>
       <c r="F20" s="131">
         <f t="shared" si="5"/>
-        <v>9593574.9949146081</v>
+        <v>4888363.0949145956</v>
       </c>
       <c r="G20" s="131">
         <f t="shared" si="5"/>
-        <v>28113648.439914618</v>
+        <v>17056400.474914595</v>
       </c>
       <c r="H20" s="131">
         <f t="shared" si="5"/>
-        <v>53935842.153587729</v>
+        <v>34444501.857837707</v>
       </c>
       <c r="I20" s="131">
         <f t="shared" si="5"/>
-        <v>89457069.154178664</v>
+        <v>58911421.650866106</v>
       </c>
       <c r="J20" s="131">
         <f t="shared" si="5"/>
-        <v>137811418.41429046</v>
+        <v>92927196.389641017</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="13" thickBot="1">
@@ -2289,23 +2309,23 @@
       </c>
       <c r="F21" s="137">
         <f>F20+E21</f>
-        <v>-6797849.8706501368</v>
+        <v>-11503061.770650148</v>
       </c>
       <c r="G21" s="137">
         <f>G20+F21</f>
-        <v>21315798.569264479</v>
+        <v>5553338.7042644471</v>
       </c>
       <c r="H21" s="137">
         <f>H20+G21</f>
-        <v>75251640.7228522</v>
+        <v>39997840.562102154</v>
       </c>
       <c r="I21" s="137">
         <f>I20+H21</f>
-        <v>164708709.87703085</v>
+        <v>98909262.21296826</v>
       </c>
       <c r="J21" s="137">
         <f>J20+I21</f>
-        <v>302520128.29132128</v>
+        <v>191836458.60260928</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -2315,12 +2335,12 @@
       </c>
       <c r="D22" s="143">
         <f>NPV(D24,E20:J20)+D18</f>
-        <v>125769533.86344054</v>
+        <v>69205887.478353128</v>
       </c>
       <c r="E22" s="137"/>
       <c r="F22" s="139">
         <f>D22/D18</f>
-        <v>-6.1023548696477699</v>
+        <v>-3.3578790625110688</v>
       </c>
       <c r="G22" s="137"/>
       <c r="H22" s="137"/>
@@ -2334,7 +2354,7 @@
       </c>
       <c r="D23" s="144">
         <f>IRR(D20:J20)</f>
-        <v>0.91807730821074163</v>
+        <v>0.68463232915470229</v>
       </c>
       <c r="E23" s="136"/>
       <c r="F23" s="141"/>
@@ -2359,8 +2379,20 @@
       <c r="J24" s="136"/>
     </row>
     <row r="27" spans="2:10">
+      <c r="C27" s="192" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="193">
+        <v>0.2</v>
+      </c>
       <c r="I27" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="D31" s="194">
+        <f>-D22/D18</f>
+        <v>3.3578790625110688</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2425,8 +2457,8 @@
   <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2673,30 +2705,30 @@
     <row r="4" spans="2:16" ht="13" thickBot="1">
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
-      <c r="D4" s="175" t="s">
+      <c r="D4" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="175" t="s">
+      <c r="E4" s="175"/>
+      <c r="F4" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="177" t="s">
+      <c r="G4" s="174"/>
+      <c r="H4" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="177"/>
-      <c r="J4" s="175" t="s">
+      <c r="I4" s="175"/>
+      <c r="J4" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="176"/>
-      <c r="L4" s="177" t="s">
+      <c r="K4" s="174"/>
+      <c r="L4" s="175" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="177"/>
-      <c r="N4" s="175" t="s">
+      <c r="M4" s="175"/>
+      <c r="N4" s="173" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="176"/>
+      <c r="O4" s="174"/>
       <c r="P4" s="101"/>
     </row>
     <row r="5" spans="2:16" ht="13" thickBot="1">
@@ -2742,7 +2774,7 @@
     </row>
     <row r="6" spans="2:16" ht="13" thickBot="1">
       <c r="B6" s="101"/>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="177" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="148">
@@ -2791,42 +2823,42 @@
     </row>
     <row r="7" spans="2:16" ht="13" thickBot="1">
       <c r="B7" s="101"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="168">
+      <c r="C7" s="178"/>
+      <c r="D7" s="167">
         <f>D6*E6</f>
         <v>43200000</v>
       </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="168">
+      <c r="E7" s="172"/>
+      <c r="F7" s="167">
         <f>F6*G6</f>
         <v>56160000</v>
       </c>
-      <c r="G7" s="170"/>
-      <c r="H7" s="169">
+      <c r="G7" s="168"/>
+      <c r="H7" s="172">
         <f>H6*I6</f>
         <v>69120000</v>
       </c>
-      <c r="I7" s="169"/>
-      <c r="J7" s="168">
+      <c r="I7" s="172"/>
+      <c r="J7" s="167">
         <f>J6*K6</f>
         <v>85070769.230769232</v>
       </c>
-      <c r="K7" s="170"/>
-      <c r="L7" s="169">
+      <c r="K7" s="168"/>
+      <c r="L7" s="172">
         <f>L6*M6</f>
         <v>104702485.2071006</v>
       </c>
-      <c r="M7" s="169"/>
-      <c r="N7" s="168">
+      <c r="M7" s="172"/>
+      <c r="N7" s="167">
         <f>N6*O6</f>
         <v>128864597.17796996</v>
       </c>
-      <c r="O7" s="170"/>
+      <c r="O7" s="168"/>
       <c r="P7" s="101"/>
     </row>
     <row r="8" spans="2:16" ht="13" thickBot="1">
       <c r="B8" s="101"/>
-      <c r="C8" s="165" t="s">
+      <c r="C8" s="177" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="111">
@@ -2875,42 +2907,42 @@
     </row>
     <row r="9" spans="2:16" ht="13" thickBot="1">
       <c r="B9" s="101"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="171">
+      <c r="C9" s="179"/>
+      <c r="D9" s="170">
         <f>D8*E8</f>
         <v>6300000</v>
       </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="171">
+      <c r="E9" s="169"/>
+      <c r="F9" s="170">
         <f>F8*G8</f>
         <v>3290000</v>
       </c>
-      <c r="G9" s="178"/>
-      <c r="H9" s="162">
+      <c r="G9" s="171"/>
+      <c r="H9" s="169">
         <f>H8*I8</f>
         <v>4277000</v>
       </c>
-      <c r="I9" s="162"/>
-      <c r="J9" s="171">
+      <c r="I9" s="169"/>
+      <c r="J9" s="170">
         <f>J8*K8</f>
         <v>5560100.0000000019</v>
       </c>
-      <c r="K9" s="178"/>
-      <c r="L9" s="162">
+      <c r="K9" s="171"/>
+      <c r="L9" s="169">
         <f>L8*M8</f>
         <v>7228130</v>
       </c>
-      <c r="M9" s="162"/>
-      <c r="N9" s="171">
+      <c r="M9" s="169"/>
+      <c r="N9" s="170">
         <f>N8*O8</f>
         <v>9396569</v>
       </c>
-      <c r="O9" s="178"/>
+      <c r="O9" s="171"/>
       <c r="P9" s="101"/>
     </row>
     <row r="10" spans="2:16" ht="13" thickBot="1">
       <c r="B10" s="101"/>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="178" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="111">
@@ -2964,42 +2996,42 @@
     </row>
     <row r="11" spans="2:16" ht="13" thickBot="1">
       <c r="B11" s="101"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="168">
+      <c r="C11" s="178"/>
+      <c r="D11" s="167">
         <f>D10*E10</f>
         <v>60000000</v>
       </c>
-      <c r="E11" s="169"/>
-      <c r="F11" s="168">
+      <c r="E11" s="172"/>
+      <c r="F11" s="167">
         <f>F10*G10</f>
         <v>78000000</v>
       </c>
-      <c r="G11" s="170"/>
-      <c r="H11" s="169">
+      <c r="G11" s="168"/>
+      <c r="H11" s="172">
         <f>H10*I10</f>
         <v>101400000</v>
       </c>
-      <c r="I11" s="169"/>
-      <c r="J11" s="168">
+      <c r="I11" s="172"/>
+      <c r="J11" s="167">
         <f>J10*K10</f>
         <v>131820000.00000001</v>
       </c>
-      <c r="K11" s="170"/>
-      <c r="L11" s="169">
+      <c r="K11" s="168"/>
+      <c r="L11" s="172">
         <f>L10*M10</f>
         <v>171366000</v>
       </c>
-      <c r="M11" s="169"/>
-      <c r="N11" s="168">
+      <c r="M11" s="172"/>
+      <c r="N11" s="167">
         <f>N10*O10</f>
         <v>222775800</v>
       </c>
-      <c r="O11" s="170"/>
+      <c r="O11" s="168"/>
       <c r="P11" s="101"/>
     </row>
     <row r="12" spans="2:16" ht="13" thickBot="1">
       <c r="B12" s="101"/>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="177" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="111"/>
@@ -3048,42 +3080,42 @@
     </row>
     <row r="13" spans="2:16" ht="13" thickBot="1">
       <c r="B13" s="101"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="171">
+      <c r="C13" s="179"/>
+      <c r="D13" s="170">
         <f>D12*E12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="171">
+      <c r="E13" s="169"/>
+      <c r="F13" s="170">
         <f>F12*G12</f>
         <v>10920000</v>
       </c>
-      <c r="G13" s="178"/>
-      <c r="H13" s="162">
+      <c r="G13" s="171"/>
+      <c r="H13" s="169">
         <f>H12*I12</f>
         <v>14196000</v>
       </c>
-      <c r="I13" s="162"/>
-      <c r="J13" s="171">
+      <c r="I13" s="169"/>
+      <c r="J13" s="170">
         <f>J12*K12</f>
         <v>18454800</v>
       </c>
-      <c r="K13" s="178"/>
-      <c r="L13" s="162">
+      <c r="K13" s="171"/>
+      <c r="L13" s="169">
         <f>L12*M12</f>
         <v>23991240</v>
       </c>
-      <c r="M13" s="162"/>
-      <c r="N13" s="171">
+      <c r="M13" s="169"/>
+      <c r="N13" s="170">
         <f>N12*O12</f>
         <v>31188612</v>
       </c>
-      <c r="O13" s="178"/>
+      <c r="O13" s="171"/>
       <c r="P13" s="101"/>
     </row>
     <row r="14" spans="2:16" ht="13" thickBot="1">
       <c r="B14" s="101"/>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="178" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="111"/>
@@ -3127,42 +3159,42 @@
     </row>
     <row r="15" spans="2:16" ht="13" thickBot="1">
       <c r="B15" s="101"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="168">
+      <c r="C15" s="178"/>
+      <c r="D15" s="167">
         <f>D14*E14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="169"/>
-      <c r="F15" s="168">
+      <c r="E15" s="172"/>
+      <c r="F15" s="167">
         <f>F14*G14</f>
         <v>1950000</v>
       </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="169">
+      <c r="G15" s="168"/>
+      <c r="H15" s="172">
         <f>H14*I14</f>
         <v>2535000</v>
       </c>
-      <c r="I15" s="169"/>
-      <c r="J15" s="168">
+      <c r="I15" s="172"/>
+      <c r="J15" s="167">
         <f>J14*K14</f>
         <v>3295500</v>
       </c>
-      <c r="K15" s="170"/>
-      <c r="L15" s="169">
+      <c r="K15" s="168"/>
+      <c r="L15" s="172">
         <f>L14*M14</f>
         <v>4284150</v>
       </c>
-      <c r="M15" s="169"/>
-      <c r="N15" s="168">
+      <c r="M15" s="172"/>
+      <c r="N15" s="167">
         <f>N14*O14</f>
         <v>5569395</v>
       </c>
-      <c r="O15" s="170"/>
+      <c r="O15" s="168"/>
       <c r="P15" s="101"/>
     </row>
     <row r="16" spans="2:16" ht="13" thickBot="1">
       <c r="B16" s="101"/>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="177" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="111"/>
@@ -3206,37 +3238,37 @@
     </row>
     <row r="17" spans="2:16" ht="13" thickBot="1">
       <c r="B17" s="101"/>
-      <c r="C17" s="167"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="163">
         <f>D16*E16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="164"/>
+      <c r="E17" s="166"/>
       <c r="F17" s="163">
         <f>F16*G16</f>
         <v>6500000</v>
       </c>
-      <c r="G17" s="179"/>
-      <c r="H17" s="164">
+      <c r="G17" s="164"/>
+      <c r="H17" s="166">
         <f>H16*I16</f>
         <v>8450000</v>
       </c>
-      <c r="I17" s="164"/>
+      <c r="I17" s="166"/>
       <c r="J17" s="163">
         <f>J16*K16</f>
         <v>10985000</v>
       </c>
-      <c r="K17" s="179"/>
-      <c r="L17" s="164">
+      <c r="K17" s="164"/>
+      <c r="L17" s="166">
         <f>L16*M16</f>
         <v>14280500</v>
       </c>
-      <c r="M17" s="164"/>
+      <c r="M17" s="166"/>
       <c r="N17" s="163">
         <f>N16*O16</f>
         <v>18564650</v>
       </c>
-      <c r="O17" s="179"/>
+      <c r="O17" s="164"/>
       <c r="P17" s="101"/>
     </row>
     <row r="18" spans="2:16" ht="13" thickBot="1">
@@ -3244,36 +3276,36 @@
       <c r="C18" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="172">
+      <c r="D18" s="161">
         <f>D7+D9+D11+D13+D15+D17</f>
         <v>109500000</v>
       </c>
-      <c r="E18" s="173"/>
-      <c r="F18" s="172">
+      <c r="E18" s="165"/>
+      <c r="F18" s="161">
         <f>F7+F9+F11+F13+F15+F17</f>
         <v>156820000</v>
       </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="173">
+      <c r="G18" s="162"/>
+      <c r="H18" s="165">
         <f>H7+H9+H11+H13+H15+H17</f>
         <v>199978000</v>
       </c>
-      <c r="I18" s="173"/>
-      <c r="J18" s="172">
+      <c r="I18" s="165"/>
+      <c r="J18" s="161">
         <f>J7+J9+J11+J13+J15+J17</f>
         <v>255186169.23076925</v>
       </c>
-      <c r="K18" s="174"/>
-      <c r="L18" s="173">
+      <c r="K18" s="162"/>
+      <c r="L18" s="165">
         <f>L7+L9+L11+L13+L15+L17</f>
         <v>325852505.20710063</v>
       </c>
-      <c r="M18" s="173"/>
-      <c r="N18" s="172">
+      <c r="M18" s="165"/>
+      <c r="N18" s="161">
         <f>N7+N9+N11+N13+N15+N17</f>
         <v>416359623.17796993</v>
       </c>
-      <c r="O18" s="174"/>
+      <c r="O18" s="162"/>
       <c r="P18" s="101"/>
     </row>
     <row r="19" spans="2:16">
@@ -3310,12 +3342,12 @@
       <c r="P20" s="101"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="C21" s="161" t="s">
+      <c r="C21" s="176" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="C22" s="161"/>
+      <c r="C22" s="176"/>
     </row>
     <row r="23" spans="2:16">
       <c r="C23" s="149">
@@ -3348,45 +3380,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="D17:E17"/>
@@ -3403,6 +3396,45 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -3422,7 +3454,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3465,10 +3497,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="101"/>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="189"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="6">
         <v>600000</v>
       </c>
@@ -3480,10 +3512,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="101"/>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="180" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="185"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="4">
         <f>IF('HW y SW'!C5=0,100000,0)</f>
         <v>0</v>
@@ -3496,10 +3528,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="101"/>
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="185"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="4">
         <f>PERSONAL!E12</f>
         <v>8000000</v>
@@ -3512,10 +3544,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="101"/>
-      <c r="B7" s="184" t="s">
+      <c r="B7" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="185"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="4">
         <v>100000</v>
       </c>
@@ -3527,10 +3559,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="101"/>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="185"/>
+      <c r="C8" s="181"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>13000</v>
@@ -3539,10 +3571,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="101"/>
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="185"/>
+      <c r="C9" s="181"/>
       <c r="D9" s="4">
         <v>50000</v>
       </c>
@@ -3554,10 +3586,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="101"/>
-      <c r="B10" s="184" t="s">
+      <c r="B10" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="185"/>
+      <c r="C10" s="181"/>
       <c r="D10" s="4">
         <v>45000</v>
       </c>
@@ -3569,10 +3601,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="101"/>
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="185"/>
+      <c r="C11" s="181"/>
       <c r="D11" s="4">
         <v>45000</v>
       </c>
@@ -3584,10 +3616,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="101"/>
-      <c r="B12" s="184" t="s">
+      <c r="B12" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="185"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="4">
         <f>'CREACIÓN CURSOS'!D9</f>
         <v>1100000</v>
@@ -3600,10 +3632,10 @@
     </row>
     <row r="13" spans="1:6" ht="13" thickBot="1">
       <c r="A13" s="101"/>
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="182"/>
+      <c r="C13" s="186"/>
       <c r="D13" s="5">
         <f>SUM(D4:D12)*0.02</f>
         <v>198800</v>
@@ -3620,7 +3652,7 @@
       <c r="C14" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="183"/>
+      <c r="D14" s="187"/>
       <c r="E14" s="11">
         <f>SUM(E4:E13)</f>
         <v>113378600</v>
@@ -3645,10 +3677,10 @@
     </row>
     <row r="17" spans="1:8" ht="13" thickBot="1">
       <c r="A17" s="101"/>
-      <c r="B17" s="186" t="s">
+      <c r="B17" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="187"/>
+      <c r="C17" s="189"/>
       <c r="D17" s="30" t="s">
         <v>61</v>
       </c>
@@ -3673,10 +3705,10 @@
     </row>
     <row r="19" spans="1:8" ht="13" thickBot="1">
       <c r="A19" s="101"/>
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="181"/>
+      <c r="C19" s="185"/>
       <c r="D19" s="100">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3703,6 +3735,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
@@ -3710,12 +3748,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -4187,7 +4219,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="13" thickBot="1"/>
     <row r="2" spans="2:5" ht="13" thickBot="1">
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="188" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="190"/>
@@ -4367,7 +4399,7 @@
       <c r="C4" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="183"/>
+      <c r="D4" s="187"/>
     </row>
     <row r="5" spans="3:10" ht="13" thickBot="1">
       <c r="C5" s="27" t="s">

--- a/FLUJO.xlsx
+++ b/FLUJO.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="0" windowWidth="25600" windowHeight="20480" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13700" tabRatio="884"/>
   </bookViews>
   <sheets>
-    <sheet name="FLUJO CAJA 1" sheetId="8" r:id="rId1"/>
+    <sheet name="FLUJO CAJA PRINCIPAL" sheetId="8" r:id="rId1"/>
     <sheet name="INVERSION" sheetId="2" r:id="rId2"/>
     <sheet name="INGRESOS" sheetId="6" r:id="rId3"/>
     <sheet name="ESTRUCTURA DE COSTOS" sheetId="1" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
   <si>
     <t>INVERSIÓN</t>
   </si>
@@ -420,7 +420,16 @@
     <t>Presupuesto adhoc de marketing</t>
   </si>
   <si>
-    <t>Tasa Crecimiento CF</t>
+    <t>OTROS</t>
+  </si>
+  <si>
+    <t>GASTOS ADM Y FIN</t>
+  </si>
+  <si>
+    <t>Tasa Crecimiento PERSONAL</t>
+  </si>
+  <si>
+    <t>Tasa Crecimiento OTROS</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +543,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -973,8 +988,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -992,8 +1020,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1260,145 +1294,164 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento ipertestuale" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Collegamento visitato" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
-    <cellStyle name="Valuta" xfId="2" builtinId="4"/>
+  <cellStyles count="23">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1770,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L31"/>
+  <dimension ref="B4:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1788,7 +1841,7 @@
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:10">
       <c r="B4" s="52"/>
       <c r="C4" s="84" t="s">
         <v>45</v>
@@ -1801,7 +1854,7 @@
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="2:12" ht="13" thickBot="1">
+    <row r="5" spans="2:10" ht="13" thickBot="1">
       <c r="B5" s="77" t="s">
         <v>110</v>
       </c>
@@ -1830,7 +1883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="13" thickTop="1">
+    <row r="6" spans="2:10" ht="13" thickTop="1">
       <c r="B6" s="79" t="s">
         <v>47</v>
       </c>
@@ -1863,7 +1916,7 @@
         <v>416359623.17796993</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:10">
       <c r="B7" s="79" t="s">
         <v>47</v>
       </c>
@@ -1895,7 +1948,7 @@
         <v>18564650</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:10">
       <c r="B8" s="81" t="s">
         <v>49</v>
       </c>
@@ -1927,12 +1980,8 @@
         <f>-'CREACIÓN CURSOS'!J14</f>
         <v>-4400000</v>
       </c>
-      <c r="L8">
-        <f>D22/6</f>
-        <v>11534314.579725521</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="81" t="s">
         <v>49</v>
       </c>
@@ -1965,7 +2014,7 @@
         <v>-31226971.73834775</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:10">
       <c r="B10" s="81" t="s">
         <v>49</v>
       </c>
@@ -1974,31 +2023,31 @@
       </c>
       <c r="D10" s="107"/>
       <c r="E10" s="107">
-        <f>-'ESTRUCTURA DE COSTOS'!$E$14</f>
+        <f>-'ESTRUCTURA DE COSTOS'!H8</f>
         <v>-113378600</v>
       </c>
       <c r="F10" s="107">
-        <f>E10*(1+$D$27)</f>
-        <v>-136054320</v>
+        <f>-'ESTRUCTURA DE COSTOS'!I8</f>
+        <v>-123847530.00000001</v>
       </c>
       <c r="G10" s="107">
-        <f t="shared" ref="G10:J10" si="0">F10*(1+$D$27)</f>
-        <v>-163265184</v>
+        <f>-'ESTRUCTURA DE COSTOS'!J8</f>
+        <v>-135319906.50000003</v>
       </c>
       <c r="H10" s="107">
-        <f t="shared" si="0"/>
-        <v>-195918220.79999998</v>
+        <f>-'ESTRUCTURA DE COSTOS'!K8</f>
+        <v>-147893901.82500005</v>
       </c>
       <c r="I10" s="107">
-        <f t="shared" si="0"/>
-        <v>-235101864.95999998</v>
+        <f>-'ESTRUCTURA DE COSTOS'!L8</f>
+        <v>-161677396.91625005</v>
       </c>
       <c r="J10" s="107">
-        <f t="shared" si="0"/>
-        <v>-282122237.95199996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
+        <f>-'ESTRUCTURA DE COSTOS'!M8</f>
+        <v>-176788946.76206258</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="81" t="s">
         <v>49</v>
       </c>
@@ -2031,7 +2080,7 @@
         <v>-526666.66666666663</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:10">
       <c r="B12" s="88" t="s">
         <v>53</v>
       </c>
@@ -2040,31 +2089,31 @@
       </c>
       <c r="D12" s="108"/>
       <c r="E12" s="109">
-        <f t="shared" ref="E12:J12" si="1">SUM(E6:E11)</f>
+        <f t="shared" ref="E12:J12" si="0">SUM(E6:E11)</f>
         <v>-12017766.666666666</v>
       </c>
       <c r="F12" s="109">
-        <f t="shared" si="1"/>
-        <v>10577513.333333334</v>
+        <f t="shared" si="0"/>
+        <v>22784303.333333317</v>
       </c>
       <c r="G12" s="109">
-        <f t="shared" si="1"/>
-        <v>25237799.333333332</v>
+        <f t="shared" si="0"/>
+        <v>53183076.833333306</v>
       </c>
       <c r="H12" s="109">
-        <f t="shared" si="1"/>
-        <v>46187319.07179492</v>
+        <f t="shared" si="0"/>
+        <v>94211638.046794847</v>
       </c>
       <c r="I12" s="109">
-        <f t="shared" si="1"/>
-        <v>75665535.689901426</v>
+        <f t="shared" si="0"/>
+        <v>149090003.73365137</v>
       </c>
       <c r="J12" s="109">
-        <f t="shared" si="1"/>
-        <v>116648396.82095553</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
+        <f t="shared" si="0"/>
+        <v>221981688.01089293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="81" t="s">
         <v>49</v>
       </c>
@@ -2097,7 +2146,7 @@
         <v>-2839324.8655647454</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:10">
       <c r="B14" s="88" t="s">
         <v>53</v>
       </c>
@@ -2106,31 +2155,31 @@
       </c>
       <c r="D14" s="108"/>
       <c r="E14" s="109">
-        <f t="shared" ref="E14:J14" si="2">SUM(E12:E13)</f>
+        <f t="shared" ref="E14:J14" si="1">SUM(E12:E13)</f>
         <v>-14857091.532231411</v>
       </c>
       <c r="F14" s="109">
-        <f t="shared" si="2"/>
-        <v>7738188.467768589</v>
+        <f t="shared" si="1"/>
+        <v>19944978.467768572</v>
       </c>
       <c r="G14" s="109">
-        <f t="shared" si="2"/>
-        <v>22398474.467768587</v>
+        <f t="shared" si="1"/>
+        <v>50343751.967768557</v>
       </c>
       <c r="H14" s="109">
-        <f t="shared" si="2"/>
-        <v>43347994.206230171</v>
+        <f t="shared" si="1"/>
+        <v>91372313.181230098</v>
       </c>
       <c r="I14" s="109">
-        <f t="shared" si="2"/>
-        <v>72826210.824336678</v>
+        <f t="shared" si="1"/>
+        <v>146250678.86808664</v>
       </c>
       <c r="J14" s="109">
-        <f t="shared" si="2"/>
-        <v>113809071.95539078</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
+        <f t="shared" si="1"/>
+        <v>219142363.14532819</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="81" t="s">
         <v>49</v>
       </c>
@@ -2139,31 +2188,31 @@
       </c>
       <c r="D15" s="107"/>
       <c r="E15" s="107">
-        <f t="shared" ref="E15:J15" si="3">+IF(E14&gt;0,-(E14*0.17),0)</f>
+        <f t="shared" ref="E15:J15" si="2">+IF(E14&gt;0,-(E14*0.17),0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="107">
-        <f t="shared" si="3"/>
-        <v>-1315492.0395206602</v>
+        <f t="shared" si="2"/>
+        <v>-3390646.3395206574</v>
       </c>
       <c r="G15" s="107">
-        <f t="shared" si="3"/>
-        <v>-3807740.6595206601</v>
+        <f t="shared" si="2"/>
+        <v>-8558437.8345206548</v>
       </c>
       <c r="H15" s="107">
-        <f t="shared" si="3"/>
-        <v>-7369159.0150591293</v>
+        <f t="shared" si="2"/>
+        <v>-15533293.240809118</v>
       </c>
       <c r="I15" s="107">
-        <f t="shared" si="3"/>
-        <v>-12380455.840137236</v>
+        <f t="shared" si="2"/>
+        <v>-24862615.407574728</v>
       </c>
       <c r="J15" s="107">
-        <f t="shared" si="3"/>
-        <v>-19347542.232416432</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
+        <f t="shared" si="2"/>
+        <v>-37254201.734705798</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="81" t="s">
         <v>47</v>
       </c>
@@ -2172,27 +2221,27 @@
       </c>
       <c r="D16" s="107"/>
       <c r="E16" s="107">
-        <f t="shared" ref="E16:J16" si="4">-(E11)</f>
+        <f t="shared" ref="E16:J16" si="3">-(E11)</f>
         <v>526666.66666666663</v>
       </c>
       <c r="F16" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
       <c r="G16" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
       <c r="H16" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
       <c r="I16" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
       <c r="J16" s="107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
     </row>
@@ -2252,7 +2301,7 @@
       <c r="C19" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="195">
+      <c r="D19" s="157">
         <f>'G. FINANCIERO'!C5</f>
         <v>12366000</v>
       </c>
@@ -2275,58 +2324,40 @@
         <v>-8244000</v>
       </c>
       <c r="E20" s="131">
-        <f t="shared" ref="E20:J20" si="5">SUM(E14:E19)</f>
+        <f t="shared" ref="E20:J20" si="4">SUM(E14:E19)</f>
         <v>-16391424.865564745</v>
       </c>
       <c r="F20" s="131">
-        <f t="shared" si="5"/>
-        <v>4888363.0949145956</v>
+        <f t="shared" si="4"/>
+        <v>15019998.794914581</v>
       </c>
       <c r="G20" s="131">
-        <f t="shared" si="5"/>
-        <v>17056400.474914595</v>
+        <f t="shared" si="4"/>
+        <v>40250980.799914569</v>
       </c>
       <c r="H20" s="131">
-        <f t="shared" si="5"/>
-        <v>34444501.857837707</v>
+        <f t="shared" si="4"/>
+        <v>74304686.607087657</v>
       </c>
       <c r="I20" s="131">
-        <f t="shared" si="5"/>
-        <v>58911421.650866106</v>
+        <f t="shared" si="4"/>
+        <v>119853730.12717858</v>
       </c>
       <c r="J20" s="131">
-        <f t="shared" si="5"/>
-        <v>92927196.389641017</v>
+        <f t="shared" si="4"/>
+        <v>180353828.07728904</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="13" thickBot="1">
       <c r="B21" s="136"/>
       <c r="C21" s="136"/>
       <c r="D21" s="137"/>
-      <c r="E21" s="137">
-        <f>E20</f>
-        <v>-16391424.865564745</v>
-      </c>
-      <c r="F21" s="137">
-        <f>F20+E21</f>
-        <v>-11503061.770650148</v>
-      </c>
-      <c r="G21" s="137">
-        <f>G20+F21</f>
-        <v>5553338.7042644471</v>
-      </c>
-      <c r="H21" s="137">
-        <f>H20+G21</f>
-        <v>39997840.562102154</v>
-      </c>
-      <c r="I21" s="137">
-        <f>I20+H21</f>
-        <v>98909262.21296826</v>
-      </c>
-      <c r="J21" s="137">
-        <f>J20+I21</f>
-        <v>191836458.60260928</v>
-      </c>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="132"/>
@@ -2334,14 +2365,11 @@
         <v>36</v>
       </c>
       <c r="D22" s="143">
-        <f>NPV(D24,E20:J20)+D18</f>
-        <v>69205887.478353128</v>
+        <f>NPV(D24,E20:J20)+D20</f>
+        <v>195369906.18668318</v>
       </c>
       <c r="E22" s="137"/>
-      <c r="F22" s="139">
-        <f>D22/D18</f>
-        <v>-3.3578790625110688</v>
-      </c>
+      <c r="F22" s="139"/>
       <c r="G22" s="137"/>
       <c r="H22" s="137"/>
       <c r="I22" s="137"/>
@@ -2354,7 +2382,7 @@
       </c>
       <c r="D23" s="144">
         <f>IRR(D20:J20)</f>
-        <v>0.68463232915470229</v>
+        <v>1.1222172349230157</v>
       </c>
       <c r="E23" s="136"/>
       <c r="F23" s="141"/>
@@ -2379,20 +2407,138 @@
       <c r="J24" s="136"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="C27" s="192" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="193">
-        <v>0.2</v>
-      </c>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
       <c r="I27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="D31" s="194">
-        <f>-D22/D18</f>
-        <v>3.3578790625110688</v>
+      <c r="D31" s="156"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2">
+        <f>'ESTRUCTURA DE COSTOS'!H6</f>
+        <v>96000000</v>
+      </c>
+      <c r="F33">
+        <f>E33*1.1</f>
+        <v>105600000.00000001</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:J33" si="5">F33*1.1</f>
+        <v>116160000.00000003</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>127776000.00000004</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>140553600.00000006</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>154608960.00000009</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="2">
+        <f>'ESTRUCTURA DE COSTOS'!H7</f>
+        <v>17378600</v>
+      </c>
+      <c r="F34">
+        <f>E34*1.05</f>
+        <v>18247530</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:J34" si="6">F34*1.05</f>
+        <v>19159906.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>20117901.824999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>21123796.916250002</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>22179986.762062501</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E33:E34)</f>
+        <v>113378600</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:J35" si="7">SUM(F33:F34)</f>
+        <v>123847530.00000001</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>135319906.50000003</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>147893901.82500005</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>161677396.91625005</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="7"/>
+        <v>176788946.76206258</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="E37" s="2">
+        <f>E10+E35</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" ref="F37:J37" si="8">F10+F35</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="2">
+        <f>F33-E33</f>
+        <v>9600000.0000000149</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39">
+        <f>C38/12</f>
+        <v>800000.00000000128</v>
       </c>
     </row>
   </sheetData>
@@ -2457,8 +2603,8 @@
   <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2469,19 +2615,19 @@
   <sheetData>
     <row r="3" spans="2:4" ht="13" thickBot="1"/>
     <row r="4" spans="2:4" ht="13" thickBot="1">
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="159"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="13" thickBot="1">
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="157"/>
+      <c r="C5" s="169"/>
       <c r="D5" s="45"/>
     </row>
     <row r="6" spans="2:4">
@@ -2499,28 +2645,28 @@
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="2:4" ht="13" thickBot="1">
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="160"/>
+      <c r="C8" s="172"/>
       <c r="D8" s="46">
         <v>5000000</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="13" thickBot="1">
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="157"/>
+      <c r="C9" s="169"/>
       <c r="D9" s="46">
         <v>2500000</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="13" thickBot="1">
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="157"/>
+      <c r="C10" s="169"/>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="2:4">
@@ -2558,10 +2704,10 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="13" thickBot="1">
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="157"/>
+      <c r="C14" s="169"/>
       <c r="D14" s="45"/>
     </row>
     <row r="15" spans="2:4">
@@ -2611,10 +2757,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="13" thickBot="1">
-      <c r="B20" s="154" t="s">
+      <c r="B20" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="155"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="47">
         <f>SUM(D5:D19)</f>
         <v>20610000</v>
@@ -2646,7 +2792,7 @@
   <dimension ref="B2:P30"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2705,30 +2851,30 @@
     <row r="4" spans="2:16" ht="13" thickBot="1">
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
-      <c r="D4" s="173" t="s">
+      <c r="D4" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="175"/>
-      <c r="F4" s="173" t="s">
+      <c r="E4" s="187"/>
+      <c r="F4" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="174"/>
-      <c r="H4" s="175" t="s">
+      <c r="G4" s="186"/>
+      <c r="H4" s="187" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="175"/>
-      <c r="J4" s="173" t="s">
+      <c r="I4" s="187"/>
+      <c r="J4" s="185" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="174"/>
-      <c r="L4" s="175" t="s">
+      <c r="K4" s="186"/>
+      <c r="L4" s="187" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="175"/>
-      <c r="N4" s="173" t="s">
+      <c r="M4" s="187"/>
+      <c r="N4" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="174"/>
+      <c r="O4" s="186"/>
       <c r="P4" s="101"/>
     </row>
     <row r="5" spans="2:16" ht="13" thickBot="1">
@@ -2774,7 +2920,7 @@
     </row>
     <row r="6" spans="2:16" ht="13" thickBot="1">
       <c r="B6" s="101"/>
-      <c r="C6" s="177" t="s">
+      <c r="C6" s="189" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="148">
@@ -2823,42 +2969,42 @@
     </row>
     <row r="7" spans="2:16" ht="13" thickBot="1">
       <c r="B7" s="101"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="167">
+      <c r="C7" s="190"/>
+      <c r="D7" s="179">
         <f>D6*E6</f>
         <v>43200000</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="167">
+      <c r="E7" s="184"/>
+      <c r="F7" s="179">
         <f>F6*G6</f>
         <v>56160000</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="172">
+      <c r="G7" s="180"/>
+      <c r="H7" s="184">
         <f>H6*I6</f>
         <v>69120000</v>
       </c>
-      <c r="I7" s="172"/>
-      <c r="J7" s="167">
+      <c r="I7" s="184"/>
+      <c r="J7" s="179">
         <f>J6*K6</f>
         <v>85070769.230769232</v>
       </c>
-      <c r="K7" s="168"/>
-      <c r="L7" s="172">
+      <c r="K7" s="180"/>
+      <c r="L7" s="184">
         <f>L6*M6</f>
         <v>104702485.2071006</v>
       </c>
-      <c r="M7" s="172"/>
-      <c r="N7" s="167">
+      <c r="M7" s="184"/>
+      <c r="N7" s="179">
         <f>N6*O6</f>
         <v>128864597.17796996</v>
       </c>
-      <c r="O7" s="168"/>
+      <c r="O7" s="180"/>
       <c r="P7" s="101"/>
     </row>
     <row r="8" spans="2:16" ht="13" thickBot="1">
       <c r="B8" s="101"/>
-      <c r="C8" s="177" t="s">
+      <c r="C8" s="189" t="s">
         <v>114</v>
       </c>
       <c r="D8" s="111">
@@ -2907,42 +3053,42 @@
     </row>
     <row r="9" spans="2:16" ht="13" thickBot="1">
       <c r="B9" s="101"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="170">
+      <c r="C9" s="191"/>
+      <c r="D9" s="182">
         <f>D8*E8</f>
         <v>6300000</v>
       </c>
-      <c r="E9" s="169"/>
-      <c r="F9" s="170">
+      <c r="E9" s="181"/>
+      <c r="F9" s="182">
         <f>F8*G8</f>
         <v>3290000</v>
       </c>
-      <c r="G9" s="171"/>
-      <c r="H9" s="169">
+      <c r="G9" s="183"/>
+      <c r="H9" s="181">
         <f>H8*I8</f>
         <v>4277000</v>
       </c>
-      <c r="I9" s="169"/>
-      <c r="J9" s="170">
+      <c r="I9" s="181"/>
+      <c r="J9" s="182">
         <f>J8*K8</f>
         <v>5560100.0000000019</v>
       </c>
-      <c r="K9" s="171"/>
-      <c r="L9" s="169">
+      <c r="K9" s="183"/>
+      <c r="L9" s="181">
         <f>L8*M8</f>
         <v>7228130</v>
       </c>
-      <c r="M9" s="169"/>
-      <c r="N9" s="170">
+      <c r="M9" s="181"/>
+      <c r="N9" s="182">
         <f>N8*O8</f>
         <v>9396569</v>
       </c>
-      <c r="O9" s="171"/>
+      <c r="O9" s="183"/>
       <c r="P9" s="101"/>
     </row>
     <row r="10" spans="2:16" ht="13" thickBot="1">
       <c r="B10" s="101"/>
-      <c r="C10" s="178" t="s">
+      <c r="C10" s="190" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="111">
@@ -2996,42 +3142,42 @@
     </row>
     <row r="11" spans="2:16" ht="13" thickBot="1">
       <c r="B11" s="101"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="167">
+      <c r="C11" s="190"/>
+      <c r="D11" s="179">
         <f>D10*E10</f>
         <v>60000000</v>
       </c>
-      <c r="E11" s="172"/>
-      <c r="F11" s="167">
+      <c r="E11" s="184"/>
+      <c r="F11" s="179">
         <f>F10*G10</f>
         <v>78000000</v>
       </c>
-      <c r="G11" s="168"/>
-      <c r="H11" s="172">
+      <c r="G11" s="180"/>
+      <c r="H11" s="184">
         <f>H10*I10</f>
         <v>101400000</v>
       </c>
-      <c r="I11" s="172"/>
-      <c r="J11" s="167">
+      <c r="I11" s="184"/>
+      <c r="J11" s="179">
         <f>J10*K10</f>
         <v>131820000.00000001</v>
       </c>
-      <c r="K11" s="168"/>
-      <c r="L11" s="172">
+      <c r="K11" s="180"/>
+      <c r="L11" s="184">
         <f>L10*M10</f>
         <v>171366000</v>
       </c>
-      <c r="M11" s="172"/>
-      <c r="N11" s="167">
+      <c r="M11" s="184"/>
+      <c r="N11" s="179">
         <f>N10*O10</f>
         <v>222775800</v>
       </c>
-      <c r="O11" s="168"/>
+      <c r="O11" s="180"/>
       <c r="P11" s="101"/>
     </row>
     <row r="12" spans="2:16" ht="13" thickBot="1">
       <c r="B12" s="101"/>
-      <c r="C12" s="177" t="s">
+      <c r="C12" s="189" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="111"/>
@@ -3080,42 +3226,42 @@
     </row>
     <row r="13" spans="2:16" ht="13" thickBot="1">
       <c r="B13" s="101"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="170">
+      <c r="C13" s="191"/>
+      <c r="D13" s="182">
         <f>D12*E12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170">
+      <c r="E13" s="181"/>
+      <c r="F13" s="182">
         <f>F12*G12</f>
         <v>10920000</v>
       </c>
-      <c r="G13" s="171"/>
-      <c r="H13" s="169">
+      <c r="G13" s="183"/>
+      <c r="H13" s="181">
         <f>H12*I12</f>
         <v>14196000</v>
       </c>
-      <c r="I13" s="169"/>
-      <c r="J13" s="170">
+      <c r="I13" s="181"/>
+      <c r="J13" s="182">
         <f>J12*K12</f>
         <v>18454800</v>
       </c>
-      <c r="K13" s="171"/>
-      <c r="L13" s="169">
+      <c r="K13" s="183"/>
+      <c r="L13" s="181">
         <f>L12*M12</f>
         <v>23991240</v>
       </c>
-      <c r="M13" s="169"/>
-      <c r="N13" s="170">
+      <c r="M13" s="181"/>
+      <c r="N13" s="182">
         <f>N12*O12</f>
         <v>31188612</v>
       </c>
-      <c r="O13" s="171"/>
+      <c r="O13" s="183"/>
       <c r="P13" s="101"/>
     </row>
     <row r="14" spans="2:16" ht="13" thickBot="1">
       <c r="B14" s="101"/>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="190" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="111"/>
@@ -3159,42 +3305,42 @@
     </row>
     <row r="15" spans="2:16" ht="13" thickBot="1">
       <c r="B15" s="101"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="167">
+      <c r="C15" s="190"/>
+      <c r="D15" s="179">
         <f>D14*E14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="172"/>
-      <c r="F15" s="167">
+      <c r="E15" s="184"/>
+      <c r="F15" s="179">
         <f>F14*G14</f>
         <v>1950000</v>
       </c>
-      <c r="G15" s="168"/>
-      <c r="H15" s="172">
+      <c r="G15" s="180"/>
+      <c r="H15" s="184">
         <f>H14*I14</f>
         <v>2535000</v>
       </c>
-      <c r="I15" s="172"/>
-      <c r="J15" s="167">
+      <c r="I15" s="184"/>
+      <c r="J15" s="179">
         <f>J14*K14</f>
         <v>3295500</v>
       </c>
-      <c r="K15" s="168"/>
-      <c r="L15" s="172">
+      <c r="K15" s="180"/>
+      <c r="L15" s="184">
         <f>L14*M14</f>
         <v>4284150</v>
       </c>
-      <c r="M15" s="172"/>
-      <c r="N15" s="167">
+      <c r="M15" s="184"/>
+      <c r="N15" s="179">
         <f>N14*O14</f>
         <v>5569395</v>
       </c>
-      <c r="O15" s="168"/>
+      <c r="O15" s="180"/>
       <c r="P15" s="101"/>
     </row>
     <row r="16" spans="2:16" ht="13" thickBot="1">
       <c r="B16" s="101"/>
-      <c r="C16" s="177" t="s">
+      <c r="C16" s="189" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="111"/>
@@ -3238,37 +3384,37 @@
     </row>
     <row r="17" spans="2:16" ht="13" thickBot="1">
       <c r="B17" s="101"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="163">
+      <c r="C17" s="191"/>
+      <c r="D17" s="175">
         <f>D16*E16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="166"/>
-      <c r="F17" s="163">
+      <c r="E17" s="178"/>
+      <c r="F17" s="175">
         <f>F16*G16</f>
         <v>6500000</v>
       </c>
-      <c r="G17" s="164"/>
-      <c r="H17" s="166">
+      <c r="G17" s="176"/>
+      <c r="H17" s="178">
         <f>H16*I16</f>
         <v>8450000</v>
       </c>
-      <c r="I17" s="166"/>
-      <c r="J17" s="163">
+      <c r="I17" s="178"/>
+      <c r="J17" s="175">
         <f>J16*K16</f>
         <v>10985000</v>
       </c>
-      <c r="K17" s="164"/>
-      <c r="L17" s="166">
+      <c r="K17" s="176"/>
+      <c r="L17" s="178">
         <f>L16*M16</f>
         <v>14280500</v>
       </c>
-      <c r="M17" s="166"/>
-      <c r="N17" s="163">
+      <c r="M17" s="178"/>
+      <c r="N17" s="175">
         <f>N16*O16</f>
         <v>18564650</v>
       </c>
-      <c r="O17" s="164"/>
+      <c r="O17" s="176"/>
       <c r="P17" s="101"/>
     </row>
     <row r="18" spans="2:16" ht="13" thickBot="1">
@@ -3276,36 +3422,36 @@
       <c r="C18" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="161">
+      <c r="D18" s="173">
         <f>D7+D9+D11+D13+D15+D17</f>
         <v>109500000</v>
       </c>
-      <c r="E18" s="165"/>
-      <c r="F18" s="161">
+      <c r="E18" s="177"/>
+      <c r="F18" s="173">
         <f>F7+F9+F11+F13+F15+F17</f>
         <v>156820000</v>
       </c>
-      <c r="G18" s="162"/>
-      <c r="H18" s="165">
+      <c r="G18" s="174"/>
+      <c r="H18" s="177">
         <f>H7+H9+H11+H13+H15+H17</f>
         <v>199978000</v>
       </c>
-      <c r="I18" s="165"/>
-      <c r="J18" s="161">
+      <c r="I18" s="177"/>
+      <c r="J18" s="173">
         <f>J7+J9+J11+J13+J15+J17</f>
         <v>255186169.23076925</v>
       </c>
-      <c r="K18" s="162"/>
-      <c r="L18" s="165">
+      <c r="K18" s="174"/>
+      <c r="L18" s="177">
         <f>L7+L9+L11+L13+L15+L17</f>
         <v>325852505.20710063</v>
       </c>
-      <c r="M18" s="165"/>
-      <c r="N18" s="161">
+      <c r="M18" s="177"/>
+      <c r="N18" s="173">
         <f>N7+N9+N11+N13+N15+N17</f>
         <v>416359623.17796993</v>
       </c>
-      <c r="O18" s="162"/>
+      <c r="O18" s="174"/>
       <c r="P18" s="101"/>
     </row>
     <row r="19" spans="2:16">
@@ -3342,12 +3488,12 @@
       <c r="P20" s="101"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="188" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="C22" s="176"/>
+      <c r="C22" s="188"/>
     </row>
     <row r="23" spans="2:16">
       <c r="C23" s="149">
@@ -3451,10 +3597,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3462,26 +3608,27 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" s="101"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
       <c r="D1" s="101"/>
       <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-    </row>
-    <row r="2" spans="1:6" ht="13" thickBot="1">
+      <c r="G1" s="101"/>
+    </row>
+    <row r="2" spans="1:13" ht="13" thickBot="1">
       <c r="A2" s="101"/>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
       <c r="D2" s="101"/>
       <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-    </row>
-    <row r="3" spans="1:6" ht="13" thickBot="1">
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="1:13" ht="13" thickBot="1">
       <c r="A3" s="101"/>
       <c r="B3" s="128" t="s">
         <v>42</v>
@@ -3493,14 +3640,14 @@
       <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="130"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="130"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="101"/>
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="195" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="183"/>
+      <c r="C4" s="196"/>
       <c r="D4" s="6">
         <v>600000</v>
       </c>
@@ -3508,14 +3655,14 @@
         <f>D4*12</f>
         <v>7200000</v>
       </c>
-      <c r="F4" s="101"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="101"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="101"/>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="194"/>
       <c r="D5" s="4">
         <f>IF('HW y SW'!C5=0,100000,0)</f>
         <v>0</v>
@@ -3524,14 +3671,32 @@
         <f>'HW y SW'!G4</f>
         <v>500000</v>
       </c>
-      <c r="F5" s="101"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="101"/>
+      <c r="H5" s="158">
+        <v>1</v>
+      </c>
+      <c r="I5" s="158">
+        <v>2</v>
+      </c>
+      <c r="J5" s="158">
+        <v>3</v>
+      </c>
+      <c r="K5" s="158">
+        <v>4</v>
+      </c>
+      <c r="L5" s="158">
+        <v>5</v>
+      </c>
+      <c r="M5" s="158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="101"/>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="181"/>
+      <c r="C6" s="194"/>
       <c r="D6" s="4">
         <f>PERSONAL!E12</f>
         <v>8000000</v>
@@ -3540,14 +3705,40 @@
         <f t="shared" ref="E6:E11" si="0">D6*12</f>
         <v>96000000</v>
       </c>
-      <c r="F6" s="101"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="159" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="160">
+        <f>E6</f>
+        <v>96000000</v>
+      </c>
+      <c r="I6" s="161">
+        <f>H6*(1+$I$10)</f>
+        <v>105600000.00000001</v>
+      </c>
+      <c r="J6" s="161">
+        <f t="shared" ref="J6:M6" si="1">I6*(1+$I$10)</f>
+        <v>116160000.00000003</v>
+      </c>
+      <c r="K6" s="161">
+        <f t="shared" si="1"/>
+        <v>127776000.00000004</v>
+      </c>
+      <c r="L6" s="161">
+        <f t="shared" si="1"/>
+        <v>140553600.00000006</v>
+      </c>
+      <c r="M6" s="161">
+        <f t="shared" si="1"/>
+        <v>154608960.00000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="101"/>
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="181"/>
+      <c r="C7" s="194"/>
       <c r="D7" s="4">
         <v>100000</v>
       </c>
@@ -3555,26 +3746,78 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="F7" s="101"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="159" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="160">
+        <f>SUM(E4:E13)-H6</f>
+        <v>17378600</v>
+      </c>
+      <c r="I7" s="161">
+        <f>H7*(1+$I$11)</f>
+        <v>18247530</v>
+      </c>
+      <c r="J7" s="161">
+        <f t="shared" ref="J7:M7" si="2">I7*(1+$I$11)</f>
+        <v>19159906.5</v>
+      </c>
+      <c r="K7" s="161">
+        <f t="shared" si="2"/>
+        <v>20117901.824999999</v>
+      </c>
+      <c r="L7" s="161">
+        <f t="shared" si="2"/>
+        <v>21123796.916250002</v>
+      </c>
+      <c r="M7" s="161">
+        <f t="shared" si="2"/>
+        <v>22179986.762062501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="101"/>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="194"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>13000</v>
       </c>
-      <c r="F8" s="101"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="162" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="163">
+        <f>H6+H7</f>
+        <v>113378600</v>
+      </c>
+      <c r="I8" s="164">
+        <f t="shared" ref="I8:M8" si="3">SUM(I6:I7)</f>
+        <v>123847530.00000001</v>
+      </c>
+      <c r="J8" s="164">
+        <f t="shared" si="3"/>
+        <v>135319906.50000003</v>
+      </c>
+      <c r="K8" s="164">
+        <f t="shared" si="3"/>
+        <v>147893901.82500005</v>
+      </c>
+      <c r="L8" s="164">
+        <f t="shared" si="3"/>
+        <v>161677396.91625005</v>
+      </c>
+      <c r="M8" s="164">
+        <f t="shared" si="3"/>
+        <v>176788946.76206258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="101"/>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="181"/>
+      <c r="C9" s="194"/>
       <c r="D9" s="4">
         <v>50000</v>
       </c>
@@ -3582,14 +3825,14 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="F9" s="101"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="101"/>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="181"/>
+      <c r="C10" s="194"/>
       <c r="D10" s="4">
         <v>45000</v>
       </c>
@@ -3597,14 +3840,20 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="F10" s="101"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="192" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="192"/>
+      <c r="I10" s="165">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="101"/>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="181"/>
+      <c r="C11" s="194"/>
       <c r="D11" s="4">
         <v>45000</v>
       </c>
@@ -3612,14 +3861,20 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="F11" s="101"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="192" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="192"/>
+      <c r="I11" s="165">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="101"/>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="181"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="4">
         <f>'CREACIÓN CURSOS'!D9</f>
         <v>1100000</v>
@@ -3628,14 +3883,14 @@
         <f>'CREACIÓN CURSOS'!D14</f>
         <v>4400000</v>
       </c>
-      <c r="F12" s="101"/>
-    </row>
-    <row r="13" spans="1:6" ht="13" thickBot="1">
+      <c r="G12" s="101"/>
+    </row>
+    <row r="13" spans="1:13" ht="13" thickBot="1">
       <c r="A13" s="101"/>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="197" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="186"/>
+      <c r="C13" s="199"/>
       <c r="D13" s="5">
         <f>SUM(D4:D12)*0.02</f>
         <v>198800</v>
@@ -3644,54 +3899,50 @@
         <f>D13*12</f>
         <v>2385600</v>
       </c>
-      <c r="F13" s="101"/>
-    </row>
-    <row r="14" spans="1:6" ht="13" thickBot="1">
+      <c r="G13" s="101"/>
+    </row>
+    <row r="14" spans="1:13" ht="13" thickBot="1">
       <c r="A14" s="101"/>
       <c r="B14" s="101"/>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="187"/>
+      <c r="D14" s="200"/>
       <c r="E14" s="11">
         <f>SUM(E4:E13)</f>
         <v>113378600</v>
       </c>
-      <c r="F14" s="101"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="101"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="101"/>
       <c r="B15" s="101"/>
       <c r="C15" s="101"/>
       <c r="D15" s="129"/>
       <c r="E15" s="129"/>
-      <c r="F15" s="101"/>
-    </row>
-    <row r="16" spans="1:6" ht="13" thickBot="1">
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16" spans="1:13" ht="13" thickBot="1">
       <c r="A16" s="101"/>
       <c r="B16" s="101"/>
       <c r="C16" s="101"/>
       <c r="D16" s="129"/>
       <c r="E16" s="129"/>
-      <c r="F16" s="101"/>
-    </row>
-    <row r="17" spans="1:8" ht="13" thickBot="1">
+      <c r="G16" s="101"/>
+    </row>
+    <row r="17" spans="1:7" ht="13" thickBot="1">
       <c r="A17" s="101"/>
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="201" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="189"/>
+      <c r="C17" s="202"/>
       <c r="D17" s="30" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="H17">
-        <f>E14*D19</f>
-        <v>566893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" s="101"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="101"/>
       <c r="B18" s="25" t="s">
         <v>30</v>
@@ -3701,21 +3952,21 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-    </row>
-    <row r="19" spans="1:8" ht="13" thickBot="1">
+      <c r="G18" s="101"/>
+    </row>
+    <row r="19" spans="1:7" ht="13" thickBot="1">
       <c r="A19" s="101"/>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="197" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="185"/>
+      <c r="C19" s="198"/>
       <c r="D19" s="100">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-    </row>
-    <row r="20" spans="1:8" ht="13" thickBot="1">
+      <c r="G19" s="101"/>
+    </row>
+    <row r="20" spans="1:7" ht="13" thickBot="1">
       <c r="A20" s="101"/>
       <c r="B20" s="101"/>
       <c r="C20" s="101"/>
@@ -3723,24 +3974,32 @@
         <v>62</v>
       </c>
       <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="G20" s="101"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="101"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
       <c r="D21" s="101"/>
       <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="D23">
+        <f>E14*D19</f>
+        <v>566893</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
@@ -3840,7 +4099,7 @@
   <dimension ref="B4:F18"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4206,10 +4465,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B1:E12"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4217,14 +4476,30 @@
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="13" thickBot="1"/>
-    <row r="2" spans="2:5" ht="13" thickBot="1">
-      <c r="D2" s="188" t="s">
+    <row r="1" spans="2:10" ht="13" thickBot="1">
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="13" thickBot="1">
+      <c r="D2" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="190"/>
-    </row>
-    <row r="3" spans="2:5" ht="13" thickBot="1">
+      <c r="E2" s="203"/>
+    </row>
+    <row r="3" spans="2:10" ht="13" thickBot="1">
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
@@ -4238,7 +4513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:10">
       <c r="B4" s="96">
         <v>1</v>
       </c>
@@ -4253,7 +4528,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:10">
       <c r="B5" s="12">
         <v>1</v>
       </c>
@@ -4268,7 +4543,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:10">
       <c r="B6" s="12">
         <v>2</v>
       </c>
@@ -4283,7 +4558,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:10">
       <c r="B7" s="12">
         <v>3</v>
       </c>
@@ -4298,7 +4573,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:10">
       <c r="B8" s="12">
         <v>1</v>
       </c>
@@ -4313,7 +4588,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:10">
       <c r="B9" s="12">
         <v>1</v>
       </c>
@@ -4328,7 +4603,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:10">
       <c r="B10" s="12">
         <v>1</v>
       </c>
@@ -4343,7 +4618,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="13" thickBot="1">
+    <row r="11" spans="2:10" ht="13" thickBot="1">
       <c r="B11" s="16">
         <v>1</v>
       </c>
@@ -4358,10 +4633,30 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="13" thickBot="1">
+    <row r="12" spans="2:10" ht="13" thickBot="1">
       <c r="E12" s="95">
         <f>SUM(E4:E11)</f>
         <v>8000000</v>
+      </c>
+      <c r="F12">
+        <f>E12*1.1</f>
+        <v>8800000</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:J12" si="1">F12*1.1</f>
+        <v>9680000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>10648000</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>11712800.000000002</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>12884080.000000004</v>
       </c>
     </row>
   </sheetData>
@@ -4396,10 +4691,10 @@
   <sheetData>
     <row r="3" spans="3:10" ht="13" thickBot="1"/>
     <row r="4" spans="3:10" ht="13" thickBot="1">
-      <c r="C4" s="191" t="s">
+      <c r="C4" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="200"/>
     </row>
     <row r="5" spans="3:10" ht="13" thickBot="1">
       <c r="C5" s="27" t="s">

--- a/FLUJO.xlsx
+++ b/FLUJO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13700" tabRatio="884"/>
+    <workbookView xWindow="555" yWindow="615" windowWidth="25035" windowHeight="13635" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="FLUJO CAJA PRINCIPAL" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CREACIÓN CURSOS" sheetId="5" r:id="rId9"/>
     <sheet name="Plan de Marketing" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
   <si>
     <t>INVERSIÓN</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Inscripción de dominio</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ARRIENDO + GASTOS COMUNES</t>
   </si>
   <si>
@@ -423,13 +420,19 @@
     <t>OTROS</t>
   </si>
   <si>
-    <t>GASTOS ADM Y FIN</t>
-  </si>
-  <si>
     <t>Tasa Crecimiento PERSONAL</t>
   </si>
   <si>
     <t>Tasa Crecimiento OTROS</t>
+  </si>
+  <si>
+    <t>Crecimiento Anual</t>
+  </si>
+  <si>
+    <t>Mensualidad Gestión</t>
+  </si>
+  <si>
+    <t>Tasa Crecimiento Personal</t>
   </si>
 </sst>
 </file>
@@ -437,12 +440,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1005,7 +1008,7 @@
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1027,7 +1030,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1103,7 +1106,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,7 +1115,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1126,7 +1129,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1135,28 +1138,28 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1209,8 +1212,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1250,16 +1253,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1271,7 +1274,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,18 +1288,16 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1331,100 +1332,118 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1451,14 +1470,840 @@
     <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="124"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="24"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1973344270726678"/>
+          <c:y val="0.21784071214342784"/>
+          <c:w val="0.76083182924331982"/>
+          <c:h val="0.64607631623520712"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FLUJO CAJA PRINCIPAL'!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14049827843206356"/>
+                  <c:y val="-8.203832749632585E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'FLUJO CAJA PRINCIPAL'!$C$35:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FLUJO CAJA PRINCIPAL'!$D$35:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12428476.569774456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41001309.400372759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73187535.701469153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109367561.87008296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149949445.5219993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195369906.18668318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246095336.00219232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>302622810.41009074</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365481098.85036224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>435231675.45632291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="31131520"/>
+        <c:axId val="31133056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="31131520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="31133056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="31133056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="31131520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8429912580224749E-2"/>
+          <c:y val="5.2289264639710908E-3"/>
+          <c:w val="0.89360904612913106"/>
+          <c:h val="0.11497478994472095"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="116"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="16"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19870012791326355"/>
+          <c:y val="0.12006299519751441"/>
+          <c:w val="0.75803493898245622"/>
+          <c:h val="0.61068600093414926"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FLUJO CAJA PRINCIPAL'!$D$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24364659495371985"/>
+                  <c:y val="-1.1421087479832811E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'FLUJO CAJA PRINCIPAL'!$C$50:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FLUJO CAJA PRINCIPAL'!$D$50:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>22321890.626882717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57444256.890377134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92566623.153871506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126980069.68994012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161174987.93831164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195369906.18668318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229564824.43505466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>263759742.68342614</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>297689622.28873622</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>331064105.75449902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="39196928"/>
+        <c:axId val="44482560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39196928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44482560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44482560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39196928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3689987959929287E-2"/>
+          <c:y val="5.2289264639710613E-3"/>
+          <c:w val="0.84257297869271131"/>
+          <c:h val="8.781431301530053E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="116"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="16"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19731845238095239"/>
+          <c:y val="0.14179137674105072"/>
+          <c:w val="0.76223730158730152"/>
+          <c:h val="0.72212565163758435"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'FLUJO CAJA PRINCIPAL'!$D$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="dash"/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6100992063492064E-2"/>
+                  <c:y val="-0.22998764732954768"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'FLUJO CAJA PRINCIPAL'!$C$65:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'FLUJO CAJA PRINCIPAL'!$D$65:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>240326790.21024233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>233274407.53094852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226050675.05015779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218652015.83958411</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211074799.64564967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203315342.47611076</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>195369906.18668318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>187234698.06766796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178905870.4305771</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170379520.1947594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="44257280"/>
+        <c:axId val="44495232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44257280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44495232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44495232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDot"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="44257280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4932738095238118E-2"/>
+          <c:y val="1.0661021849855141E-2"/>
+          <c:w val="0.88711091269841269"/>
+          <c:h val="0.11497478994472095"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25978</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26387</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>51956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25977</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35045</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1823,25 +2668,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J39"/>
+  <dimension ref="A4:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="52"/>
       <c r="C4" s="84" t="s">
         <v>45</v>
@@ -1854,9 +2700,9 @@
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="2:10" ht="13" thickBot="1">
+    <row r="5" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="85" t="s">
         <v>46</v>
@@ -1883,7 +2729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="13" thickTop="1">
+    <row r="6" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="79" t="s">
         <v>47</v>
       </c>
@@ -1916,12 +2762,12 @@
         <v>416359623.17796993</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="79" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="106"/>
       <c r="E7" s="106">
@@ -1948,12 +2794,12 @@
         <v>18564650</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="81" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="107"/>
       <c r="E8" s="107">
@@ -1981,7 +2827,7 @@
         <v>-4400000</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="81" t="s">
         <v>49</v>
       </c>
@@ -2014,7 +2860,7 @@
         <v>-31226971.73834775</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="81" t="s">
         <v>49</v>
       </c>
@@ -2047,7 +2893,7 @@
         <v>-176788946.76206258</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="81" t="s">
         <v>49</v>
       </c>
@@ -2080,7 +2926,7 @@
         <v>-526666.66666666663</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="88" t="s">
         <v>53</v>
       </c>
@@ -2113,7 +2959,7 @@
         <v>221981688.01089293</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="81" t="s">
         <v>49</v>
       </c>
@@ -2146,7 +2992,7 @@
         <v>-2839324.8655647454</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="88" t="s">
         <v>53</v>
       </c>
@@ -2179,7 +3025,7 @@
         <v>219142363.14532819</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="81" t="s">
         <v>49</v>
       </c>
@@ -2212,7 +3058,7 @@
         <v>-37254201.734705798</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="81" t="s">
         <v>47</v>
       </c>
@@ -2245,7 +3091,7 @@
         <v>526666.66666666663</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="81" t="s">
         <v>49</v>
       </c>
@@ -2278,7 +3124,7 @@
         <v>-2061000</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="81" t="s">
         <v>49</v>
       </c>
@@ -2296,12 +3142,12 @@
       <c r="I18" s="107"/>
       <c r="J18" s="107"/>
     </row>
-    <row r="19" spans="2:10" ht="13" thickBot="1">
+    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="78"/>
       <c r="C19" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="157">
+      <c r="D19" s="155">
         <f>'G. FINANCIERO'!C5</f>
         <v>12366000</v>
       </c>
@@ -2312,7 +3158,7 @@
       <c r="I19" s="110"/>
       <c r="J19" s="110"/>
     </row>
-    <row r="20" spans="2:10" ht="13" thickTop="1">
+    <row r="20" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B20" s="79" t="s">
         <v>53</v>
       </c>
@@ -2348,7 +3194,7 @@
         <v>180353828.07728904</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="13" thickBot="1">
+    <row r="21" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="136"/>
       <c r="C21" s="136"/>
       <c r="D21" s="137"/>
@@ -2359,7 +3205,7 @@
       <c r="I21" s="137"/>
       <c r="J21" s="137"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="132"/>
       <c r="C22" s="138" t="s">
         <v>36</v>
@@ -2375,7 +3221,7 @@
       <c r="I22" s="137"/>
       <c r="J22" s="137"/>
     </row>
-    <row r="23" spans="2:10" ht="13" thickBot="1">
+    <row r="23" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="133"/>
       <c r="C23" s="140" t="s">
         <v>35</v>
@@ -2391,7 +3237,7 @@
       <c r="I23" s="136"/>
       <c r="J23" s="136"/>
     </row>
-    <row r="24" spans="2:10" ht="13" thickBot="1">
+    <row r="24" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="134"/>
       <c r="C24" s="142" t="s">
         <v>82</v>
@@ -2406,145 +3252,333 @@
       <c r="I24" s="136"/>
       <c r="J24" s="136"/>
     </row>
-    <row r="27" spans="2:10">
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="I27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="D31" s="156"/>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2">
-        <f>'ESTRUCTURA DE COSTOS'!H6</f>
-        <v>96000000</v>
-      </c>
-      <c r="F33">
-        <f>E33*1.1</f>
-        <v>105600000.00000001</v>
-      </c>
-      <c r="G33">
-        <f t="shared" ref="G33:J33" si="5">F33*1.1</f>
-        <v>116160000.00000003</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
-        <v>127776000.00000004</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="5"/>
-        <v>140553600.00000006</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="5"/>
-        <v>154608960.00000009</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="C34" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C27" s="204" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="204"/>
+      <c r="E27" s="203">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C28" s="204" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="204"/>
+      <c r="E28" s="149">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="204" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="2">
-        <f>'ESTRUCTURA DE COSTOS'!H7</f>
-        <v>17378600</v>
-      </c>
-      <c r="F34">
-        <f>E34*1.05</f>
-        <v>18247530</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ref="G34:J34" si="6">F34*1.05</f>
-        <v>19159906.5</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="6"/>
-        <v>20117901.824999999</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="6"/>
-        <v>21123796.916250002</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="6"/>
-        <v>22179986.762062501</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35">
-        <f>SUM(E33:E34)</f>
-        <v>113378600</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ref="F35:J35" si="7">SUM(F33:F34)</f>
-        <v>123847530.00000001</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="7"/>
-        <v>135319906.50000003</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="7"/>
-        <v>147893901.82500005</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="7"/>
-        <v>161677396.91625005</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="7"/>
-        <v>176788946.76206258</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10">
-      <c r="E37" s="2">
-        <f>E10+E35</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" ref="F37:J37" si="8">F10+F35</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10">
-      <c r="C38" s="2">
-        <f>F33-E33</f>
-        <v>9600000.0000000149</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10">
-      <c r="C39">
-        <f>C38/12</f>
-        <v>800000.00000000128</v>
+      <c r="D29" s="204"/>
+      <c r="E29" s="203">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="208" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="208" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="206">
+        <v>0.05</v>
+      </c>
+      <c r="D35" s="207">
+        <v>12428476.569774456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="206">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="207">
+        <v>41001309.400372759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="206">
+        <v>0.15</v>
+      </c>
+      <c r="D37" s="207">
+        <v>73187535.701469153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="206">
+        <v>0.2</v>
+      </c>
+      <c r="D38" s="207">
+        <v>109367561.87008296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="154"/>
+      <c r="C39" s="206">
+        <v>0.25</v>
+      </c>
+      <c r="D39" s="207">
+        <v>149949445.5219993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="206">
+        <v>0.3</v>
+      </c>
+      <c r="D40" s="207">
+        <v>195369906.18668318</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="206">
+        <v>0.35</v>
+      </c>
+      <c r="D41" s="207">
+        <v>246095336.00219232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="206">
+        <v>0.4</v>
+      </c>
+      <c r="D42" s="207">
+        <v>302622810.41009074</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="206">
+        <v>0.45</v>
+      </c>
+      <c r="D43" s="207">
+        <v>365481098.85036224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="206">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="207">
+        <v>435231675.45632291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="206"/>
+      <c r="D45" s="207"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="206"/>
+      <c r="D46" s="207"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" s="206"/>
+      <c r="D47" s="207"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="208" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="208" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="207">
+        <v>25000</v>
+      </c>
+      <c r="D50" s="153">
+        <v>22321890.626882717</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="207">
+        <v>30000</v>
+      </c>
+      <c r="D51" s="153">
+        <v>57444256.890377134</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="207">
+        <v>35000</v>
+      </c>
+      <c r="D52" s="153">
+        <v>92566623.153871506</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="207">
+        <v>40000</v>
+      </c>
+      <c r="D53" s="153">
+        <v>126980069.68994012</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="207">
+        <v>45000</v>
+      </c>
+      <c r="D54" s="153">
+        <v>161174987.93831164</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C55" s="207">
+        <v>50000</v>
+      </c>
+      <c r="D55" s="153">
+        <v>195369906.18668318</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="207">
+        <v>55000</v>
+      </c>
+      <c r="D56" s="153">
+        <v>229564824.43505466</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="207">
+        <v>60000</v>
+      </c>
+      <c r="D57" s="153">
+        <v>263759742.68342614</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="207">
+        <v>65000</v>
+      </c>
+      <c r="D58" s="153">
+        <v>297689622.28873622</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="207">
+        <v>70000</v>
+      </c>
+      <c r="D59" s="153">
+        <v>331064105.75449902</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="207"/>
+      <c r="D60" s="153"/>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C61" s="207"/>
+      <c r="D61" s="153"/>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="207"/>
+      <c r="D62" s="153"/>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C64" s="208" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="208" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="205">
+        <v>0.04</v>
+      </c>
+      <c r="D65" s="153">
+        <v>240326790.21024233</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="205">
+        <v>0.05</v>
+      </c>
+      <c r="D66" s="153">
+        <v>233274407.53094852</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="205">
+        <v>0.06</v>
+      </c>
+      <c r="D67" s="153">
+        <v>226050675.05015779</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="205">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D68" s="153">
+        <v>218652015.83958411</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="205">
+        <v>0.08</v>
+      </c>
+      <c r="D69" s="153">
+        <v>211074799.64564967</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="205">
+        <v>0.09</v>
+      </c>
+      <c r="D70" s="153">
+        <v>203315342.47611076</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="205">
+        <v>0.1</v>
+      </c>
+      <c r="D71" s="153">
+        <v>195369906.18668318</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="205">
+        <v>0.11</v>
+      </c>
+      <c r="D72" s="153">
+        <v>187234698.06766796</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="205">
+        <v>0.12</v>
+      </c>
+      <c r="D73" s="153">
+        <v>178905870.4305771</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="205">
+        <v>0.13</v>
+      </c>
+      <c r="D74" s="153">
+        <v>170379520.1947594</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2561,31 +3595,31 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2603,73 +3637,73 @@
   <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="13" thickBot="1"/>
-    <row r="4" spans="2:4" ht="13" thickBot="1">
-      <c r="B4" s="170" t="s">
+    <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="13" thickBot="1">
-      <c r="B5" s="168" t="s">
+    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="169"/>
+      <c r="C5" s="167"/>
       <c r="D5" s="45"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="40"/>
       <c r="C6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:4" ht="13" thickBot="1">
+    <row r="7" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="40"/>
       <c r="C7" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="2:4" ht="13" thickBot="1">
-      <c r="B8" s="168" t="s">
+    <row r="8" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="172"/>
+      <c r="C8" s="170"/>
       <c r="D8" s="46">
         <v>5000000</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="13" thickBot="1">
-      <c r="B9" s="168" t="s">
+    <row r="9" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="169"/>
+      <c r="C9" s="167"/>
       <c r="D9" s="46">
         <v>2500000</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="13" thickBot="1">
-      <c r="B10" s="168" t="s">
+    <row r="10" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="169"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="45"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="42">
         <v>7</v>
       </c>
@@ -2681,7 +3715,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="42">
         <v>1</v>
       </c>
@@ -2692,7 +3726,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="13" thickBot="1">
+    <row r="13" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43">
         <v>1</v>
       </c>
@@ -2703,14 +3737,14 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="13" thickBot="1">
-      <c r="B14" s="168" t="s">
+    <row r="14" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="169"/>
+      <c r="C14" s="167"/>
       <c r="D14" s="45"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="43"/>
       <c r="C15" s="13" t="s">
         <v>10</v>
@@ -2719,17 +3753,17 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="43"/>
       <c r="C16" s="113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="14">
         <f>'CREACIÓN CURSOS'!D14</f>
         <v>4400000</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="43"/>
       <c r="C17" s="13" t="s">
         <v>84</v>
@@ -2738,7 +3772,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="43"/>
       <c r="C18" s="13" t="s">
         <v>83</v>
@@ -2747,20 +3781,20 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="13" thickBot="1">
+    <row r="19" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
       <c r="C19" s="114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="18">
         <v>5000000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="13" thickBot="1">
-      <c r="B20" s="166" t="s">
+    <row r="20" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="167"/>
+      <c r="C20" s="165"/>
       <c r="D20" s="47">
         <f>SUM(D5:D19)</f>
         <v>20610000</v>
@@ -2791,30 +3825,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P30"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
       <c r="D2" s="101"/>
@@ -2831,7 +3865,7 @@
       <c r="O2" s="101"/>
       <c r="P2" s="101"/>
     </row>
-    <row r="3" spans="2:16" ht="13" thickBot="1">
+    <row r="3" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
@@ -2848,80 +3882,80 @@
       <c r="O3" s="101"/>
       <c r="P3" s="101"/>
     </row>
-    <row r="4" spans="2:16" ht="13" thickBot="1">
+    <row r="4" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
       <c r="D4" s="185" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="187"/>
       <c r="F4" s="185" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="186"/>
       <c r="H4" s="187" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="187"/>
       <c r="J4" s="185" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="186"/>
       <c r="L4" s="187" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4" s="187"/>
       <c r="N4" s="185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O4" s="186"/>
       <c r="P4" s="101"/>
     </row>
-    <row r="5" spans="2:16" ht="13" thickBot="1">
+    <row r="5" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="101"/>
       <c r="C5" s="101"/>
       <c r="D5" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="103" t="s">
-        <v>92</v>
-      </c>
       <c r="F5" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="104" t="s">
-        <v>92</v>
-      </c>
       <c r="H5" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="103" t="s">
-        <v>92</v>
-      </c>
       <c r="J5" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="K5" s="104" t="s">
-        <v>92</v>
-      </c>
       <c r="L5" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="103" t="s">
-        <v>92</v>
-      </c>
       <c r="N5" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="104" t="s">
-        <v>92</v>
-      </c>
       <c r="P5" s="101"/>
     </row>
-    <row r="6" spans="2:16" ht="13" thickBot="1">
+    <row r="6" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="101"/>
-      <c r="C6" s="189" t="s">
-        <v>89</v>
+      <c r="C6" s="175" t="s">
+        <v>88</v>
       </c>
       <c r="D6" s="148">
         <f>12*1*20</f>
@@ -2967,45 +4001,45 @@
       </c>
       <c r="P6" s="101"/>
     </row>
-    <row r="7" spans="2:16" ht="13" thickBot="1">
+    <row r="7" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="101"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="179">
+      <c r="C7" s="176"/>
+      <c r="D7" s="178">
         <f>D6*E6</f>
         <v>43200000</v>
       </c>
-      <c r="E7" s="184"/>
-      <c r="F7" s="179">
+      <c r="E7" s="179"/>
+      <c r="F7" s="178">
         <f>F6*G6</f>
         <v>56160000</v>
       </c>
       <c r="G7" s="180"/>
-      <c r="H7" s="184">
+      <c r="H7" s="179">
         <f>H6*I6</f>
         <v>69120000</v>
       </c>
-      <c r="I7" s="184"/>
-      <c r="J7" s="179">
+      <c r="I7" s="179"/>
+      <c r="J7" s="178">
         <f>J6*K6</f>
         <v>85070769.230769232</v>
       </c>
       <c r="K7" s="180"/>
-      <c r="L7" s="184">
+      <c r="L7" s="179">
         <f>L6*M6</f>
         <v>104702485.2071006</v>
       </c>
-      <c r="M7" s="184"/>
-      <c r="N7" s="179">
+      <c r="M7" s="179"/>
+      <c r="N7" s="178">
         <f>N6*O6</f>
         <v>128864597.17796996</v>
       </c>
       <c r="O7" s="180"/>
       <c r="P7" s="101"/>
     </row>
-    <row r="8" spans="2:16" ht="13" thickBot="1">
+    <row r="8" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="101"/>
-      <c r="C8" s="189" t="s">
-        <v>114</v>
+      <c r="C8" s="175" t="s">
+        <v>113</v>
       </c>
       <c r="D8" s="111">
         <f>D10*0.9</f>
@@ -3051,45 +4085,45 @@
       </c>
       <c r="P8" s="101"/>
     </row>
-    <row r="9" spans="2:16" ht="13" thickBot="1">
+    <row r="9" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="101"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="182">
+      <c r="C9" s="177"/>
+      <c r="D9" s="181">
         <f>D8*E8</f>
         <v>6300000</v>
       </c>
-      <c r="E9" s="181"/>
-      <c r="F9" s="182">
+      <c r="E9" s="172"/>
+      <c r="F9" s="181">
         <f>F8*G8</f>
         <v>3290000</v>
       </c>
-      <c r="G9" s="183"/>
-      <c r="H9" s="181">
+      <c r="G9" s="188"/>
+      <c r="H9" s="172">
         <f>H8*I8</f>
         <v>4277000</v>
       </c>
-      <c r="I9" s="181"/>
-      <c r="J9" s="182">
+      <c r="I9" s="172"/>
+      <c r="J9" s="181">
         <f>J8*K8</f>
         <v>5560100.0000000019</v>
       </c>
-      <c r="K9" s="183"/>
-      <c r="L9" s="181">
+      <c r="K9" s="188"/>
+      <c r="L9" s="172">
         <f>L8*M8</f>
         <v>7228130</v>
       </c>
-      <c r="M9" s="181"/>
-      <c r="N9" s="182">
+      <c r="M9" s="172"/>
+      <c r="N9" s="181">
         <f>N8*O8</f>
         <v>9396569</v>
       </c>
-      <c r="O9" s="183"/>
+      <c r="O9" s="188"/>
       <c r="P9" s="101"/>
     </row>
-    <row r="10" spans="2:16" ht="13" thickBot="1">
+    <row r="10" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="101"/>
-      <c r="C10" s="190" t="s">
-        <v>90</v>
+      <c r="C10" s="176" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="111">
         <v>100</v>
@@ -3140,45 +4174,45 @@
       </c>
       <c r="P10" s="101"/>
     </row>
-    <row r="11" spans="2:16" ht="13" thickBot="1">
+    <row r="11" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="101"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="179">
+      <c r="C11" s="176"/>
+      <c r="D11" s="178">
         <f>D10*E10</f>
         <v>60000000</v>
       </c>
-      <c r="E11" s="184"/>
-      <c r="F11" s="179">
+      <c r="E11" s="179"/>
+      <c r="F11" s="178">
         <f>F10*G10</f>
         <v>78000000</v>
       </c>
       <c r="G11" s="180"/>
-      <c r="H11" s="184">
+      <c r="H11" s="179">
         <f>H10*I10</f>
         <v>101400000</v>
       </c>
-      <c r="I11" s="184"/>
-      <c r="J11" s="179">
+      <c r="I11" s="179"/>
+      <c r="J11" s="178">
         <f>J10*K10</f>
         <v>131820000.00000001</v>
       </c>
       <c r="K11" s="180"/>
-      <c r="L11" s="184">
+      <c r="L11" s="179">
         <f>L10*M10</f>
         <v>171366000</v>
       </c>
-      <c r="M11" s="184"/>
-      <c r="N11" s="179">
+      <c r="M11" s="179"/>
+      <c r="N11" s="178">
         <f>N10*O10</f>
         <v>222775800</v>
       </c>
       <c r="O11" s="180"/>
       <c r="P11" s="101"/>
     </row>
-    <row r="12" spans="2:16" ht="13" thickBot="1">
+    <row r="12" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="101"/>
-      <c r="C12" s="189" t="s">
-        <v>122</v>
+      <c r="C12" s="175" t="s">
+        <v>121</v>
       </c>
       <c r="D12" s="111"/>
       <c r="E12" s="111"/>
@@ -3224,45 +4258,45 @@
       </c>
       <c r="P12" s="101"/>
     </row>
-    <row r="13" spans="2:16" ht="13" thickBot="1">
+    <row r="13" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="101"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="182">
+      <c r="C13" s="177"/>
+      <c r="D13" s="181">
         <f>D12*E12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="181"/>
-      <c r="F13" s="182">
+      <c r="E13" s="172"/>
+      <c r="F13" s="181">
         <f>F12*G12</f>
         <v>10920000</v>
       </c>
-      <c r="G13" s="183"/>
-      <c r="H13" s="181">
+      <c r="G13" s="188"/>
+      <c r="H13" s="172">
         <f>H12*I12</f>
         <v>14196000</v>
       </c>
-      <c r="I13" s="181"/>
-      <c r="J13" s="182">
+      <c r="I13" s="172"/>
+      <c r="J13" s="181">
         <f>J12*K12</f>
         <v>18454800</v>
       </c>
-      <c r="K13" s="183"/>
-      <c r="L13" s="181">
+      <c r="K13" s="188"/>
+      <c r="L13" s="172">
         <f>L12*M12</f>
         <v>23991240</v>
       </c>
-      <c r="M13" s="181"/>
-      <c r="N13" s="182">
+      <c r="M13" s="172"/>
+      <c r="N13" s="181">
         <f>N12*O12</f>
         <v>31188612</v>
       </c>
-      <c r="O13" s="183"/>
+      <c r="O13" s="188"/>
       <c r="P13" s="101"/>
     </row>
-    <row r="14" spans="2:16" ht="13" thickBot="1">
+    <row r="14" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="101"/>
-      <c r="C14" s="190" t="s">
-        <v>94</v>
+      <c r="C14" s="176" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="111"/>
       <c r="E14" s="111"/>
@@ -3303,45 +4337,45 @@
       </c>
       <c r="P14" s="101"/>
     </row>
-    <row r="15" spans="2:16" ht="13" thickBot="1">
+    <row r="15" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="101"/>
-      <c r="C15" s="190"/>
-      <c r="D15" s="179">
+      <c r="C15" s="176"/>
+      <c r="D15" s="178">
         <f>D14*E14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="184"/>
-      <c r="F15" s="179">
+      <c r="E15" s="179"/>
+      <c r="F15" s="178">
         <f>F14*G14</f>
         <v>1950000</v>
       </c>
       <c r="G15" s="180"/>
-      <c r="H15" s="184">
+      <c r="H15" s="179">
         <f>H14*I14</f>
         <v>2535000</v>
       </c>
-      <c r="I15" s="184"/>
-      <c r="J15" s="179">
+      <c r="I15" s="179"/>
+      <c r="J15" s="178">
         <f>J14*K14</f>
         <v>3295500</v>
       </c>
       <c r="K15" s="180"/>
-      <c r="L15" s="184">
+      <c r="L15" s="179">
         <f>L14*M14</f>
         <v>4284150</v>
       </c>
-      <c r="M15" s="184"/>
-      <c r="N15" s="179">
+      <c r="M15" s="179"/>
+      <c r="N15" s="178">
         <f>N14*O14</f>
         <v>5569395</v>
       </c>
       <c r="O15" s="180"/>
       <c r="P15" s="101"/>
     </row>
-    <row r="16" spans="2:16" ht="13" thickBot="1">
+    <row r="16" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="101"/>
-      <c r="C16" s="189" t="s">
-        <v>95</v>
+      <c r="C16" s="175" t="s">
+        <v>94</v>
       </c>
       <c r="D16" s="111"/>
       <c r="E16" s="111"/>
@@ -3382,79 +4416,79 @@
       </c>
       <c r="P16" s="101"/>
     </row>
-    <row r="17" spans="2:16" ht="13" thickBot="1">
+    <row r="17" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="101"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="175">
+      <c r="C17" s="177"/>
+      <c r="D17" s="173">
         <f>D16*E16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="178"/>
-      <c r="F17" s="175">
+      <c r="E17" s="174"/>
+      <c r="F17" s="173">
         <f>F16*G16</f>
         <v>6500000</v>
       </c>
-      <c r="G17" s="176"/>
-      <c r="H17" s="178">
+      <c r="G17" s="189"/>
+      <c r="H17" s="174">
         <f>H16*I16</f>
         <v>8450000</v>
       </c>
-      <c r="I17" s="178"/>
-      <c r="J17" s="175">
+      <c r="I17" s="174"/>
+      <c r="J17" s="173">
         <f>J16*K16</f>
         <v>10985000</v>
       </c>
-      <c r="K17" s="176"/>
-      <c r="L17" s="178">
+      <c r="K17" s="189"/>
+      <c r="L17" s="174">
         <f>L16*M16</f>
         <v>14280500</v>
       </c>
-      <c r="M17" s="178"/>
-      <c r="N17" s="175">
+      <c r="M17" s="174"/>
+      <c r="N17" s="173">
         <f>N16*O16</f>
         <v>18564650</v>
       </c>
-      <c r="O17" s="176"/>
+      <c r="O17" s="189"/>
       <c r="P17" s="101"/>
     </row>
-    <row r="18" spans="2:16" ht="13" thickBot="1">
+    <row r="18" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="101"/>
       <c r="C18" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="173">
+        <v>100</v>
+      </c>
+      <c r="D18" s="182">
         <f>D7+D9+D11+D13+D15+D17</f>
         <v>109500000</v>
       </c>
-      <c r="E18" s="177"/>
-      <c r="F18" s="173">
+      <c r="E18" s="183"/>
+      <c r="F18" s="182">
         <f>F7+F9+F11+F13+F15+F17</f>
         <v>156820000</v>
       </c>
-      <c r="G18" s="174"/>
-      <c r="H18" s="177">
+      <c r="G18" s="184"/>
+      <c r="H18" s="183">
         <f>H7+H9+H11+H13+H15+H17</f>
         <v>199978000</v>
       </c>
-      <c r="I18" s="177"/>
-      <c r="J18" s="173">
+      <c r="I18" s="183"/>
+      <c r="J18" s="182">
         <f>J7+J9+J11+J13+J15+J17</f>
         <v>255186169.23076925</v>
       </c>
-      <c r="K18" s="174"/>
-      <c r="L18" s="177">
+      <c r="K18" s="184"/>
+      <c r="L18" s="183">
         <f>L7+L9+L11+L13+L15+L17</f>
         <v>325852505.20710063</v>
       </c>
-      <c r="M18" s="177"/>
-      <c r="N18" s="173">
+      <c r="M18" s="183"/>
+      <c r="N18" s="182">
         <f>N7+N9+N11+N13+N15+N17</f>
         <v>416359623.17796993</v>
       </c>
-      <c r="O18" s="174"/>
+      <c r="O18" s="184"/>
       <c r="P18" s="101"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="101"/>
       <c r="C19" s="101"/>
       <c r="D19" s="101"/>
@@ -3471,7 +4505,7 @@
       <c r="O19" s="101"/>
       <c r="P19" s="101"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C20" s="101"/>
       <c r="D20" s="101"/>
       <c r="E20" s="101"/>
@@ -3487,45 +4521,86 @@
       <c r="O20" s="101"/>
       <c r="P20" s="101"/>
     </row>
-    <row r="21" spans="2:16">
-      <c r="C21" s="188" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="C22" s="188"/>
-    </row>
-    <row r="23" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C21" s="171" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C22" s="171"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C23" s="149">
+        <f>'FLUJO CAJA PRINCIPAL'!E28</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="24">
+    <row r="25" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C25" s="145" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C26" s="146">
+        <f>'FLUJO CAJA PRINCIPAL'!E27</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="24">
+    <row r="28" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C28" s="147" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C29" s="152">
         <f>(F6-D6)/F6</f>
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C30" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="D17:E17"/>
@@ -3542,45 +4617,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -3599,20 +4635,22 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="101"/>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -3620,7 +4658,7 @@
       <c r="E1" s="101"/>
       <c r="G1" s="101"/>
     </row>
-    <row r="2" spans="1:13" ht="13" thickBot="1">
+    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="101"/>
       <c r="B2" s="101"/>
       <c r="C2" s="101"/>
@@ -3628,7 +4666,7 @@
       <c r="E2" s="101"/>
       <c r="G2" s="101"/>
     </row>
-    <row r="3" spans="1:13" ht="13" thickBot="1">
+    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101"/>
       <c r="B3" s="128" t="s">
         <v>42</v>
@@ -3642,12 +4680,12 @@
       </c>
       <c r="G3" s="130"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="101"/>
-      <c r="B4" s="195" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="196"/>
+      <c r="B4" s="199" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="200"/>
       <c r="D4" s="6">
         <v>600000</v>
       </c>
@@ -3657,12 +4695,12 @@
       </c>
       <c r="G4" s="101"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="101"/>
-      <c r="B5" s="193" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="194"/>
+      <c r="B5" s="194" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="195"/>
       <c r="D5" s="4">
         <f>IF('HW y SW'!C5=0,100000,0)</f>
         <v>0</v>
@@ -3672,31 +4710,31 @@
         <v>500000</v>
       </c>
       <c r="G5" s="101"/>
-      <c r="H5" s="158">
+      <c r="H5" s="156">
         <v>1</v>
       </c>
-      <c r="I5" s="158">
+      <c r="I5" s="156">
         <v>2</v>
       </c>
-      <c r="J5" s="158">
+      <c r="J5" s="156">
         <v>3</v>
       </c>
-      <c r="K5" s="158">
+      <c r="K5" s="156">
         <v>4</v>
       </c>
-      <c r="L5" s="158">
+      <c r="L5" s="156">
         <v>5</v>
       </c>
-      <c r="M5" s="158">
+      <c r="M5" s="156">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="101"/>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="194" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="194"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="4">
         <f>PERSONAL!E12</f>
         <v>8000000</v>
@@ -3705,40 +4743,40 @@
         <f t="shared" ref="E6:E11" si="0">D6*12</f>
         <v>96000000</v>
       </c>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="160">
+      <c r="H6" s="158">
         <f>E6</f>
         <v>96000000</v>
       </c>
-      <c r="I6" s="161">
+      <c r="I6" s="159">
         <f>H6*(1+$I$10)</f>
         <v>105600000.00000001</v>
       </c>
-      <c r="J6" s="161">
+      <c r="J6" s="159">
         <f t="shared" ref="J6:M6" si="1">I6*(1+$I$10)</f>
         <v>116160000.00000003</v>
       </c>
-      <c r="K6" s="161">
+      <c r="K6" s="159">
         <f t="shared" si="1"/>
         <v>127776000.00000004</v>
       </c>
-      <c r="L6" s="161">
+      <c r="L6" s="159">
         <f t="shared" si="1"/>
         <v>140553600.00000006</v>
       </c>
-      <c r="M6" s="161">
+      <c r="M6" s="159">
         <f t="shared" si="1"/>
         <v>154608960.00000009</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="101"/>
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="194"/>
+      <c r="C7" s="195"/>
       <c r="D7" s="4">
         <v>100000</v>
       </c>
@@ -3746,78 +4784,78 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="G7" s="159" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="160">
+      <c r="G7" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="158">
         <f>SUM(E4:E13)-H6</f>
         <v>17378600</v>
       </c>
-      <c r="I7" s="161">
+      <c r="I7" s="159">
         <f>H7*(1+$I$11)</f>
         <v>18247530</v>
       </c>
-      <c r="J7" s="161">
+      <c r="J7" s="159">
         <f t="shared" ref="J7:M7" si="2">I7*(1+$I$11)</f>
         <v>19159906.5</v>
       </c>
-      <c r="K7" s="161">
+      <c r="K7" s="159">
         <f t="shared" si="2"/>
         <v>20117901.824999999</v>
       </c>
-      <c r="L7" s="161">
+      <c r="L7" s="159">
         <f t="shared" si="2"/>
         <v>21123796.916250002</v>
       </c>
-      <c r="M7" s="161">
+      <c r="M7" s="159">
         <f t="shared" si="2"/>
         <v>22179986.762062501</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="101"/>
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="194"/>
+      <c r="C8" s="195"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>13000</v>
       </c>
-      <c r="G8" s="162" t="s">
+      <c r="G8" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="163">
+      <c r="H8" s="161">
         <f>H6+H7</f>
         <v>113378600</v>
       </c>
-      <c r="I8" s="164">
+      <c r="I8" s="162">
         <f t="shared" ref="I8:M8" si="3">SUM(I6:I7)</f>
         <v>123847530.00000001</v>
       </c>
-      <c r="J8" s="164">
+      <c r="J8" s="162">
         <f t="shared" si="3"/>
         <v>135319906.50000003</v>
       </c>
-      <c r="K8" s="164">
+      <c r="K8" s="162">
         <f t="shared" si="3"/>
         <v>147893901.82500005</v>
       </c>
-      <c r="L8" s="164">
+      <c r="L8" s="162">
         <f t="shared" si="3"/>
         <v>161677396.91625005</v>
       </c>
-      <c r="M8" s="164">
+      <c r="M8" s="162">
         <f t="shared" si="3"/>
         <v>176788946.76206258</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="101"/>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="194"/>
+      <c r="C9" s="195"/>
       <c r="D9" s="4">
         <v>50000</v>
       </c>
@@ -3827,12 +4865,12 @@
       </c>
       <c r="G9" s="101"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="101"/>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="194"/>
+      <c r="C10" s="195"/>
       <c r="D10" s="4">
         <v>45000</v>
       </c>
@@ -3840,20 +4878,21 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="G10" s="192" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="192"/>
-      <c r="I10" s="165">
+      <c r="G10" s="198" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="198"/>
+      <c r="I10" s="163">
+        <f>'FLUJO CAJA PRINCIPAL'!E29</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="101"/>
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="194"/>
+      <c r="C11" s="195"/>
       <c r="D11" s="4">
         <v>45000</v>
       </c>
@@ -3861,20 +4900,20 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="G11" s="192" t="s">
-        <v>133</v>
-      </c>
-      <c r="H11" s="192"/>
-      <c r="I11" s="165">
+      <c r="G11" s="198" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="198"/>
+      <c r="I11" s="163">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="101"/>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="194"/>
+      <c r="C12" s="195"/>
       <c r="D12" s="4">
         <f>'CREACIÓN CURSOS'!D9</f>
         <v>1100000</v>
@@ -3885,12 +4924,12 @@
       </c>
       <c r="G12" s="101"/>
     </row>
-    <row r="13" spans="1:13" ht="13" thickBot="1">
+    <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101"/>
-      <c r="B13" s="197" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="199"/>
+      <c r="B13" s="190" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="192"/>
       <c r="D13" s="5">
         <f>SUM(D4:D12)*0.02</f>
         <v>198800</v>
@@ -3901,20 +4940,20 @@
       </c>
       <c r="G13" s="101"/>
     </row>
-    <row r="14" spans="1:13" ht="13" thickBot="1">
+    <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101"/>
       <c r="B14" s="101"/>
-      <c r="C14" s="166" t="s">
+      <c r="C14" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="200"/>
+      <c r="D14" s="193"/>
       <c r="E14" s="11">
         <f>SUM(E4:E13)</f>
         <v>113378600</v>
       </c>
       <c r="G14" s="101"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="101"/>
       <c r="B15" s="101"/>
       <c r="C15" s="101"/>
@@ -3922,7 +4961,7 @@
       <c r="E15" s="129"/>
       <c r="G15" s="101"/>
     </row>
-    <row r="16" spans="1:13" ht="13" thickBot="1">
+    <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="101"/>
       <c r="B16" s="101"/>
       <c r="C16" s="101"/>
@@ -3930,19 +4969,19 @@
       <c r="E16" s="129"/>
       <c r="G16" s="101"/>
     </row>
-    <row r="17" spans="1:7" ht="13" thickBot="1">
+    <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="101"/>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="202"/>
+      <c r="C17" s="197"/>
       <c r="D17" s="30" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="101"/>
       <c r="G17" s="101"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="101"/>
       <c r="B18" s="25" t="s">
         <v>30</v>
@@ -3954,19 +4993,19 @@
       <c r="E18" s="101"/>
       <c r="G18" s="101"/>
     </row>
-    <row r="19" spans="1:7" ht="13" thickBot="1">
+    <row r="19" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="101"/>
-      <c r="B19" s="197" t="s">
+      <c r="B19" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="198"/>
+      <c r="C19" s="191"/>
       <c r="D19" s="100">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E19" s="101"/>
       <c r="G19" s="101"/>
     </row>
-    <row r="20" spans="1:7" ht="13" thickBot="1">
+    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101"/>
       <c r="B20" s="101"/>
       <c r="C20" s="101"/>
@@ -3976,7 +5015,7 @@
       <c r="E20" s="101"/>
       <c r="G20" s="101"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="101"/>
       <c r="B21" s="101"/>
       <c r="C21" s="101"/>
@@ -3984,7 +5023,7 @@
       <c r="E21" s="101"/>
       <c r="G21" s="101"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D23">
         <f>E14*D19</f>
         <v>566893</v>
@@ -3992,12 +5031,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B9:C9"/>
@@ -4007,6 +5040,12 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -4023,19 +5062,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:G9"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" ht="13" thickBot="1"/>
-    <row r="7" spans="2:7" ht="13" thickBot="1">
+    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="48"/>
       <c r="C7" s="75" t="s">
         <v>29</v>
@@ -4053,7 +5092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="13" thickBot="1">
+    <row r="8" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>66</v>
       </c>
@@ -4073,7 +5112,7 @@
         <v>526666.66666666663</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="13" thickBot="1">
+    <row r="9" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="76" t="s">
         <v>20</v>
       </c>
@@ -4098,20 +5137,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F18"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>77</v>
       </c>
@@ -4119,7 +5158,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="57" t="s">
         <v>76</v>
       </c>
@@ -4134,7 +5173,7 @@
       </c>
       <c r="F5" s="150"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="63" t="s">
         <v>78</v>
       </c>
@@ -4145,7 +5184,7 @@
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="63" t="s">
         <v>79</v>
       </c>
@@ -4156,21 +5195,21 @@
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="58"/>
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
       <c r="D9" s="58"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
     </row>
-    <row r="10" spans="2:6" ht="17.25" customHeight="1" thickBot="1">
+    <row r="10" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="59" t="s">
         <v>68</v>
       </c>
@@ -4187,7 +5226,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="13" thickBot="1">
+    <row r="11" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="90" t="s">
         <v>72</v>
       </c>
@@ -4204,7 +5243,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -4225,7 +5264,7 @@
         <v>3297600</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="54">
         <v>2</v>
       </c>
@@ -4246,7 +5285,7 @@
         <v>3091500</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="54">
         <v>3</v>
       </c>
@@ -4267,7 +5306,7 @@
         <v>2885400</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="54">
         <v>4</v>
       </c>
@@ -4288,7 +5327,7 @@
         <v>2679300</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="54">
         <v>5</v>
       </c>
@@ -4309,7 +5348,7 @@
         <v>2473200</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="13" thickBot="1">
+    <row r="17" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="55">
         <v>6</v>
       </c>
@@ -4330,7 +5369,7 @@
         <v>2267100</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="13" thickBot="1">
+    <row r="18" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="56"/>
     </row>
   </sheetData>
@@ -4354,32 +5393,32 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="13" thickBot="1">
+    <row r="3" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="13" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="153">
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="13" thickBot="1">
+    <row r="5" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>13</v>
       </c>
@@ -4387,7 +5426,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="13" thickBot="1">
+    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
         <v>20</v>
       </c>
@@ -4396,28 +5435,28 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:7" ht="13" thickBot="1">
+    <row r="11" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:7" ht="13" thickBot="1">
+    <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="31" t="s">
         <v>14</v>
       </c>
@@ -4425,7 +5464,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
@@ -4433,15 +5472,15 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="13" thickBot="1">
+    <row r="15" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="34">
         <v>500000</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="13" thickBot="1">
+    <row r="16" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
         <v>20</v>
       </c>
@@ -4471,12 +5510,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13" thickBot="1">
+    <row r="1" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F1">
         <v>2</v>
       </c>
@@ -4493,13 +5532,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="13" thickBot="1">
-      <c r="D2" s="201" t="s">
+    <row r="2" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="203"/>
-    </row>
-    <row r="3" spans="2:10" ht="13" thickBot="1">
+      <c r="E2" s="201"/>
+    </row>
+    <row r="3" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
@@ -4513,7 +5552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="96">
         <v>1</v>
       </c>
@@ -4528,7 +5567,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="12">
         <v>1</v>
       </c>
@@ -4543,12 +5582,12 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="12">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="14">
         <v>600000</v>
@@ -4558,12 +5597,12 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="14">
         <v>500000</v>
@@ -4573,7 +5612,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <v>1</v>
       </c>
@@ -4588,12 +5627,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="14">
         <v>850000</v>
@@ -4603,12 +5642,12 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="14">
         <v>850000</v>
@@ -4618,7 +5657,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13" thickBot="1">
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>1</v>
       </c>
@@ -4633,7 +5672,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="13" thickBot="1">
+    <row r="12" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E12" s="95">
         <f>SUM(E4:E11)</f>
         <v>8000000</v>
@@ -4683,20 +5722,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="13" thickBot="1"/>
-    <row r="4" spans="3:10" ht="13" thickBot="1">
-      <c r="C4" s="204" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="200"/>
-    </row>
-    <row r="5" spans="3:10" ht="13" thickBot="1">
+    <row r="3" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="202" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="193"/>
+    </row>
+    <row r="5" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>32</v>
       </c>
@@ -4704,7 +5743,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C6" s="21" t="s">
         <v>31</v>
       </c>
@@ -4712,26 +5751,26 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="7" spans="3:10">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="4">
         <v>100000</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" ht="13" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="5">
         <v>500000</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="13" thickBot="1">
+    <row r="9" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="28" t="s">
         <v>20</v>
       </c>
@@ -4740,33 +5779,33 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="13" thickBot="1"/>
-    <row r="12" spans="3:10" ht="13" thickBot="1">
+    <row r="11" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D12" s="115" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="121" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="120" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="115" t="s">
         <v>104</v>
-      </c>
-      <c r="E12" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="119" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="121" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="121" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="120" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="115" t="s">
-        <v>105</v>
       </c>
       <c r="D13" s="31">
         <v>4</v>
@@ -4790,7 +5829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="13" thickBot="1">
+    <row r="14" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="118" t="s">
         <v>19</v>
       </c>

--- a/FLUJO.xlsx
+++ b/FLUJO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="615" windowWidth="25035" windowHeight="13635" tabRatio="884"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="FLUJO CAJA PRINCIPAL" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CREACIÓN CURSOS" sheetId="5" r:id="rId9"/>
     <sheet name="Plan de Marketing" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -439,15 +439,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -476,12 +477,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -502,8 +497,25 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,12 +542,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,8 +558,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -814,16 +844,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -835,19 +865,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -860,90 +877,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -981,13 +918,96 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC2D69A"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC2D69A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFC2D69A"/>
       </top>
-      <bottom style="double">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC2D69A"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC2D69A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC2D69A"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC2D69A"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC2D69A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,42 +1015,145 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color rgb="FFC2D69A"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC2D69A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC2D69A"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC2D69A"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC2D69A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC2D69A"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1106,7 +1229,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,7 +1238,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1129,7 +1252,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1138,28 +1261,28 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,52 +1291,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,21 +1323,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,29 +1336,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1288,39 +1357,48 @@
     <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,21 +1407,57 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1353,41 +1467,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1401,53 +1494,107 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="61">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
@@ -1458,6 +1605,25 @@
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
@@ -1468,9 +1634,28 @@
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1485,7 +1670,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-CL"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1503,10 +1688,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1973344270726678"/>
-          <c:y val="0.21784071214342784"/>
-          <c:w val="0.76083182924331982"/>
-          <c:h val="0.64607631623520712"/>
+          <c:x val="0.197334427072668"/>
+          <c:y val="0.217840712143428"/>
+          <c:w val="0.76083182924332"/>
+          <c:h val="0.646076316235207"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1546,8 +1731,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14049827843206356"/>
-                  <c:y val="-8.203832749632585E-2"/>
+                  <c:x val="-0.140498278432064"/>
+                  <c:y val="-0.0820383274963258"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1596,37 +1781,37 @@
             <c:numRef>
               <c:f>'FLUJO CAJA PRINCIPAL'!$D$35:$D$44</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12428476.569774456</c:v>
+                  <c:v>1.24284765697745E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41001309.400372759</c:v>
+                  <c:v>4.10013094003728E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73187535.701469153</c:v>
+                  <c:v>7.31875357014692E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109367561.87008296</c:v>
+                  <c:v>1.09367561870083E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149949445.5219993</c:v>
+                  <c:v>1.49949445521999E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195369906.18668318</c:v>
+                  <c:v>1.95369906186683E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>246095336.00219232</c:v>
+                  <c:v>2.46095336002192E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>302622810.41009074</c:v>
+                  <c:v>3.02622810410091E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>365481098.85036224</c:v>
+                  <c:v>3.65481098850362E8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>435231675.45632291</c:v>
+                  <c:v>4.35231675456323E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,11 +1828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="31131520"/>
-        <c:axId val="31133056"/>
+        <c:axId val="2047548104"/>
+        <c:axId val="2047550616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31131520"/>
+        <c:axId val="2047548104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31133056"/>
+        <c:crossAx val="2047550616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1665,10 +1850,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31133056"/>
+        <c:axId val="2047550616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1685,11 +1870,11 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31131520"/>
+        <c:crossAx val="2047548104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,10 +1885,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.8429912580224749E-2"/>
-          <c:y val="5.2289264639710908E-3"/>
-          <c:w val="0.89360904612913106"/>
-          <c:h val="0.11497478994472095"/>
+          <c:x val="0.0484299125802247"/>
+          <c:y val="0.00522892646397109"/>
+          <c:w val="0.893609046129131"/>
+          <c:h val="0.114974789944721"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1723,7 +1908,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-CL"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1741,10 +1926,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19870012791326355"/>
-          <c:y val="0.12006299519751441"/>
-          <c:w val="0.75803493898245622"/>
-          <c:h val="0.61068600093414926"/>
+          <c:x val="0.198700127913264"/>
+          <c:y val="0.120062995197514"/>
+          <c:w val="0.758034938982456"/>
+          <c:h val="0.610686000934149"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1783,8 +1968,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.24364659495371985"/>
-                  <c:y val="-1.1421087479832811E-2"/>
+                  <c:x val="-0.24364659495372"/>
+                  <c:y val="-0.0114210874798328"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1794,37 +1979,37 @@
             <c:numRef>
               <c:f>'FLUJO CAJA PRINCIPAL'!$C$50:$C$59</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>25000</c:v>
+                  <c:v>25000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35000</c:v>
+                  <c:v>35000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>40000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45000</c:v>
+                  <c:v>45000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50000</c:v>
+                  <c:v>50000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55000</c:v>
+                  <c:v>55000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60000</c:v>
+                  <c:v>60000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65000</c:v>
+                  <c:v>65000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70000</c:v>
+                  <c:v>70000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,37 +2018,37 @@
             <c:numRef>
               <c:f>'FLUJO CAJA PRINCIPAL'!$D$50:$D$59</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22321890.626882717</c:v>
+                  <c:v>2.23218906268827E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57444256.890377134</c:v>
+                  <c:v>5.74442568903771E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92566623.153871506</c:v>
+                  <c:v>9.25666231538715E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126980069.68994012</c:v>
+                  <c:v>1.2698006968994E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>161174987.93831164</c:v>
+                  <c:v>1.61174987938312E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195369906.18668318</c:v>
+                  <c:v>1.95369906186683E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>229564824.43505466</c:v>
+                  <c:v>2.29564824435055E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>263759742.68342614</c:v>
+                  <c:v>2.63759742683426E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>297689622.28873622</c:v>
+                  <c:v>2.97689622288736E8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>331064105.75449902</c:v>
+                  <c:v>3.310641057545E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1880,21 +2065,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="39196928"/>
-        <c:axId val="44482560"/>
+        <c:axId val="2047631912"/>
+        <c:axId val="2047634856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39196928"/>
+        <c:axId val="2047631912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44482560"/>
+        <c:crossAx val="2047634856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1902,10 +2087,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44482560"/>
+        <c:axId val="2047634856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1922,11 +2107,11 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39196928"/>
+        <c:crossAx val="2047631912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1937,10 +2122,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3689987959929287E-2"/>
-          <c:y val="5.2289264639710613E-3"/>
-          <c:w val="0.84257297869271131"/>
-          <c:h val="8.781431301530053E-2"/>
+          <c:x val="0.0736899879599293"/>
+          <c:y val="0.00522892646397106"/>
+          <c:w val="0.842572978692711"/>
+          <c:h val="0.0878143130153005"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1960,7 +2145,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-CL"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1978,10 +2163,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19731845238095239"/>
-          <c:y val="0.14179137674105072"/>
-          <c:w val="0.76223730158730152"/>
-          <c:h val="0.72212565163758435"/>
+          <c:x val="0.197318452380952"/>
+          <c:y val="0.141791376741051"/>
+          <c:w val="0.762237301587301"/>
+          <c:h val="0.722125651637585"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2020,8 +2205,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6100992063492064E-2"/>
-                  <c:y val="-0.22998764732954768"/>
+                  <c:x val="0.0161009920634921"/>
+                  <c:y val="-0.229987647329548"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2043,7 +2228,7 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.08</c:v>
@@ -2070,37 +2255,37 @@
             <c:numRef>
               <c:f>'FLUJO CAJA PRINCIPAL'!$D$65:$D$74</c:f>
               <c:numCache>
-                <c:formatCode>_-"$"\ * #,##0_-;\-"$"\ * #,##0_-;_-"$"\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>240326790.21024233</c:v>
+                  <c:v>2.40326790210242E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>233274407.53094852</c:v>
+                  <c:v>2.33274407530949E8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226050675.05015779</c:v>
+                  <c:v>2.26050675050158E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>218652015.83958411</c:v>
+                  <c:v>2.18652015839584E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>211074799.64564967</c:v>
+                  <c:v>2.1107479964565E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>203315342.47611076</c:v>
+                  <c:v>2.03315342476111E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>195369906.18668318</c:v>
+                  <c:v>1.95369906186683E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>187234698.06766796</c:v>
+                  <c:v>1.87234698067668E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>178905870.4305771</c:v>
+                  <c:v>1.78905870430577E8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170379520.1947594</c:v>
+                  <c:v>1.70379520194759E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,11 +2302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44257280"/>
-        <c:axId val="44495232"/>
+        <c:axId val="2047663656"/>
+        <c:axId val="2047666600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44257280"/>
+        <c:axId val="2047663656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44495232"/>
+        <c:crossAx val="2047666600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2139,7 +2324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44495232"/>
+        <c:axId val="2047666600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,7 +2343,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2173,7 +2358,7 @@
             <a:prstDash val="sysDot"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44257280"/>
+        <c:crossAx val="2047663656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2184,10 +2369,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.4932738095238118E-2"/>
-          <c:y val="1.0661021849855141E-2"/>
-          <c:w val="0.88711091269841269"/>
-          <c:h val="0.11497478994472095"/>
+          <c:x val="0.0549327380952381"/>
+          <c:y val="0.0106610218498551"/>
+          <c:w val="0.887110912698413"/>
+          <c:h val="0.114974789944721"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2670,915 +2855,916 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="52"/>
-      <c r="C4" s="84" t="s">
+    <row r="4" spans="2:10" ht="14" thickBot="1">
+      <c r="B4" s="199"/>
+      <c r="C4" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="77" t="s">
+      <c r="D4" s="200"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
+    </row>
+    <row r="5" spans="2:10" ht="16" thickBot="1">
+      <c r="B5" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="175">
         <v>0</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="175">
         <v>1</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="175">
         <v>2</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="175">
         <v>3</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H5" s="175">
         <v>4</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I5" s="175">
         <v>5</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="175">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="2:10" ht="13" thickBot="1">
+      <c r="B6" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106">
+      <c r="D6" s="202"/>
+      <c r="E6" s="177">
         <f>INGRESOS!D18</f>
         <v>109500000</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="177">
         <f>INGRESOS!F18</f>
         <v>156820000</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="177">
         <f>INGRESOS!H18</f>
         <v>199978000</v>
       </c>
-      <c r="H6" s="106">
+      <c r="H6" s="177">
         <f>INGRESOS!J18</f>
         <v>255186169.23076925</v>
       </c>
-      <c r="I6" s="106">
+      <c r="I6" s="177">
         <f>INGRESOS!L18</f>
         <v>325852505.20710063</v>
       </c>
-      <c r="J6" s="106">
+      <c r="J6" s="177">
         <f>INGRESOS!N18</f>
         <v>416359623.17796993</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="79" t="s">
+    <row r="7" spans="2:10" ht="13" thickBot="1">
+      <c r="B7" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106">
+      <c r="D7" s="203"/>
+      <c r="E7" s="177">
         <v>5000000</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="177">
         <f>E7*1.3</f>
         <v>6500000</v>
       </c>
-      <c r="G7" s="106">
+      <c r="G7" s="177">
         <f>F7*1.3</f>
         <v>8450000</v>
       </c>
-      <c r="H7" s="106">
+      <c r="H7" s="177">
         <f>G7*1.3</f>
         <v>10985000</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="177">
         <f>H7*1.3</f>
         <v>14280500</v>
       </c>
-      <c r="J7" s="106">
+      <c r="J7" s="177">
         <f>I7*1.3</f>
         <v>18564650</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="81" t="s">
+    <row r="8" spans="2:10" ht="13" thickBot="1">
+      <c r="B8" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107">
+      <c r="D8" s="203"/>
+      <c r="E8" s="177">
         <f>-'CREACIÓN CURSOS'!E14</f>
         <v>-4400000</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="177">
         <f>-'CREACIÓN CURSOS'!F14</f>
         <v>-4400000</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="177">
         <f>-'CREACIÓN CURSOS'!G14</f>
         <v>-4400000</v>
       </c>
-      <c r="H8" s="107">
+      <c r="H8" s="177">
         <f>-'CREACIÓN CURSOS'!H14</f>
         <v>-4400000</v>
       </c>
-      <c r="I8" s="107">
+      <c r="I8" s="177">
         <f>-'CREACIÓN CURSOS'!I14</f>
         <v>-4400000</v>
       </c>
-      <c r="J8" s="107">
+      <c r="J8" s="177">
         <f>-'CREACIÓN CURSOS'!J14</f>
         <v>-4400000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="81" t="s">
+    <row r="9" spans="2:10" ht="13" thickBot="1">
+      <c r="B9" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107">
+      <c r="D9" s="203"/>
+      <c r="E9" s="177">
         <f>-INGRESOS!D18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-8212500.0000000009</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="177">
         <f>-INGRESOS!F18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-11761500.000000002</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="177">
         <f>-INGRESOS!H18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-14998350.000000002</v>
       </c>
-      <c r="H9" s="107">
+      <c r="H9" s="177">
         <f>-INGRESOS!J18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-19138962.692307696</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="177">
         <f>-INGRESOS!L18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-24438937.890532549</v>
       </c>
-      <c r="J9" s="107">
+      <c r="J9" s="177">
         <f>-INGRESOS!N18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-31226971.73834775</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="81" t="s">
+    <row r="10" spans="2:10" ht="13" thickBot="1">
+      <c r="B10" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107">
+      <c r="D10" s="203"/>
+      <c r="E10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!H8</f>
         <v>-113378600</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!I8</f>
         <v>-123847530.00000001</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!J8</f>
         <v>-135319906.50000003</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!K8</f>
         <v>-147893901.82500005</v>
       </c>
-      <c r="I10" s="107">
+      <c r="I10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!L8</f>
         <v>-161677396.91625005</v>
       </c>
-      <c r="J10" s="107">
+      <c r="J10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!M8</f>
         <v>-176788946.76206258</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="81" t="s">
+    <row r="11" spans="2:10" ht="13" thickBot="1">
+      <c r="B11" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107">
+      <c r="D11" s="203"/>
+      <c r="E11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="H11" s="107">
+      <c r="H11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="I11" s="107">
+      <c r="I11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="J11" s="107">
+      <c r="J11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="88" t="s">
+    <row r="12" spans="2:10" ht="13" thickBot="1">
+      <c r="B12" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109">
+      <c r="D12" s="204"/>
+      <c r="E12" s="179">
         <f t="shared" ref="E12:J12" si="0">SUM(E6:E11)</f>
         <v>-12017766.666666666</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="179">
         <f t="shared" si="0"/>
         <v>22784303.333333317</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="179">
         <f t="shared" si="0"/>
         <v>53183076.833333306</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="179">
         <f t="shared" si="0"/>
         <v>94211638.046794847</v>
       </c>
-      <c r="I12" s="109">
+      <c r="I12" s="179">
         <f t="shared" si="0"/>
         <v>149090003.73365137</v>
       </c>
-      <c r="J12" s="109">
+      <c r="J12" s="179">
         <f t="shared" si="0"/>
         <v>221981688.01089293</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="81" t="s">
+    <row r="13" spans="2:10" ht="13" thickBot="1">
+      <c r="B13" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107">
+      <c r="D13" s="203"/>
+      <c r="E13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="H13" s="107">
+      <c r="H13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="I13" s="107">
+      <c r="I13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="J13" s="107">
+      <c r="J13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="88" t="s">
+    <row r="14" spans="2:10" ht="13" thickBot="1">
+      <c r="B14" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="178" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109">
+      <c r="D14" s="204"/>
+      <c r="E14" s="179">
         <f t="shared" ref="E14:J14" si="1">SUM(E12:E13)</f>
         <v>-14857091.532231411</v>
       </c>
-      <c r="F14" s="109">
+      <c r="F14" s="179">
         <f t="shared" si="1"/>
         <v>19944978.467768572</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="179">
         <f t="shared" si="1"/>
         <v>50343751.967768557</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="179">
         <f t="shared" si="1"/>
         <v>91372313.181230098</v>
       </c>
-      <c r="I14" s="109">
+      <c r="I14" s="179">
         <f t="shared" si="1"/>
         <v>146250678.86808664</v>
       </c>
-      <c r="J14" s="109">
+      <c r="J14" s="179">
         <f t="shared" si="1"/>
         <v>219142363.14532819</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="81" t="s">
+    <row r="15" spans="2:10" ht="13" thickBot="1">
+      <c r="B15" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107">
+      <c r="D15" s="203"/>
+      <c r="E15" s="177">
         <f t="shared" ref="E15:J15" si="2">+IF(E14&gt;0,-(E14*0.17),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="177">
         <f t="shared" si="2"/>
         <v>-3390646.3395206574</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="177">
         <f t="shared" si="2"/>
         <v>-8558437.8345206548</v>
       </c>
-      <c r="H15" s="107">
+      <c r="H15" s="177">
         <f t="shared" si="2"/>
         <v>-15533293.240809118</v>
       </c>
-      <c r="I15" s="107">
+      <c r="I15" s="177">
         <f t="shared" si="2"/>
         <v>-24862615.407574728</v>
       </c>
-      <c r="J15" s="107">
+      <c r="J15" s="177">
         <f t="shared" si="2"/>
         <v>-37254201.734705798</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="81" t="s">
+    <row r="16" spans="2:10" ht="13" thickBot="1">
+      <c r="B16" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107">
+      <c r="D16" s="203"/>
+      <c r="E16" s="177">
         <f t="shared" ref="E16:J16" si="3">-(E11)</f>
         <v>526666.66666666663</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="G16" s="107">
+      <c r="G16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="H16" s="107">
+      <c r="H16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="I16" s="107">
+      <c r="I16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="J16" s="107">
+      <c r="J16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="81" t="s">
+    <row r="17" spans="2:10" ht="13" thickBot="1">
+      <c r="B17" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107">
+      <c r="D17" s="203"/>
+      <c r="E17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="G17" s="107">
+      <c r="G17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="H17" s="107">
+      <c r="H17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="I17" s="107">
+      <c r="I17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="J17" s="107">
+      <c r="J17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="81" t="s">
+    <row r="18" spans="2:10" ht="13" thickBot="1">
+      <c r="B18" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="205">
         <f>-INVERSION!D20</f>
         <v>-20610000</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-    </row>
-    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
-      <c r="C19" s="83" t="s">
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+    </row>
+    <row r="19" spans="2:10" ht="13" thickBot="1">
+      <c r="B19" s="176"/>
+      <c r="C19" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="155">
+      <c r="D19" s="206">
         <f>'G. FINANCIERO'!C5</f>
         <v>12366000</v>
       </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-    </row>
-    <row r="20" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="79" t="s">
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+    </row>
+    <row r="20" spans="2:10" ht="13" thickBot="1">
+      <c r="B20" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="131">
+      <c r="D20" s="181">
         <f>SUM(D18:D19)</f>
         <v>-8244000</v>
       </c>
-      <c r="E20" s="131">
+      <c r="E20" s="182">
         <f t="shared" ref="E20:J20" si="4">SUM(E14:E19)</f>
         <v>-16391424.865564745</v>
       </c>
-      <c r="F20" s="131">
+      <c r="F20" s="182">
         <f t="shared" si="4"/>
         <v>15019998.794914581</v>
       </c>
-      <c r="G20" s="131">
+      <c r="G20" s="182">
         <f t="shared" si="4"/>
         <v>40250980.799914569</v>
       </c>
-      <c r="H20" s="131">
+      <c r="H20" s="182">
         <f t="shared" si="4"/>
         <v>74304686.607087657</v>
       </c>
-      <c r="I20" s="131">
+      <c r="I20" s="182">
         <f t="shared" si="4"/>
         <v>119853730.12717858</v>
       </c>
-      <c r="J20" s="131">
+      <c r="J20" s="182">
         <f t="shared" si="4"/>
         <v>180353828.07728904</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="132"/>
-      <c r="C22" s="138" t="s">
+    <row r="21" spans="2:10" ht="13" thickBot="1">
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="184"/>
+    </row>
+    <row r="22" spans="2:10" ht="13" customHeight="1" thickBot="1">
+      <c r="B22" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="143">
+      <c r="C22" s="186"/>
+      <c r="D22" s="187">
         <f>NPV(D24,E20:J20)+D20</f>
         <v>195369906.18668318</v>
       </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-    </row>
-    <row r="23" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="133"/>
-      <c r="C23" s="140" t="s">
+      <c r="E22" s="184"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+    </row>
+    <row r="23" spans="2:10" ht="13" customHeight="1" thickBot="1">
+      <c r="B23" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="144">
+      <c r="C23" s="186"/>
+      <c r="D23" s="198">
         <f>IRR(D20:J20)</f>
         <v>1.1222172349230157</v>
       </c>
-      <c r="E23" s="136"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-    </row>
-    <row r="24" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="134"/>
-      <c r="C24" s="142" t="s">
+      <c r="E23" s="183"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+    </row>
+    <row r="24" spans="2:10" ht="13" customHeight="1" thickBot="1">
+      <c r="B24" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="135">
+      <c r="C24" s="185"/>
+      <c r="D24" s="198">
         <v>0.15</v>
       </c>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C27" s="204" t="s">
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="C27" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="204"/>
-      <c r="E27" s="203">
+      <c r="D27" s="134"/>
+      <c r="E27" s="131">
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C28" s="204" t="s">
+    <row r="28" spans="2:10">
+      <c r="C28" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="204"/>
-      <c r="E28" s="149">
+      <c r="D28" s="134"/>
+      <c r="E28" s="117">
         <v>50000</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C29" s="204" t="s">
+    <row r="29" spans="2:10">
+      <c r="C29" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="204"/>
-      <c r="E29" s="203">
+      <c r="D29" s="134"/>
+      <c r="E29" s="131">
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="208" t="s">
+    <row r="34" spans="1:4" ht="16" thickBot="1">
+      <c r="C34" s="192" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="208" t="s">
+      <c r="D34" s="193" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="206">
+    <row r="35" spans="1:4" ht="13" thickBot="1">
+      <c r="C35" s="194">
         <v>0.05</v>
       </c>
-      <c r="D35" s="207">
+      <c r="D35" s="195">
         <v>12428476.569774456</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="206">
+    <row r="36" spans="1:4" ht="13" thickBot="1">
+      <c r="C36" s="194">
         <v>0.1</v>
       </c>
-      <c r="D36" s="207">
+      <c r="D36" s="195">
         <v>41001309.400372759</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="206">
+    <row r="37" spans="1:4" ht="13" thickBot="1">
+      <c r="C37" s="194">
         <v>0.15</v>
       </c>
-      <c r="D37" s="207">
+      <c r="D37" s="195">
         <v>73187535.701469153</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="206">
+    <row r="38" spans="1:4" ht="13" thickBot="1">
+      <c r="C38" s="194">
         <v>0.2</v>
       </c>
-      <c r="D38" s="207">
+      <c r="D38" s="195">
         <v>109367561.87008296</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="154"/>
-      <c r="C39" s="206">
+    <row r="39" spans="1:4" ht="13" thickBot="1">
+      <c r="A39" s="122"/>
+      <c r="C39" s="194">
         <v>0.25</v>
       </c>
-      <c r="D39" s="207">
+      <c r="D39" s="195">
         <v>149949445.5219993</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C40" s="206">
+    <row r="40" spans="1:4" ht="13" thickBot="1">
+      <c r="C40" s="194">
         <v>0.3</v>
       </c>
-      <c r="D40" s="207">
+      <c r="D40" s="195">
         <v>195369906.18668318</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C41" s="206">
+    <row r="41" spans="1:4" ht="13" thickBot="1">
+      <c r="C41" s="194">
         <v>0.35</v>
       </c>
-      <c r="D41" s="207">
+      <c r="D41" s="195">
         <v>246095336.00219232</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="206">
+    <row r="42" spans="1:4" ht="13" thickBot="1">
+      <c r="C42" s="194">
         <v>0.4</v>
       </c>
-      <c r="D42" s="207">
+      <c r="D42" s="195">
         <v>302622810.41009074</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="206">
+    <row r="43" spans="1:4" ht="13" thickBot="1">
+      <c r="C43" s="194">
         <v>0.45</v>
       </c>
-      <c r="D43" s="207">
+      <c r="D43" s="195">
         <v>365481098.85036224</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="206">
+    <row r="44" spans="1:4">
+      <c r="C44" s="196">
         <v>0.5</v>
       </c>
-      <c r="D44" s="207">
+      <c r="D44" s="197">
         <v>435231675.45632291</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="206"/>
-      <c r="D45" s="207"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="206"/>
-      <c r="D46" s="207"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="206"/>
-      <c r="D47" s="207"/>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="208" t="s">
+    <row r="45" spans="1:4">
+      <c r="C45" s="132"/>
+      <c r="D45" s="133"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" s="132"/>
+      <c r="D46" s="133"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" s="132"/>
+      <c r="D47" s="133"/>
+    </row>
+    <row r="48" spans="1:4" ht="13" thickBot="1"/>
+    <row r="49" spans="3:4" ht="16" thickBot="1">
+      <c r="C49" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="208" t="s">
+      <c r="D49" s="175" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="207">
+    <row r="50" spans="3:4" ht="13" thickBot="1">
+      <c r="C50" s="191">
         <v>25000</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="191">
         <v>22321890.626882717</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="207">
+    <row r="51" spans="3:4" ht="13" thickBot="1">
+      <c r="C51" s="191">
         <v>30000</v>
       </c>
-      <c r="D51" s="153">
+      <c r="D51" s="191">
         <v>57444256.890377134</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="207">
+    <row r="52" spans="3:4" ht="13" thickBot="1">
+      <c r="C52" s="191">
         <v>35000</v>
       </c>
-      <c r="D52" s="153">
+      <c r="D52" s="191">
         <v>92566623.153871506</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="207">
+    <row r="53" spans="3:4" ht="13" thickBot="1">
+      <c r="C53" s="191">
         <v>40000</v>
       </c>
-      <c r="D53" s="153">
+      <c r="D53" s="191">
         <v>126980069.68994012</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C54" s="207">
+    <row r="54" spans="3:4" ht="13" thickBot="1">
+      <c r="C54" s="191">
         <v>45000</v>
       </c>
-      <c r="D54" s="153">
+      <c r="D54" s="191">
         <v>161174987.93831164</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C55" s="207">
+    <row r="55" spans="3:4" ht="13" thickBot="1">
+      <c r="C55" s="191">
         <v>50000</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="191">
         <v>195369906.18668318</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="207">
+    <row r="56" spans="3:4" ht="13" thickBot="1">
+      <c r="C56" s="191">
         <v>55000</v>
       </c>
-      <c r="D56" s="153">
+      <c r="D56" s="191">
         <v>229564824.43505466</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="207">
+    <row r="57" spans="3:4" ht="13" thickBot="1">
+      <c r="C57" s="191">
         <v>60000</v>
       </c>
-      <c r="D57" s="153">
+      <c r="D57" s="191">
         <v>263759742.68342614</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="207">
+    <row r="58" spans="3:4" ht="13" thickBot="1">
+      <c r="C58" s="191">
         <v>65000</v>
       </c>
-      <c r="D58" s="153">
+      <c r="D58" s="191">
         <v>297689622.28873622</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="207">
+    <row r="59" spans="3:4" ht="13" thickBot="1">
+      <c r="C59" s="191">
         <v>70000</v>
       </c>
-      <c r="D59" s="153">
+      <c r="D59" s="191">
         <v>331064105.75449902</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="207"/>
-      <c r="D60" s="153"/>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="207"/>
-      <c r="D61" s="153"/>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="207"/>
-      <c r="D62" s="153"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="208" t="s">
+    <row r="60" spans="3:4">
+      <c r="C60" s="133"/>
+      <c r="D60" s="121"/>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61" s="133"/>
+      <c r="D61" s="121"/>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="133"/>
+      <c r="D62" s="121"/>
+    </row>
+    <row r="63" spans="3:4" ht="13" thickBot="1"/>
+    <row r="64" spans="3:4" ht="16" thickBot="1">
+      <c r="C64" s="175" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="208" t="s">
+      <c r="D64" s="175" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C65" s="205">
+    <row r="65" spans="3:4" ht="13" thickBot="1">
+      <c r="C65" s="190">
         <v>0.04</v>
       </c>
-      <c r="D65" s="153">
+      <c r="D65" s="191">
         <v>240326790.21024233</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C66" s="205">
+    <row r="66" spans="3:4" ht="13" thickBot="1">
+      <c r="C66" s="190">
         <v>0.05</v>
       </c>
-      <c r="D66" s="153">
+      <c r="D66" s="191">
         <v>233274407.53094852</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C67" s="205">
+    <row r="67" spans="3:4" ht="13" thickBot="1">
+      <c r="C67" s="190">
         <v>0.06</v>
       </c>
-      <c r="D67" s="153">
+      <c r="D67" s="191">
         <v>226050675.05015779</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="205">
+    <row r="68" spans="3:4" ht="13" thickBot="1">
+      <c r="C68" s="190">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D68" s="153">
+      <c r="D68" s="191">
         <v>218652015.83958411</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="205">
+    <row r="69" spans="3:4" ht="13" thickBot="1">
+      <c r="C69" s="190">
         <v>0.08</v>
       </c>
-      <c r="D69" s="153">
+      <c r="D69" s="191">
         <v>211074799.64564967</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="205">
+    <row r="70" spans="3:4" ht="13" thickBot="1">
+      <c r="C70" s="190">
         <v>0.09</v>
       </c>
-      <c r="D70" s="153">
+      <c r="D70" s="191">
         <v>203315342.47611076</v>
       </c>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="205">
+    <row r="71" spans="3:4" ht="13" thickBot="1">
+      <c r="C71" s="190">
         <v>0.1</v>
       </c>
-      <c r="D71" s="153">
+      <c r="D71" s="191">
         <v>195369906.18668318</v>
       </c>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C72" s="205">
+    <row r="72" spans="3:4" ht="13" thickBot="1">
+      <c r="C72" s="190">
         <v>0.11</v>
       </c>
-      <c r="D72" s="153">
+      <c r="D72" s="191">
         <v>187234698.06766796</v>
       </c>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C73" s="205">
+    <row r="73" spans="3:4" ht="13" thickBot="1">
+      <c r="C73" s="190">
         <v>0.12</v>
       </c>
-      <c r="D73" s="153">
+      <c r="D73" s="191">
         <v>178905870.4305771</v>
       </c>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C74" s="205">
+    <row r="74" spans="3:4" ht="13" thickBot="1">
+      <c r="C74" s="190">
         <v>0.13</v>
       </c>
-      <c r="D74" s="153">
+      <c r="D74" s="191">
         <v>170379520.1947594</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3595,29 +3781,29 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>128</v>
       </c>
@@ -3637,73 +3823,73 @@
   <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="168" t="s">
+    <row r="3" spans="2:4" ht="13" thickBot="1"/>
+    <row r="4" spans="2:4" ht="13" thickBot="1">
+      <c r="B4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="169"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="166" t="s">
+    <row r="5" spans="2:4" ht="13" thickBot="1">
+      <c r="B5" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="167"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="45"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="B6" s="40"/>
       <c r="C6" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="13" thickBot="1">
       <c r="B7" s="40"/>
       <c r="C7" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="166" t="s">
+    <row r="8" spans="2:4" ht="13" thickBot="1">
+      <c r="B8" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="170"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="46">
         <v>5000000</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="166" t="s">
+    <row r="9" spans="2:4" ht="13" thickBot="1">
+      <c r="B9" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="167"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="46">
         <v>2500000</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="166" t="s">
+    <row r="10" spans="2:4" ht="13" thickBot="1">
+      <c r="B10" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="167"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="45"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4">
       <c r="B11" s="42">
         <v>7</v>
       </c>
@@ -3715,7 +3901,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4">
       <c r="B12" s="42">
         <v>1</v>
       </c>
@@ -3726,7 +3912,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="13" thickBot="1">
       <c r="B13" s="43">
         <v>1</v>
       </c>
@@ -3737,14 +3923,14 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="166" t="s">
+    <row r="14" spans="2:4" ht="13" thickBot="1">
+      <c r="B14" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="167"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="45"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4">
       <c r="B15" s="43"/>
       <c r="C15" s="13" t="s">
         <v>10</v>
@@ -3753,9 +3939,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4">
       <c r="B16" s="43"/>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="95" t="s">
         <v>105</v>
       </c>
       <c r="D16" s="14">
@@ -3763,7 +3949,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" s="43"/>
       <c r="C17" s="13" t="s">
         <v>84</v>
@@ -3772,7 +3958,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4">
       <c r="B18" s="43"/>
       <c r="C18" s="13" t="s">
         <v>83</v>
@@ -3781,20 +3967,20 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="13" thickBot="1">
       <c r="B19" s="44"/>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="96" t="s">
         <v>106</v>
       </c>
       <c r="D19" s="18">
         <v>5000000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="164" t="s">
+    <row r="20" spans="2:4" ht="13" thickBot="1">
+      <c r="B20" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="165"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="47">
         <f>SUM(D5:D19)</f>
         <v>20610000</v>
@@ -3825,782 +4011,743 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-    </row>
-    <row r="3" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-    </row>
-    <row r="4" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="185" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+    </row>
+    <row r="3" spans="2:16" ht="13" thickBot="1">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+    </row>
+    <row r="4" spans="2:16" ht="13" thickBot="1">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="187"/>
-      <c r="F4" s="185" t="s">
+      <c r="E4" s="156"/>
+      <c r="F4" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="186"/>
-      <c r="H4" s="187" t="s">
+      <c r="G4" s="155"/>
+      <c r="H4" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="187"/>
-      <c r="J4" s="185" t="s">
+      <c r="I4" s="156"/>
+      <c r="J4" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="186"/>
-      <c r="L4" s="187" t="s">
+      <c r="K4" s="155"/>
+      <c r="L4" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="187"/>
-      <c r="N4" s="185" t="s">
+      <c r="M4" s="156"/>
+      <c r="N4" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="186"/>
-      <c r="P4" s="101"/>
-    </row>
-    <row r="5" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102" t="s">
+      <c r="O4" s="155"/>
+      <c r="P4" s="88"/>
+    </row>
+    <row r="5" spans="2:16" ht="13" thickBot="1">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="103" t="s">
+      <c r="M5" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="104" t="s">
+      <c r="O5" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="P5" s="101"/>
-    </row>
-    <row r="6" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="101"/>
-      <c r="C6" s="175" t="s">
+      <c r="P5" s="88"/>
+    </row>
+    <row r="6" spans="2:16" ht="13" thickBot="1">
+      <c r="B6" s="88"/>
+      <c r="C6" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="148">
+      <c r="D6" s="116">
         <f>12*1*20</f>
         <v>240</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="93">
         <v>180000</v>
       </c>
-      <c r="F6" s="111">
+      <c r="F6" s="93">
         <f>20*1.3*12</f>
         <v>312</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="93">
         <v>180000</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="93">
         <f>F6*(1+$C$29)</f>
         <v>384</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="93">
         <v>180000</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="93">
         <f>H6*(1+$C$29)</f>
         <v>472.61538461538464</v>
       </c>
-      <c r="K6" s="111">
+      <c r="K6" s="93">
         <v>180000</v>
       </c>
-      <c r="L6" s="111">
+      <c r="L6" s="93">
         <f>J6*(1+$C$29)</f>
         <v>581.68047337278108</v>
       </c>
-      <c r="M6" s="111">
+      <c r="M6" s="93">
         <v>180000</v>
       </c>
-      <c r="N6" s="111">
+      <c r="N6" s="93">
         <f>L6*(1+$C$29)</f>
         <v>715.91442876649978</v>
       </c>
-      <c r="O6" s="111">
+      <c r="O6" s="93">
         <v>180000</v>
       </c>
-      <c r="P6" s="101"/>
-    </row>
-    <row r="7" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="101"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="178">
+      <c r="P6" s="88"/>
+    </row>
+    <row r="7" spans="2:16" ht="13" thickBot="1">
+      <c r="B7" s="88"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="148">
         <f>D6*E6</f>
         <v>43200000</v>
       </c>
-      <c r="E7" s="179"/>
-      <c r="F7" s="178">
+      <c r="E7" s="153"/>
+      <c r="F7" s="148">
         <f>F6*G6</f>
         <v>56160000</v>
       </c>
-      <c r="G7" s="180"/>
-      <c r="H7" s="179">
+      <c r="G7" s="149"/>
+      <c r="H7" s="153">
         <f>H6*I6</f>
         <v>69120000</v>
       </c>
-      <c r="I7" s="179"/>
-      <c r="J7" s="178">
+      <c r="I7" s="153"/>
+      <c r="J7" s="148">
         <f>J6*K6</f>
         <v>85070769.230769232</v>
       </c>
-      <c r="K7" s="180"/>
-      <c r="L7" s="179">
+      <c r="K7" s="149"/>
+      <c r="L7" s="153">
         <f>L6*M6</f>
         <v>104702485.2071006</v>
       </c>
-      <c r="M7" s="179"/>
-      <c r="N7" s="178">
+      <c r="M7" s="153"/>
+      <c r="N7" s="148">
         <f>N6*O6</f>
         <v>128864597.17796996</v>
       </c>
-      <c r="O7" s="180"/>
-      <c r="P7" s="101"/>
-    </row>
-    <row r="8" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="101"/>
-      <c r="C8" s="175" t="s">
+      <c r="O7" s="149"/>
+      <c r="P7" s="88"/>
+    </row>
+    <row r="8" spans="2:16" ht="13" thickBot="1">
+      <c r="B8" s="88"/>
+      <c r="C8" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="111">
+      <c r="D8" s="93">
         <f>D10*0.9</f>
         <v>90</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="93">
         <v>70000</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="93">
         <f>(F10-D10)*0.9+0.2*D10</f>
         <v>47</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="93">
         <v>70000</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="93">
         <f>(H10-F10)*0.9+0.2*F10</f>
         <v>61.1</v>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="93">
         <v>70000</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="93">
         <f>(J10-H10)*0.9+0.2*H10</f>
         <v>79.430000000000021</v>
       </c>
-      <c r="K8" s="111">
+      <c r="K8" s="93">
         <v>70000</v>
       </c>
-      <c r="L8" s="111">
+      <c r="L8" s="93">
         <f>(L10-J10)*0.9+0.2*J10</f>
         <v>103.259</v>
       </c>
-      <c r="M8" s="111">
+      <c r="M8" s="93">
         <v>70000</v>
       </c>
-      <c r="N8" s="111">
+      <c r="N8" s="93">
         <f>(N10-L10)*0.9+0.2*L10</f>
         <v>134.23670000000001</v>
       </c>
-      <c r="O8" s="111">
+      <c r="O8" s="93">
         <v>70000</v>
       </c>
-      <c r="P8" s="101"/>
-    </row>
-    <row r="9" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="101"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="181">
+      <c r="P8" s="88"/>
+    </row>
+    <row r="9" spans="2:16" ht="13" thickBot="1">
+      <c r="B9" s="88"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="151">
         <f>D8*E8</f>
         <v>6300000</v>
       </c>
-      <c r="E9" s="172"/>
-      <c r="F9" s="181">
+      <c r="E9" s="150"/>
+      <c r="F9" s="151">
         <f>F8*G8</f>
         <v>3290000</v>
       </c>
-      <c r="G9" s="188"/>
-      <c r="H9" s="172">
+      <c r="G9" s="152"/>
+      <c r="H9" s="150">
         <f>H8*I8</f>
         <v>4277000</v>
       </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="181">
+      <c r="I9" s="150"/>
+      <c r="J9" s="151">
         <f>J8*K8</f>
         <v>5560100.0000000019</v>
       </c>
-      <c r="K9" s="188"/>
-      <c r="L9" s="172">
+      <c r="K9" s="152"/>
+      <c r="L9" s="150">
         <f>L8*M8</f>
         <v>7228130</v>
       </c>
-      <c r="M9" s="172"/>
-      <c r="N9" s="181">
+      <c r="M9" s="150"/>
+      <c r="N9" s="151">
         <f>N8*O8</f>
         <v>9396569</v>
       </c>
-      <c r="O9" s="188"/>
-      <c r="P9" s="101"/>
-    </row>
-    <row r="10" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
-      <c r="C10" s="176" t="s">
+      <c r="O9" s="152"/>
+      <c r="P9" s="88"/>
+    </row>
+    <row r="10" spans="2:16" ht="13" thickBot="1">
+      <c r="B10" s="88"/>
+      <c r="C10" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="111">
+      <c r="D10" s="93">
         <v>100</v>
       </c>
-      <c r="E10" s="111">
+      <c r="E10" s="93">
         <f>$C$23*12</f>
         <v>600000</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="93">
         <f>D10*(1+$C$26)</f>
         <v>130</v>
       </c>
-      <c r="G10" s="111">
+      <c r="G10" s="93">
         <f>$C$23*12</f>
         <v>600000</v>
       </c>
-      <c r="H10" s="111">
+      <c r="H10" s="93">
         <f>F10*(1+$C$26)</f>
         <v>169</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="93">
         <f>$C$23*12</f>
         <v>600000</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="93">
         <f>H10*(1+$C$26)</f>
         <v>219.70000000000002</v>
       </c>
-      <c r="K10" s="111">
+      <c r="K10" s="93">
         <f>$C$23*12</f>
         <v>600000</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="93">
         <f>J10*(1+$C$26)</f>
         <v>285.61</v>
       </c>
-      <c r="M10" s="111">
+      <c r="M10" s="93">
         <f>$C$23*12</f>
         <v>600000</v>
       </c>
-      <c r="N10" s="111">
+      <c r="N10" s="93">
         <f>L10*(1+$C$26)</f>
         <v>371.29300000000001</v>
       </c>
-      <c r="O10" s="111">
+      <c r="O10" s="93">
         <f>$C$23*12</f>
         <v>600000</v>
       </c>
-      <c r="P10" s="101"/>
-    </row>
-    <row r="11" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="178">
+      <c r="P10" s="88"/>
+    </row>
+    <row r="11" spans="2:16" ht="13" thickBot="1">
+      <c r="B11" s="88"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="148">
         <f>D10*E10</f>
         <v>60000000</v>
       </c>
-      <c r="E11" s="179"/>
-      <c r="F11" s="178">
+      <c r="E11" s="153"/>
+      <c r="F11" s="148">
         <f>F10*G10</f>
         <v>78000000</v>
       </c>
-      <c r="G11" s="180"/>
-      <c r="H11" s="179">
+      <c r="G11" s="149"/>
+      <c r="H11" s="153">
         <f>H10*I10</f>
         <v>101400000</v>
       </c>
-      <c r="I11" s="179"/>
-      <c r="J11" s="178">
+      <c r="I11" s="153"/>
+      <c r="J11" s="148">
         <f>J10*K10</f>
         <v>131820000.00000001</v>
       </c>
-      <c r="K11" s="180"/>
-      <c r="L11" s="179">
+      <c r="K11" s="149"/>
+      <c r="L11" s="153">
         <f>L10*M10</f>
         <v>171366000</v>
       </c>
-      <c r="M11" s="179"/>
-      <c r="N11" s="178">
+      <c r="M11" s="153"/>
+      <c r="N11" s="148">
         <f>N10*O10</f>
         <v>222775800</v>
       </c>
-      <c r="O11" s="180"/>
-      <c r="P11" s="101"/>
-    </row>
-    <row r="12" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="101"/>
-      <c r="C12" s="175" t="s">
+      <c r="O11" s="149"/>
+      <c r="P11" s="88"/>
+    </row>
+    <row r="12" spans="2:16" ht="13" thickBot="1">
+      <c r="B12" s="88"/>
+      <c r="C12" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111">
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93">
         <f>0.7*F10</f>
         <v>91</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="93">
         <f>10000*12</f>
         <v>120000</v>
       </c>
-      <c r="H12" s="111">
+      <c r="H12" s="93">
         <f>0.7*H10</f>
         <v>118.3</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I12" s="93">
         <f>10000*12</f>
         <v>120000</v>
       </c>
-      <c r="J12" s="111">
+      <c r="J12" s="93">
         <f>0.7*J10</f>
         <v>153.79</v>
       </c>
-      <c r="K12" s="111">
+      <c r="K12" s="93">
         <f>10000*12</f>
         <v>120000</v>
       </c>
-      <c r="L12" s="111">
+      <c r="L12" s="93">
         <f>0.7*L10</f>
         <v>199.92699999999999</v>
       </c>
-      <c r="M12" s="111">
+      <c r="M12" s="93">
         <f>10000*12</f>
         <v>120000</v>
       </c>
-      <c r="N12" s="111">
+      <c r="N12" s="93">
         <f>0.7*N10</f>
         <v>259.9051</v>
       </c>
-      <c r="O12" s="111">
+      <c r="O12" s="93">
         <f>10000*12</f>
         <v>120000</v>
       </c>
-      <c r="P12" s="101"/>
-    </row>
-    <row r="13" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="101"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="181">
+      <c r="P12" s="88"/>
+    </row>
+    <row r="13" spans="2:16" ht="13" thickBot="1">
+      <c r="B13" s="88"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="151">
         <f>D12*E12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="172"/>
-      <c r="F13" s="181">
+      <c r="E13" s="150"/>
+      <c r="F13" s="151">
         <f>F12*G12</f>
         <v>10920000</v>
       </c>
-      <c r="G13" s="188"/>
-      <c r="H13" s="172">
+      <c r="G13" s="152"/>
+      <c r="H13" s="150">
         <f>H12*I12</f>
         <v>14196000</v>
       </c>
-      <c r="I13" s="172"/>
-      <c r="J13" s="181">
+      <c r="I13" s="150"/>
+      <c r="J13" s="151">
         <f>J12*K12</f>
         <v>18454800</v>
       </c>
-      <c r="K13" s="188"/>
-      <c r="L13" s="172">
+      <c r="K13" s="152"/>
+      <c r="L13" s="150">
         <f>L12*M12</f>
         <v>23991240</v>
       </c>
-      <c r="M13" s="172"/>
-      <c r="N13" s="181">
+      <c r="M13" s="150"/>
+      <c r="N13" s="151">
         <f>N12*O12</f>
         <v>31188612</v>
       </c>
-      <c r="O13" s="188"/>
-      <c r="P13" s="101"/>
-    </row>
-    <row r="14" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
-      <c r="C14" s="176" t="s">
+      <c r="O13" s="152"/>
+      <c r="P13" s="88"/>
+    </row>
+    <row r="14" spans="2:16" ht="13" thickBot="1">
+      <c r="B14" s="88"/>
+      <c r="C14" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111">
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93">
         <f>0.3*F10</f>
         <v>39</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="93">
         <v>50000</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="93">
         <f>0.3*H10</f>
         <v>50.699999999999996</v>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="93">
         <v>50000</v>
       </c>
-      <c r="J14" s="111">
+      <c r="J14" s="93">
         <f>0.3*J10</f>
         <v>65.91</v>
       </c>
-      <c r="K14" s="111">
+      <c r="K14" s="93">
         <v>50000</v>
       </c>
-      <c r="L14" s="111">
+      <c r="L14" s="93">
         <f>0.3*L10</f>
         <v>85.683000000000007</v>
       </c>
-      <c r="M14" s="111">
+      <c r="M14" s="93">
         <v>50000</v>
       </c>
-      <c r="N14" s="111">
+      <c r="N14" s="93">
         <f>0.3*N10</f>
         <v>111.3879</v>
       </c>
-      <c r="O14" s="111">
+      <c r="O14" s="93">
         <v>50000</v>
       </c>
-      <c r="P14" s="101"/>
-    </row>
-    <row r="15" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="178">
+      <c r="P14" s="88"/>
+    </row>
+    <row r="15" spans="2:16" ht="13" thickBot="1">
+      <c r="B15" s="88"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="148">
         <f>D14*E14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="179"/>
-      <c r="F15" s="178">
+      <c r="E15" s="153"/>
+      <c r="F15" s="148">
         <f>F14*G14</f>
         <v>1950000</v>
       </c>
-      <c r="G15" s="180"/>
-      <c r="H15" s="179">
+      <c r="G15" s="149"/>
+      <c r="H15" s="153">
         <f>H14*I14</f>
         <v>2535000</v>
       </c>
-      <c r="I15" s="179"/>
-      <c r="J15" s="178">
+      <c r="I15" s="153"/>
+      <c r="J15" s="148">
         <f>J14*K14</f>
         <v>3295500</v>
       </c>
-      <c r="K15" s="180"/>
-      <c r="L15" s="179">
+      <c r="K15" s="149"/>
+      <c r="L15" s="153">
         <f>L14*M14</f>
         <v>4284150</v>
       </c>
-      <c r="M15" s="179"/>
-      <c r="N15" s="178">
+      <c r="M15" s="153"/>
+      <c r="N15" s="148">
         <f>N14*O14</f>
         <v>5569395</v>
       </c>
-      <c r="O15" s="180"/>
-      <c r="P15" s="101"/>
-    </row>
-    <row r="16" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="101"/>
-      <c r="C16" s="175" t="s">
+      <c r="O15" s="149"/>
+      <c r="P15" s="88"/>
+    </row>
+    <row r="16" spans="2:16" ht="13" thickBot="1">
+      <c r="B16" s="88"/>
+      <c r="C16" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111">
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93">
         <f>0.5*F10</f>
         <v>65</v>
       </c>
-      <c r="G16" s="111">
+      <c r="G16" s="93">
         <v>100000</v>
       </c>
-      <c r="H16" s="111">
+      <c r="H16" s="93">
         <f>0.5*H10</f>
         <v>84.5</v>
       </c>
-      <c r="I16" s="111">
+      <c r="I16" s="93">
         <v>100000</v>
       </c>
-      <c r="J16" s="111">
+      <c r="J16" s="93">
         <f>0.5*J10</f>
         <v>109.85000000000001</v>
       </c>
-      <c r="K16" s="111">
+      <c r="K16" s="93">
         <v>100000</v>
       </c>
-      <c r="L16" s="111">
+      <c r="L16" s="93">
         <f>0.5*L10</f>
         <v>142.80500000000001</v>
       </c>
-      <c r="M16" s="111">
+      <c r="M16" s="93">
         <v>100000</v>
       </c>
-      <c r="N16" s="111">
+      <c r="N16" s="93">
         <f>0.5*N10</f>
         <v>185.6465</v>
       </c>
-      <c r="O16" s="111">
+      <c r="O16" s="93">
         <v>100000</v>
       </c>
-      <c r="P16" s="101"/>
-    </row>
-    <row r="17" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="101"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="173">
+      <c r="P16" s="88"/>
+    </row>
+    <row r="17" spans="2:16" ht="13" thickBot="1">
+      <c r="B17" s="88"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="144">
         <f>D16*E16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="174"/>
-      <c r="F17" s="173">
+      <c r="E17" s="147"/>
+      <c r="F17" s="144">
         <f>F16*G16</f>
         <v>6500000</v>
       </c>
-      <c r="G17" s="189"/>
-      <c r="H17" s="174">
+      <c r="G17" s="145"/>
+      <c r="H17" s="147">
         <f>H16*I16</f>
         <v>8450000</v>
       </c>
-      <c r="I17" s="174"/>
-      <c r="J17" s="173">
+      <c r="I17" s="147"/>
+      <c r="J17" s="144">
         <f>J16*K16</f>
         <v>10985000</v>
       </c>
-      <c r="K17" s="189"/>
-      <c r="L17" s="174">
+      <c r="K17" s="145"/>
+      <c r="L17" s="147">
         <f>L16*M16</f>
         <v>14280500</v>
       </c>
-      <c r="M17" s="174"/>
-      <c r="N17" s="173">
+      <c r="M17" s="147"/>
+      <c r="N17" s="144">
         <f>N16*O16</f>
         <v>18564650</v>
       </c>
-      <c r="O17" s="189"/>
-      <c r="P17" s="101"/>
-    </row>
-    <row r="18" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="101"/>
-      <c r="C18" s="105" t="s">
+      <c r="O17" s="145"/>
+      <c r="P17" s="88"/>
+    </row>
+    <row r="18" spans="2:16" ht="13" thickBot="1">
+      <c r="B18" s="88"/>
+      <c r="C18" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="182">
+      <c r="D18" s="142">
         <f>D7+D9+D11+D13+D15+D17</f>
         <v>109500000</v>
       </c>
-      <c r="E18" s="183"/>
-      <c r="F18" s="182">
+      <c r="E18" s="146"/>
+      <c r="F18" s="142">
         <f>F7+F9+F11+F13+F15+F17</f>
         <v>156820000</v>
       </c>
-      <c r="G18" s="184"/>
-      <c r="H18" s="183">
+      <c r="G18" s="143"/>
+      <c r="H18" s="146">
         <f>H7+H9+H11+H13+H15+H17</f>
         <v>199978000</v>
       </c>
-      <c r="I18" s="183"/>
-      <c r="J18" s="182">
+      <c r="I18" s="146"/>
+      <c r="J18" s="142">
         <f>J7+J9+J11+J13+J15+J17</f>
         <v>255186169.23076925</v>
       </c>
-      <c r="K18" s="184"/>
-      <c r="L18" s="183">
+      <c r="K18" s="143"/>
+      <c r="L18" s="146">
         <f>L7+L9+L11+L13+L15+L17</f>
         <v>325852505.20710063</v>
       </c>
-      <c r="M18" s="183"/>
-      <c r="N18" s="182">
+      <c r="M18" s="146"/>
+      <c r="N18" s="142">
         <f>N7+N9+N11+N13+N15+N17</f>
         <v>416359623.17796993</v>
       </c>
-      <c r="O18" s="184"/>
-      <c r="P18" s="101"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C21" s="171" t="s">
+      <c r="O18" s="143"/>
+      <c r="P18" s="88"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="C21" s="157" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C22" s="171"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C23" s="149">
+    <row r="22" spans="2:16">
+      <c r="C22" s="157"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="C23" s="117">
         <f>'FLUJO CAJA PRINCIPAL'!E28</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C25" s="145" t="s">
+    <row r="25" spans="2:16" ht="24">
+      <c r="C25" s="113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C26" s="146">
+    <row r="26" spans="2:16">
+      <c r="C26" s="114">
         <f>'FLUJO CAJA PRINCIPAL'!E27</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C28" s="147" t="s">
+    <row r="28" spans="2:16" ht="24">
+      <c r="C28" s="115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C29" s="152">
+    <row r="29" spans="2:16">
+      <c r="C29" s="120">
         <f>(F6-D6)/F6</f>
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C30" s="151"/>
+    <row r="30" spans="2:16">
+      <c r="C30" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="D17:E17"/>
@@ -4617,6 +4764,45 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -4635,57 +4821,57 @@
   <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="101"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="G1" s="101"/>
-    </row>
-    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="G2" s="101"/>
-    </row>
-    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="128" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="G1" s="88"/>
+    </row>
+    <row r="2" spans="1:13" ht="13" thickBot="1">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="G2" s="88"/>
+    </row>
+    <row r="3" spans="1:13" ht="13" thickBot="1">
+      <c r="A3" s="88"/>
+      <c r="B3" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="127"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="130"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="101"/>
-      <c r="B4" s="199" t="s">
+      <c r="G3" s="112"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="88"/>
+      <c r="B4" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="6">
         <v>600000</v>
       </c>
@@ -4693,14 +4879,14 @@
         <f>D4*12</f>
         <v>7200000</v>
       </c>
-      <c r="G4" s="101"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="101"/>
-      <c r="B5" s="194" t="s">
+      <c r="G4" s="88"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="88"/>
+      <c r="B5" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="195"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="4">
         <f>IF('HW y SW'!C5=0,100000,0)</f>
         <v>0</v>
@@ -4709,32 +4895,32 @@
         <f>'HW y SW'!G4</f>
         <v>500000</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="156">
+      <c r="G5" s="88"/>
+      <c r="H5" s="123">
         <v>1</v>
       </c>
-      <c r="I5" s="156">
+      <c r="I5" s="123">
         <v>2</v>
       </c>
-      <c r="J5" s="156">
+      <c r="J5" s="123">
         <v>3</v>
       </c>
-      <c r="K5" s="156">
+      <c r="K5" s="123">
         <v>4</v>
       </c>
-      <c r="L5" s="156">
+      <c r="L5" s="123">
         <v>5</v>
       </c>
-      <c r="M5" s="156">
+      <c r="M5" s="123">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="101"/>
-      <c r="B6" s="194" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="88"/>
+      <c r="B6" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="195"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="4">
         <f>PERSONAL!E12</f>
         <v>8000000</v>
@@ -4743,40 +4929,40 @@
         <f t="shared" ref="E6:E11" si="0">D6*12</f>
         <v>96000000</v>
       </c>
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="158">
+      <c r="H6" s="125">
         <f>E6</f>
         <v>96000000</v>
       </c>
-      <c r="I6" s="159">
+      <c r="I6" s="126">
         <f>H6*(1+$I$10)</f>
         <v>105600000.00000001</v>
       </c>
-      <c r="J6" s="159">
+      <c r="J6" s="126">
         <f t="shared" ref="J6:M6" si="1">I6*(1+$I$10)</f>
         <v>116160000.00000003</v>
       </c>
-      <c r="K6" s="159">
+      <c r="K6" s="126">
         <f t="shared" si="1"/>
         <v>127776000.00000004</v>
       </c>
-      <c r="L6" s="159">
+      <c r="L6" s="126">
         <f t="shared" si="1"/>
         <v>140553600.00000006</v>
       </c>
-      <c r="M6" s="159">
+      <c r="M6" s="126">
         <f t="shared" si="1"/>
         <v>154608960.00000009</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="101"/>
-      <c r="B7" s="194" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="88"/>
+      <c r="B7" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="195"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="4">
         <v>100000</v>
       </c>
@@ -4784,78 +4970,78 @@
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="G7" s="157" t="s">
+      <c r="G7" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="158">
+      <c r="H7" s="125">
         <f>SUM(E4:E13)-H6</f>
         <v>17378600</v>
       </c>
-      <c r="I7" s="159">
+      <c r="I7" s="126">
         <f>H7*(1+$I$11)</f>
         <v>18247530</v>
       </c>
-      <c r="J7" s="159">
+      <c r="J7" s="126">
         <f t="shared" ref="J7:M7" si="2">I7*(1+$I$11)</f>
         <v>19159906.5</v>
       </c>
-      <c r="K7" s="159">
+      <c r="K7" s="126">
         <f t="shared" si="2"/>
         <v>20117901.824999999</v>
       </c>
-      <c r="L7" s="159">
+      <c r="L7" s="126">
         <f t="shared" si="2"/>
         <v>21123796.916250002</v>
       </c>
-      <c r="M7" s="159">
+      <c r="M7" s="126">
         <f t="shared" si="2"/>
         <v>22179986.762062501</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="101"/>
-      <c r="B8" s="194" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="88"/>
+      <c r="B8" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="195"/>
+      <c r="C8" s="163"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>13000</v>
       </c>
-      <c r="G8" s="160" t="s">
+      <c r="G8" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="161">
+      <c r="H8" s="128">
         <f>H6+H7</f>
         <v>113378600</v>
       </c>
-      <c r="I8" s="162">
+      <c r="I8" s="129">
         <f t="shared" ref="I8:M8" si="3">SUM(I6:I7)</f>
         <v>123847530.00000001</v>
       </c>
-      <c r="J8" s="162">
+      <c r="J8" s="129">
         <f t="shared" si="3"/>
         <v>135319906.50000003</v>
       </c>
-      <c r="K8" s="162">
+      <c r="K8" s="129">
         <f t="shared" si="3"/>
         <v>147893901.82500005</v>
       </c>
-      <c r="L8" s="162">
+      <c r="L8" s="129">
         <f t="shared" si="3"/>
         <v>161677396.91625005</v>
       </c>
-      <c r="M8" s="162">
+      <c r="M8" s="129">
         <f t="shared" si="3"/>
         <v>176788946.76206258</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
-      <c r="B9" s="194" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="88"/>
+      <c r="B9" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="195"/>
+      <c r="C9" s="163"/>
       <c r="D9" s="4">
         <v>50000</v>
       </c>
@@ -4863,14 +5049,14 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="G9" s="101"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="101"/>
-      <c r="B10" s="194" t="s">
+      <c r="G9" s="88"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="88"/>
+      <c r="B10" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="195"/>
+      <c r="C10" s="163"/>
       <c r="D10" s="4">
         <v>45000</v>
       </c>
@@ -4878,21 +5064,21 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="G10" s="198" t="s">
+      <c r="G10" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="198"/>
-      <c r="I10" s="163">
+      <c r="H10" s="161"/>
+      <c r="I10" s="130">
         <f>'FLUJO CAJA PRINCIPAL'!E29</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="101"/>
-      <c r="B11" s="194" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="88"/>
+      <c r="B11" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="195"/>
+      <c r="C11" s="163"/>
       <c r="D11" s="4">
         <v>45000</v>
       </c>
@@ -4900,20 +5086,20 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="G11" s="198" t="s">
+      <c r="G11" s="161" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="198"/>
-      <c r="I11" s="163">
+      <c r="H11" s="161"/>
+      <c r="I11" s="130">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="101"/>
-      <c r="B12" s="194" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="88"/>
+      <c r="B12" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="195"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="4">
         <f>'CREACIÓN CURSOS'!D9</f>
         <v>1100000</v>
@@ -4922,14 +5108,14 @@
         <f>'CREACIÓN CURSOS'!D14</f>
         <v>4400000</v>
       </c>
-      <c r="G12" s="101"/>
-    </row>
-    <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
-      <c r="B13" s="190" t="s">
+      <c r="G12" s="88"/>
+    </row>
+    <row r="13" spans="1:13" ht="13" thickBot="1">
+      <c r="A13" s="88"/>
+      <c r="B13" s="166" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="192"/>
+      <c r="C13" s="168"/>
       <c r="D13" s="5">
         <f>SUM(D4:D12)*0.02</f>
         <v>198800</v>
@@ -4938,92 +5124,92 @@
         <f>D13*12</f>
         <v>2385600</v>
       </c>
-      <c r="G13" s="101"/>
-    </row>
-    <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="164" t="s">
+      <c r="G13" s="88"/>
+    </row>
+    <row r="14" spans="1:13" ht="13" thickBot="1">
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="193"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="11">
         <f>SUM(E4:E13)</f>
         <v>113378600</v>
       </c>
-      <c r="G14" s="101"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="101"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="G15" s="101"/>
-    </row>
-    <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="G16" s="101"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
-      <c r="B17" s="196" t="s">
+      <c r="G14" s="88"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="G15" s="88"/>
+    </row>
+    <row r="16" spans="1:13" ht="13" thickBot="1">
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="G16" s="88"/>
+    </row>
+    <row r="17" spans="1:7" ht="13" thickBot="1">
+      <c r="A17" s="88"/>
+      <c r="B17" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="197"/>
+      <c r="C17" s="171"/>
       <c r="D17" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="G17" s="101"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="101"/>
+      <c r="E17" s="88"/>
+      <c r="G17" s="88"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="88"/>
       <c r="B18" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="99">
+      <c r="D18" s="86">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="G18" s="101"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="190" t="s">
+      <c r="E18" s="88"/>
+      <c r="G18" s="88"/>
+    </row>
+    <row r="19" spans="1:7" ht="13" thickBot="1">
+      <c r="A19" s="88"/>
+      <c r="B19" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="100">
+      <c r="C19" s="167"/>
+      <c r="D19" s="87">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="G19" s="101"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="126" t="s">
+      <c r="E19" s="88"/>
+      <c r="G19" s="88"/>
+    </row>
+    <row r="20" spans="1:7" ht="13" thickBot="1">
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="G20" s="101"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="G21" s="101"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="88"/>
+      <c r="G20" s="88"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="G21" s="88"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="D23">
         <f>E14*D19</f>
         <v>566893</v>
@@ -5031,6 +5217,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B9:C9"/>
@@ -5040,12 +5232,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -5062,19 +5248,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:G9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="13" thickBot="1"/>
+    <row r="7" spans="2:7" ht="13" thickBot="1">
       <c r="B7" s="48"/>
       <c r="C7" s="75" t="s">
         <v>29</v>
@@ -5092,7 +5278,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="13" thickBot="1">
       <c r="B8" s="23" t="s">
         <v>66</v>
       </c>
@@ -5112,7 +5298,7 @@
         <v>526666.66666666663</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" ht="13" thickBot="1">
       <c r="F9" s="76" t="s">
         <v>20</v>
       </c>
@@ -5137,20 +5323,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F18"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
         <v>77</v>
       </c>
@@ -5158,7 +5344,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="57" t="s">
         <v>76</v>
       </c>
@@ -5167,13 +5353,13 @@
         <v>12366000</v>
       </c>
       <c r="D5" s="52"/>
-      <c r="E5" s="150">
+      <c r="E5" s="118">
         <f>PMT(C6,B17,C5)</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="F5" s="150"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="118"/>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="63" t="s">
         <v>78</v>
       </c>
@@ -5184,7 +5370,7 @@
       <c r="E6" s="52"/>
       <c r="F6" s="52"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="63" t="s">
         <v>79</v>
       </c>
@@ -5195,21 +5381,21 @@
       <c r="E7" s="52"/>
       <c r="F7" s="52"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="58"/>
       <c r="E8" s="52"/>
       <c r="F8" s="52"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
       <c r="D9" s="58"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
     </row>
-    <row r="10" spans="2:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="17.25" customHeight="1" thickBot="1">
       <c r="B10" s="59" t="s">
         <v>68</v>
       </c>
@@ -5226,24 +5412,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="90" t="s">
+    <row r="11" spans="2:6" ht="13" thickBot="1">
+      <c r="B11" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="81" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" s="61">
         <v>1</v>
       </c>
@@ -5264,7 +5450,7 @@
         <v>3297600</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" s="54">
         <v>2</v>
       </c>
@@ -5285,7 +5471,7 @@
         <v>3091500</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" s="54">
         <v>3</v>
       </c>
@@ -5306,7 +5492,7 @@
         <v>2885400</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" s="54">
         <v>4</v>
       </c>
@@ -5327,7 +5513,7 @@
         <v>2679300</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" s="54">
         <v>5</v>
       </c>
@@ -5348,7 +5534,7 @@
         <v>2473200</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="13" thickBot="1">
       <c r="B17" s="55">
         <v>6</v>
       </c>
@@ -5369,7 +5555,7 @@
         <v>2267100</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="13" thickBot="1">
       <c r="C18" s="56"/>
     </row>
   </sheetData>
@@ -5393,32 +5579,32 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="13" thickBot="1">
       <c r="G3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="13" thickBot="1">
       <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="153">
+      <c r="G4" s="121">
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="13" thickBot="1">
       <c r="B5" s="39" t="s">
         <v>13</v>
       </c>
@@ -5426,7 +5612,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="13" thickBot="1">
       <c r="B6" s="37" t="s">
         <v>20</v>
       </c>
@@ -5435,28 +5621,28 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="13" thickBot="1">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="13" thickBot="1">
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="31" t="s">
         <v>14</v>
       </c>
@@ -5464,7 +5650,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
@@ -5472,7 +5658,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="13" thickBot="1">
       <c r="B15" s="33" t="s">
         <v>101</v>
       </c>
@@ -5480,7 +5666,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="13" thickBot="1">
       <c r="B16" s="35" t="s">
         <v>20</v>
       </c>
@@ -5510,12 +5696,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="13" thickBot="1">
       <c r="F1">
         <v>2</v>
       </c>
@@ -5532,13 +5718,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="196" t="s">
+    <row r="2" spans="2:10" ht="13" thickBot="1">
+      <c r="D2" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="201"/>
-    </row>
-    <row r="3" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="172"/>
+    </row>
+    <row r="3" spans="2:10" ht="13" thickBot="1">
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
@@ -5552,22 +5738,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="96">
+    <row r="4" spans="2:10">
+      <c r="B4" s="83">
         <v>1</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="84" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="45">
         <v>1500000</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="85">
         <f t="shared" ref="E4:E11" si="0">B4*D4</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="12">
         <v>1</v>
       </c>
@@ -5582,7 +5768,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="12">
         <v>2</v>
       </c>
@@ -5597,7 +5783,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="12">
         <v>3</v>
       </c>
@@ -5612,7 +5798,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="12">
         <v>1</v>
       </c>
@@ -5627,7 +5813,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="12">
         <v>1</v>
       </c>
@@ -5642,7 +5828,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="12">
         <v>1</v>
       </c>
@@ -5657,7 +5843,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="13" thickBot="1">
       <c r="B11" s="16">
         <v>1</v>
       </c>
@@ -5672,8 +5858,8 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="95">
+    <row r="12" spans="2:10" ht="13" thickBot="1">
+      <c r="E12" s="82">
         <f>SUM(E4:E11)</f>
         <v>8000000</v>
       </c>
@@ -5722,20 +5908,20 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="202" t="s">
+    <row r="3" spans="3:10" ht="13" thickBot="1"/>
+    <row r="4" spans="3:10" ht="13" thickBot="1">
+      <c r="C4" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="193"/>
-    </row>
-    <row r="5" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="169"/>
+    </row>
+    <row r="5" spans="3:10" ht="13" thickBot="1">
       <c r="C5" s="27" t="s">
         <v>32</v>
       </c>
@@ -5743,7 +5929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:10">
       <c r="C6" s="21" t="s">
         <v>31</v>
       </c>
@@ -5751,7 +5937,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:10">
       <c r="C7" s="7" t="s">
         <v>122</v>
       </c>
@@ -5762,15 +5948,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="112" t="s">
+    <row r="8" spans="3:10" ht="13" thickBot="1">
+      <c r="C8" s="94" t="s">
         <v>102</v>
       </c>
       <c r="D8" s="5">
         <v>500000</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:10" ht="13" thickBot="1">
       <c r="C9" s="28" t="s">
         <v>20</v>
       </c>
@@ -5779,32 +5965,32 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="115" t="s">
+    <row r="11" spans="3:10" ht="13" thickBot="1"/>
+    <row r="12" spans="3:10" ht="13" thickBot="1">
+      <c r="D12" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="121" t="s">
+      <c r="I12" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="120" t="s">
+      <c r="J12" s="102" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="115" t="s">
+    <row r="13" spans="3:10">
+      <c r="C13" s="97" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="31">
@@ -5813,51 +5999,51 @@
       <c r="E13" s="21">
         <v>4</v>
       </c>
-      <c r="F13" s="116">
+      <c r="F13" s="98">
         <v>4</v>
       </c>
       <c r="G13" s="21">
         <v>4</v>
       </c>
-      <c r="H13" s="116">
+      <c r="H13" s="98">
         <v>4</v>
       </c>
       <c r="I13" s="21">
         <v>4</v>
       </c>
-      <c r="J13" s="117">
+      <c r="J13" s="99">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="118" t="s">
+    <row r="14" spans="3:10" ht="13" thickBot="1">
+      <c r="C14" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="122">
+      <c r="D14" s="104">
         <f>$D$9*D13</f>
         <v>4400000</v>
       </c>
-      <c r="E14" s="123">
+      <c r="E14" s="105">
         <f t="shared" ref="E14:J14" si="0">$D$9*E13</f>
         <v>4400000</v>
       </c>
-      <c r="F14" s="124">
+      <c r="F14" s="106">
         <f t="shared" si="0"/>
         <v>4400000</v>
       </c>
-      <c r="G14" s="123">
+      <c r="G14" s="105">
         <f t="shared" si="0"/>
         <v>4400000</v>
       </c>
-      <c r="H14" s="124">
+      <c r="H14" s="106">
         <f t="shared" si="0"/>
         <v>4400000</v>
       </c>
-      <c r="I14" s="123">
+      <c r="I14" s="105">
         <f t="shared" si="0"/>
         <v>4400000</v>
       </c>
-      <c r="J14" s="125">
+      <c r="J14" s="107">
         <f t="shared" si="0"/>
         <v>4400000</v>
       </c>

--- a/FLUJO.xlsx
+++ b/FLUJO.xlsx
@@ -18,6 +18,9 @@
     <sheet name="CREACIÓN CURSOS" sheetId="5" r:id="rId9"/>
     <sheet name="Plan de Marketing" sheetId="11" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -439,7 +442,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
@@ -448,10 +452,17 @@
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1090,82 +1101,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1174,25 +1195,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1228,85 +1249,85 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1322,58 +1343,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1386,13 +1407,100 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="12" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,200 +1509,113 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="10" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="71">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
@@ -1624,6 +1645,10 @@
     <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
@@ -1653,8 +1678,14 @@
     <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Millares [0] 2" xfId="70"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="69"/>
     <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1828,11 +1859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2047548104"/>
-        <c:axId val="2047550616"/>
+        <c:axId val="2063062728"/>
+        <c:axId val="2063065272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2047548104"/>
+        <c:axId val="2063062728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047550616"/>
+        <c:crossAx val="2063065272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,7 +1881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047550616"/>
+        <c:axId val="2063065272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1874,7 +1905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047548104"/>
+        <c:crossAx val="2063062728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2065,11 +2096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2047631912"/>
-        <c:axId val="2047634856"/>
+        <c:axId val="2063156648"/>
+        <c:axId val="2063159592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2047631912"/>
+        <c:axId val="2063156648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047634856"/>
+        <c:crossAx val="2063159592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2087,7 +2118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047634856"/>
+        <c:axId val="2063159592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2111,7 +2142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047631912"/>
+        <c:crossAx val="2063156648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2302,11 +2333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2047663656"/>
-        <c:axId val="2047666600"/>
+        <c:axId val="2063188584"/>
+        <c:axId val="2063191528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2047663656"/>
+        <c:axId val="2063188584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047666600"/>
+        <c:crossAx val="2063191528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2324,7 +2355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2047666600"/>
+        <c:axId val="2063191528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,7 +2389,7 @@
             <a:prstDash val="sysDot"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2047663656"/>
+        <c:crossAx val="2063188584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2566,6 +2597,82 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Gráfico2"/>
+      <sheetName val="Gráfico3"/>
+      <sheetName val="Hoja2"/>
+      <sheetName val="INFORME"/>
+      <sheetName val="Region"/>
+      <sheetName val="VolumenVenta"/>
+      <sheetName val="Rubro"/>
+      <sheetName val="Trabajadores"/>
+      <sheetName val="Sexo"/>
+      <sheetName val="Certificacion"/>
+      <sheetName val="Premios"/>
+      <sheetName val="Sitio Web"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="N1" t="str">
+            <v>Web</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>1 a 9</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>NO TIENE CERTIFICACIÓN</v>
+          </cell>
+          <cell r="C2">
+            <v>0.67286245353159846</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>TIENE CERTIFICACIÓN</v>
+          </cell>
+          <cell r="C3">
+            <v>0.32713754646840149</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>PREMIOS</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>TIENE</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2856,7 +2963,7 @@
   <dimension ref="A4:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B22" sqref="B22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2869,683 +2976,683 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="14" thickBot="1">
-      <c r="B4" s="199"/>
-      <c r="C4" s="201" t="s">
+      <c r="B4" s="157"/>
+      <c r="C4" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="200"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
-      <c r="I4" s="199"/>
-      <c r="J4" s="199"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
     </row>
     <row r="5" spans="2:10" ht="16" thickBot="1">
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="174" t="s">
+      <c r="C5" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="175">
+      <c r="D5" s="135">
         <v>0</v>
       </c>
-      <c r="E5" s="175">
+      <c r="E5" s="135">
         <v>1</v>
       </c>
-      <c r="F5" s="175">
+      <c r="F5" s="135">
         <v>2</v>
       </c>
-      <c r="G5" s="175">
+      <c r="G5" s="135">
         <v>3</v>
       </c>
-      <c r="H5" s="175">
+      <c r="H5" s="135">
         <v>4</v>
       </c>
-      <c r="I5" s="175">
+      <c r="I5" s="135">
         <v>5</v>
       </c>
-      <c r="J5" s="175">
+      <c r="J5" s="135">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="13" thickBot="1">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="176" t="s">
+      <c r="C6" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="202"/>
-      <c r="E6" s="177">
+      <c r="D6" s="160"/>
+      <c r="E6" s="137">
         <f>INGRESOS!D18</f>
         <v>109500000</v>
       </c>
-      <c r="F6" s="177">
+      <c r="F6" s="137">
         <f>INGRESOS!F18</f>
         <v>156820000</v>
       </c>
-      <c r="G6" s="177">
+      <c r="G6" s="137">
         <f>INGRESOS!H18</f>
         <v>199978000</v>
       </c>
-      <c r="H6" s="177">
+      <c r="H6" s="137">
         <f>INGRESOS!J18</f>
         <v>255186169.23076925</v>
       </c>
-      <c r="I6" s="177">
+      <c r="I6" s="137">
         <f>INGRESOS!L18</f>
         <v>325852505.20710063</v>
       </c>
-      <c r="J6" s="177">
+      <c r="J6" s="137">
         <f>INGRESOS!N18</f>
         <v>416359623.17796993</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="13" thickBot="1">
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="176" t="s">
+      <c r="C7" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="203"/>
-      <c r="E7" s="177">
+      <c r="D7" s="161"/>
+      <c r="E7" s="137">
         <v>5000000</v>
       </c>
-      <c r="F7" s="177">
+      <c r="F7" s="137">
         <f>E7*1.3</f>
         <v>6500000</v>
       </c>
-      <c r="G7" s="177">
+      <c r="G7" s="137">
         <f>F7*1.3</f>
         <v>8450000</v>
       </c>
-      <c r="H7" s="177">
+      <c r="H7" s="137">
         <f>G7*1.3</f>
         <v>10985000</v>
       </c>
-      <c r="I7" s="177">
+      <c r="I7" s="137">
         <f>H7*1.3</f>
         <v>14280500</v>
       </c>
-      <c r="J7" s="177">
+      <c r="J7" s="137">
         <f>I7*1.3</f>
         <v>18564650</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="13" thickBot="1">
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="176" t="s">
+      <c r="C8" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="203"/>
-      <c r="E8" s="177">
+      <c r="D8" s="161"/>
+      <c r="E8" s="137">
         <f>-'CREACIÓN CURSOS'!E14</f>
         <v>-4400000</v>
       </c>
-      <c r="F8" s="177">
+      <c r="F8" s="137">
         <f>-'CREACIÓN CURSOS'!F14</f>
         <v>-4400000</v>
       </c>
-      <c r="G8" s="177">
+      <c r="G8" s="137">
         <f>-'CREACIÓN CURSOS'!G14</f>
         <v>-4400000</v>
       </c>
-      <c r="H8" s="177">
+      <c r="H8" s="137">
         <f>-'CREACIÓN CURSOS'!H14</f>
         <v>-4400000</v>
       </c>
-      <c r="I8" s="177">
+      <c r="I8" s="137">
         <f>-'CREACIÓN CURSOS'!I14</f>
         <v>-4400000</v>
       </c>
-      <c r="J8" s="177">
+      <c r="J8" s="137">
         <f>-'CREACIÓN CURSOS'!J14</f>
         <v>-4400000</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="13" thickBot="1">
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="176" t="s">
+      <c r="C9" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="203"/>
-      <c r="E9" s="177">
+      <c r="D9" s="161"/>
+      <c r="E9" s="137">
         <f>-INGRESOS!D18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-8212500.0000000009</v>
       </c>
-      <c r="F9" s="177">
+      <c r="F9" s="137">
         <f>-INGRESOS!F18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-11761500.000000002</v>
       </c>
-      <c r="G9" s="177">
+      <c r="G9" s="137">
         <f>-INGRESOS!H18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-14998350.000000002</v>
       </c>
-      <c r="H9" s="177">
+      <c r="H9" s="137">
         <f>-INGRESOS!J18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-19138962.692307696</v>
       </c>
-      <c r="I9" s="177">
+      <c r="I9" s="137">
         <f>-INGRESOS!L18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-24438937.890532549</v>
       </c>
-      <c r="J9" s="177">
+      <c r="J9" s="137">
         <f>-INGRESOS!N18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-31226971.73834775</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="13" thickBot="1">
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="203"/>
-      <c r="E10" s="177">
+      <c r="D10" s="161"/>
+      <c r="E10" s="137">
         <f>-'ESTRUCTURA DE COSTOS'!H8</f>
         <v>-113378600</v>
       </c>
-      <c r="F10" s="177">
+      <c r="F10" s="137">
         <f>-'ESTRUCTURA DE COSTOS'!I8</f>
         <v>-123847530.00000001</v>
       </c>
-      <c r="G10" s="177">
+      <c r="G10" s="137">
         <f>-'ESTRUCTURA DE COSTOS'!J8</f>
         <v>-135319906.50000003</v>
       </c>
-      <c r="H10" s="177">
+      <c r="H10" s="137">
         <f>-'ESTRUCTURA DE COSTOS'!K8</f>
         <v>-147893901.82500005</v>
       </c>
-      <c r="I10" s="177">
+      <c r="I10" s="137">
         <f>-'ESTRUCTURA DE COSTOS'!L8</f>
         <v>-161677396.91625005</v>
       </c>
-      <c r="J10" s="177">
+      <c r="J10" s="137">
         <f>-'ESTRUCTURA DE COSTOS'!M8</f>
         <v>-176788946.76206258</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="13" thickBot="1">
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="176" t="s">
+      <c r="C11" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="177">
+      <c r="D11" s="161"/>
+      <c r="E11" s="137">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="F11" s="177">
+      <c r="F11" s="137">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="G11" s="177">
+      <c r="G11" s="137">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="H11" s="177">
+      <c r="H11" s="137">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="I11" s="177">
+      <c r="I11" s="137">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="J11" s="177">
+      <c r="J11" s="137">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="13" thickBot="1">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="204"/>
-      <c r="E12" s="179">
+      <c r="D12" s="162"/>
+      <c r="E12" s="139">
         <f t="shared" ref="E12:J12" si="0">SUM(E6:E11)</f>
         <v>-12017766.666666666</v>
       </c>
-      <c r="F12" s="179">
+      <c r="F12" s="139">
         <f t="shared" si="0"/>
         <v>22784303.333333317</v>
       </c>
-      <c r="G12" s="179">
+      <c r="G12" s="139">
         <f t="shared" si="0"/>
         <v>53183076.833333306</v>
       </c>
-      <c r="H12" s="179">
+      <c r="H12" s="139">
         <f t="shared" si="0"/>
         <v>94211638.046794847</v>
       </c>
-      <c r="I12" s="179">
+      <c r="I12" s="139">
         <f t="shared" si="0"/>
         <v>149090003.73365137</v>
       </c>
-      <c r="J12" s="179">
+      <c r="J12" s="139">
         <f t="shared" si="0"/>
         <v>221981688.01089293</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="13" thickBot="1">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="203"/>
-      <c r="E13" s="177">
+      <c r="D13" s="161"/>
+      <c r="E13" s="137">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="F13" s="177">
+      <c r="F13" s="137">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="G13" s="177">
+      <c r="G13" s="137">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="H13" s="177">
+      <c r="H13" s="137">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="I13" s="177">
+      <c r="I13" s="137">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="J13" s="177">
+      <c r="J13" s="137">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="13" thickBot="1">
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="204"/>
-      <c r="E14" s="179">
+      <c r="D14" s="162"/>
+      <c r="E14" s="139">
         <f t="shared" ref="E14:J14" si="1">SUM(E12:E13)</f>
         <v>-14857091.532231411</v>
       </c>
-      <c r="F14" s="179">
+      <c r="F14" s="139">
         <f t="shared" si="1"/>
         <v>19944978.467768572</v>
       </c>
-      <c r="G14" s="179">
+      <c r="G14" s="139">
         <f t="shared" si="1"/>
         <v>50343751.967768557</v>
       </c>
-      <c r="H14" s="179">
+      <c r="H14" s="139">
         <f t="shared" si="1"/>
         <v>91372313.181230098</v>
       </c>
-      <c r="I14" s="179">
+      <c r="I14" s="139">
         <f t="shared" si="1"/>
         <v>146250678.86808664</v>
       </c>
-      <c r="J14" s="179">
+      <c r="J14" s="139">
         <f t="shared" si="1"/>
         <v>219142363.14532819</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="13" thickBot="1">
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="176" t="s">
+      <c r="C15" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="203"/>
-      <c r="E15" s="177">
+      <c r="D15" s="161"/>
+      <c r="E15" s="137">
         <f t="shared" ref="E15:J15" si="2">+IF(E14&gt;0,-(E14*0.17),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="177">
+      <c r="F15" s="137">
         <f t="shared" si="2"/>
         <v>-3390646.3395206574</v>
       </c>
-      <c r="G15" s="177">
+      <c r="G15" s="137">
         <f t="shared" si="2"/>
         <v>-8558437.8345206548</v>
       </c>
-      <c r="H15" s="177">
+      <c r="H15" s="137">
         <f t="shared" si="2"/>
         <v>-15533293.240809118</v>
       </c>
-      <c r="I15" s="177">
+      <c r="I15" s="137">
         <f t="shared" si="2"/>
         <v>-24862615.407574728</v>
       </c>
-      <c r="J15" s="177">
+      <c r="J15" s="137">
         <f t="shared" si="2"/>
         <v>-37254201.734705798</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="13" thickBot="1">
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="176" t="s">
+      <c r="C16" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="203"/>
-      <c r="E16" s="177">
+      <c r="D16" s="161"/>
+      <c r="E16" s="137">
         <f t="shared" ref="E16:J16" si="3">-(E11)</f>
         <v>526666.66666666663</v>
       </c>
-      <c r="F16" s="177">
+      <c r="F16" s="137">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="G16" s="177">
+      <c r="G16" s="137">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="H16" s="177">
+      <c r="H16" s="137">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="I16" s="177">
+      <c r="I16" s="137">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="J16" s="177">
+      <c r="J16" s="137">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="13" thickBot="1">
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="203"/>
-      <c r="E17" s="177">
+      <c r="D17" s="161"/>
+      <c r="E17" s="137">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="F17" s="177">
+      <c r="F17" s="137">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="G17" s="177">
+      <c r="G17" s="137">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="H17" s="177">
+      <c r="H17" s="137">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="I17" s="177">
+      <c r="I17" s="137">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="J17" s="177">
+      <c r="J17" s="137">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="13" thickBot="1">
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="176" t="s">
+      <c r="C18" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="205">
+      <c r="D18" s="163">
         <f>-INVERSION!D20</f>
         <v>-20610000</v>
       </c>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
     </row>
     <row r="19" spans="2:10" ht="13" thickBot="1">
-      <c r="B19" s="176"/>
-      <c r="C19" s="176" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="206">
+      <c r="D19" s="164">
         <f>'G. FINANCIERO'!C5</f>
         <v>12366000</v>
       </c>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="2:10" ht="13" thickBot="1">
-      <c r="B20" s="180" t="s">
+      <c r="B20" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="180" t="s">
+      <c r="C20" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="181">
+      <c r="D20" s="141">
         <f>SUM(D18:D19)</f>
         <v>-8244000</v>
       </c>
-      <c r="E20" s="182">
+      <c r="E20" s="142">
         <f t="shared" ref="E20:J20" si="4">SUM(E14:E19)</f>
         <v>-16391424.865564745</v>
       </c>
-      <c r="F20" s="182">
+      <c r="F20" s="142">
         <f t="shared" si="4"/>
         <v>15019998.794914581</v>
       </c>
-      <c r="G20" s="182">
+      <c r="G20" s="142">
         <f t="shared" si="4"/>
         <v>40250980.799914569</v>
       </c>
-      <c r="H20" s="182">
+      <c r="H20" s="142">
         <f t="shared" si="4"/>
         <v>74304686.607087657</v>
       </c>
-      <c r="I20" s="182">
+      <c r="I20" s="142">
         <f t="shared" si="4"/>
         <v>119853730.12717858</v>
       </c>
-      <c r="J20" s="182">
+      <c r="J20" s="142">
         <f t="shared" si="4"/>
         <v>180353828.07728904</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="13" thickBot="1">
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="184"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
     </row>
     <row r="22" spans="2:10" ht="13" customHeight="1" thickBot="1">
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="186"/>
-      <c r="D22" s="187">
+      <c r="C22" s="167"/>
+      <c r="D22" s="145">
         <f>NPV(D24,E20:J20)+D20</f>
         <v>195369906.18668318</v>
       </c>
-      <c r="E22" s="184"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="2:10" ht="13" customHeight="1" thickBot="1">
-      <c r="B23" s="185" t="s">
+      <c r="B23" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="186"/>
-      <c r="D23" s="198">
+      <c r="C23" s="167"/>
+      <c r="D23" s="156">
         <f>IRR(D20:J20)</f>
         <v>1.1222172349230157</v>
       </c>
-      <c r="E23" s="183"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="2:10" ht="13" customHeight="1" thickBot="1">
-      <c r="B24" s="185" t="s">
+      <c r="B24" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="185"/>
-      <c r="D24" s="198">
+      <c r="C24" s="166"/>
+      <c r="D24" s="156">
         <v>0.15</v>
       </c>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="134"/>
+      <c r="D27" s="165"/>
       <c r="E27" s="131">
         <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="165" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="134"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="117">
         <v>50000</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="134"/>
+      <c r="D29" s="165"/>
       <c r="E29" s="131">
         <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" thickBot="1">
-      <c r="C34" s="192" t="s">
+      <c r="C34" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="193" t="s">
+      <c r="D34" s="151" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13" thickBot="1">
-      <c r="C35" s="194">
+      <c r="C35" s="152">
         <v>0.05</v>
       </c>
-      <c r="D35" s="195">
+      <c r="D35" s="153">
         <v>12428476.569774456</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13" thickBot="1">
-      <c r="C36" s="194">
+      <c r="C36" s="152">
         <v>0.1</v>
       </c>
-      <c r="D36" s="195">
+      <c r="D36" s="153">
         <v>41001309.400372759</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13" thickBot="1">
-      <c r="C37" s="194">
+      <c r="C37" s="152">
         <v>0.15</v>
       </c>
-      <c r="D37" s="195">
+      <c r="D37" s="153">
         <v>73187535.701469153</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13" thickBot="1">
-      <c r="C38" s="194">
+      <c r="C38" s="152">
         <v>0.2</v>
       </c>
-      <c r="D38" s="195">
+      <c r="D38" s="153">
         <v>109367561.87008296</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13" thickBot="1">
       <c r="A39" s="122"/>
-      <c r="C39" s="194">
+      <c r="C39" s="152">
         <v>0.25</v>
       </c>
-      <c r="D39" s="195">
+      <c r="D39" s="153">
         <v>149949445.5219993</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13" thickBot="1">
-      <c r="C40" s="194">
+      <c r="C40" s="152">
         <v>0.3</v>
       </c>
-      <c r="D40" s="195">
+      <c r="D40" s="153">
         <v>195369906.18668318</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13" thickBot="1">
-      <c r="C41" s="194">
+      <c r="C41" s="152">
         <v>0.35</v>
       </c>
-      <c r="D41" s="195">
+      <c r="D41" s="153">
         <v>246095336.00219232</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13" thickBot="1">
-      <c r="C42" s="194">
+      <c r="C42" s="152">
         <v>0.4</v>
       </c>
-      <c r="D42" s="195">
+      <c r="D42" s="153">
         <v>302622810.41009074</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13" thickBot="1">
-      <c r="C43" s="194">
+      <c r="C43" s="152">
         <v>0.45</v>
       </c>
-      <c r="D43" s="195">
+      <c r="D43" s="153">
         <v>365481098.85036224</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="C44" s="196">
+      <c r="C44" s="154">
         <v>0.5</v>
       </c>
-      <c r="D44" s="197">
+      <c r="D44" s="155">
         <v>435231675.45632291</v>
       </c>
     </row>
@@ -3563,90 +3670,90 @@
     </row>
     <row r="48" spans="1:4" ht="13" thickBot="1"/>
     <row r="49" spans="3:4" ht="16" thickBot="1">
-      <c r="C49" s="175" t="s">
+      <c r="C49" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="135" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="13" thickBot="1">
-      <c r="C50" s="191">
+      <c r="C50" s="149">
         <v>25000</v>
       </c>
-      <c r="D50" s="191">
+      <c r="D50" s="149">
         <v>22321890.626882717</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="13" thickBot="1">
-      <c r="C51" s="191">
+      <c r="C51" s="149">
         <v>30000</v>
       </c>
-      <c r="D51" s="191">
+      <c r="D51" s="149">
         <v>57444256.890377134</v>
       </c>
     </row>
     <row r="52" spans="3:4" ht="13" thickBot="1">
-      <c r="C52" s="191">
+      <c r="C52" s="149">
         <v>35000</v>
       </c>
-      <c r="D52" s="191">
+      <c r="D52" s="149">
         <v>92566623.153871506</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="13" thickBot="1">
-      <c r="C53" s="191">
+      <c r="C53" s="149">
         <v>40000</v>
       </c>
-      <c r="D53" s="191">
+      <c r="D53" s="149">
         <v>126980069.68994012</v>
       </c>
     </row>
     <row r="54" spans="3:4" ht="13" thickBot="1">
-      <c r="C54" s="191">
+      <c r="C54" s="149">
         <v>45000</v>
       </c>
-      <c r="D54" s="191">
+      <c r="D54" s="149">
         <v>161174987.93831164</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="13" thickBot="1">
-      <c r="C55" s="191">
+      <c r="C55" s="149">
         <v>50000</v>
       </c>
-      <c r="D55" s="191">
+      <c r="D55" s="149">
         <v>195369906.18668318</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="13" thickBot="1">
-      <c r="C56" s="191">
+      <c r="C56" s="149">
         <v>55000</v>
       </c>
-      <c r="D56" s="191">
+      <c r="D56" s="149">
         <v>229564824.43505466</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="13" thickBot="1">
-      <c r="C57" s="191">
+      <c r="C57" s="149">
         <v>60000</v>
       </c>
-      <c r="D57" s="191">
+      <c r="D57" s="149">
         <v>263759742.68342614</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="13" thickBot="1">
-      <c r="C58" s="191">
+      <c r="C58" s="149">
         <v>65000</v>
       </c>
-      <c r="D58" s="191">
+      <c r="D58" s="149">
         <v>297689622.28873622</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="13" thickBot="1">
-      <c r="C59" s="191">
+      <c r="C59" s="149">
         <v>70000</v>
       </c>
-      <c r="D59" s="191">
+      <c r="D59" s="149">
         <v>331064105.75449902</v>
       </c>
     </row>
@@ -3664,90 +3771,90 @@
     </row>
     <row r="63" spans="3:4" ht="13" thickBot="1"/>
     <row r="64" spans="3:4" ht="16" thickBot="1">
-      <c r="C64" s="175" t="s">
+      <c r="C64" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="175" t="s">
+      <c r="D64" s="135" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="13" thickBot="1">
-      <c r="C65" s="190">
+      <c r="C65" s="148">
         <v>0.04</v>
       </c>
-      <c r="D65" s="191">
+      <c r="D65" s="149">
         <v>240326790.21024233</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="13" thickBot="1">
-      <c r="C66" s="190">
+      <c r="C66" s="148">
         <v>0.05</v>
       </c>
-      <c r="D66" s="191">
+      <c r="D66" s="149">
         <v>233274407.53094852</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="13" thickBot="1">
-      <c r="C67" s="190">
+      <c r="C67" s="148">
         <v>0.06</v>
       </c>
-      <c r="D67" s="191">
+      <c r="D67" s="149">
         <v>226050675.05015779</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="13" thickBot="1">
-      <c r="C68" s="190">
+      <c r="C68" s="148">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D68" s="191">
+      <c r="D68" s="149">
         <v>218652015.83958411</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="13" thickBot="1">
-      <c r="C69" s="190">
+      <c r="C69" s="148">
         <v>0.08</v>
       </c>
-      <c r="D69" s="191">
+      <c r="D69" s="149">
         <v>211074799.64564967</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="13" thickBot="1">
-      <c r="C70" s="190">
+      <c r="C70" s="148">
         <v>0.09</v>
       </c>
-      <c r="D70" s="191">
+      <c r="D70" s="149">
         <v>203315342.47611076</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="13" thickBot="1">
-      <c r="C71" s="190">
+      <c r="C71" s="148">
         <v>0.1</v>
       </c>
-      <c r="D71" s="191">
+      <c r="D71" s="149">
         <v>195369906.18668318</v>
       </c>
     </row>
     <row r="72" spans="3:4" ht="13" thickBot="1">
-      <c r="C72" s="190">
+      <c r="C72" s="148">
         <v>0.11</v>
       </c>
-      <c r="D72" s="191">
+      <c r="D72" s="149">
         <v>187234698.06766796</v>
       </c>
     </row>
     <row r="73" spans="3:4" ht="13" thickBot="1">
-      <c r="C73" s="190">
+      <c r="C73" s="148">
         <v>0.12</v>
       </c>
-      <c r="D73" s="191">
+      <c r="D73" s="149">
         <v>178905870.4305771</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="13" thickBot="1">
-      <c r="C74" s="190">
+      <c r="C74" s="148">
         <v>0.13</v>
       </c>
-      <c r="D74" s="191">
+      <c r="D74" s="149">
         <v>170379520.1947594</v>
       </c>
     </row>
@@ -3760,7 +3867,7 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3835,19 +3942,19 @@
   <sheetData>
     <row r="3" spans="2:4" ht="13" thickBot="1"/>
     <row r="4" spans="2:4" ht="13" thickBot="1">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="140"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="13" thickBot="1">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="138"/>
+      <c r="C5" s="171"/>
       <c r="D5" s="45"/>
     </row>
     <row r="6" spans="2:4">
@@ -3865,28 +3972,28 @@
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="2:4" ht="13" thickBot="1">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="141"/>
+      <c r="C8" s="174"/>
       <c r="D8" s="46">
         <v>5000000</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="13" thickBot="1">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="138"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="46">
         <v>2500000</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="13" thickBot="1">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="171"/>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="2:4">
@@ -3924,10 +4031,10 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="13" thickBot="1">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="138"/>
+      <c r="C14" s="171"/>
       <c r="D14" s="45"/>
     </row>
     <row r="15" spans="2:4">
@@ -3977,10 +4084,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="13" thickBot="1">
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="136"/>
+      <c r="C20" s="169"/>
       <c r="D20" s="47">
         <f>SUM(D5:D19)</f>
         <v>20610000</v>
@@ -3996,7 +4103,7 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -4071,30 +4178,30 @@
     <row r="4" spans="2:16" ht="13" thickBot="1">
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="154" t="s">
+      <c r="E4" s="191"/>
+      <c r="F4" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="155"/>
-      <c r="H4" s="156" t="s">
+      <c r="G4" s="190"/>
+      <c r="H4" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="154" t="s">
+      <c r="I4" s="191"/>
+      <c r="J4" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="155"/>
-      <c r="L4" s="156" t="s">
+      <c r="K4" s="190"/>
+      <c r="L4" s="191" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="156"/>
-      <c r="N4" s="154" t="s">
+      <c r="M4" s="191"/>
+      <c r="N4" s="189" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="155"/>
+      <c r="O4" s="190"/>
       <c r="P4" s="88"/>
     </row>
     <row r="5" spans="2:16" ht="13" thickBot="1">
@@ -4140,7 +4247,7 @@
     </row>
     <row r="6" spans="2:16" ht="13" thickBot="1">
       <c r="B6" s="88"/>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="179" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="116">
@@ -4189,42 +4296,42 @@
     </row>
     <row r="7" spans="2:16" ht="13" thickBot="1">
       <c r="B7" s="88"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="148">
+      <c r="C7" s="180"/>
+      <c r="D7" s="182">
         <f>D6*E6</f>
         <v>43200000</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="148">
+      <c r="E7" s="183"/>
+      <c r="F7" s="182">
         <f>F6*G6</f>
         <v>56160000</v>
       </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="153">
+      <c r="G7" s="184"/>
+      <c r="H7" s="183">
         <f>H6*I6</f>
         <v>69120000</v>
       </c>
-      <c r="I7" s="153"/>
-      <c r="J7" s="148">
+      <c r="I7" s="183"/>
+      <c r="J7" s="182">
         <f>J6*K6</f>
         <v>85070769.230769232</v>
       </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="153">
+      <c r="K7" s="184"/>
+      <c r="L7" s="183">
         <f>L6*M6</f>
         <v>104702485.2071006</v>
       </c>
-      <c r="M7" s="153"/>
-      <c r="N7" s="148">
+      <c r="M7" s="183"/>
+      <c r="N7" s="182">
         <f>N6*O6</f>
         <v>128864597.17796996</v>
       </c>
-      <c r="O7" s="149"/>
+      <c r="O7" s="184"/>
       <c r="P7" s="88"/>
     </row>
     <row r="8" spans="2:16" ht="13" thickBot="1">
       <c r="B8" s="88"/>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="179" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="93">
@@ -4273,42 +4380,42 @@
     </row>
     <row r="9" spans="2:16" ht="13" thickBot="1">
       <c r="B9" s="88"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="151">
+      <c r="C9" s="181"/>
+      <c r="D9" s="185">
         <f>D8*E8</f>
         <v>6300000</v>
       </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151">
+      <c r="E9" s="176"/>
+      <c r="F9" s="185">
         <f>F8*G8</f>
         <v>3290000</v>
       </c>
-      <c r="G9" s="152"/>
-      <c r="H9" s="150">
+      <c r="G9" s="192"/>
+      <c r="H9" s="176">
         <f>H8*I8</f>
         <v>4277000</v>
       </c>
-      <c r="I9" s="150"/>
-      <c r="J9" s="151">
+      <c r="I9" s="176"/>
+      <c r="J9" s="185">
         <f>J8*K8</f>
         <v>5560100.0000000019</v>
       </c>
-      <c r="K9" s="152"/>
-      <c r="L9" s="150">
+      <c r="K9" s="192"/>
+      <c r="L9" s="176">
         <f>L8*M8</f>
         <v>7228130</v>
       </c>
-      <c r="M9" s="150"/>
-      <c r="N9" s="151">
+      <c r="M9" s="176"/>
+      <c r="N9" s="185">
         <f>N8*O8</f>
         <v>9396569</v>
       </c>
-      <c r="O9" s="152"/>
+      <c r="O9" s="192"/>
       <c r="P9" s="88"/>
     </row>
     <row r="10" spans="2:16" ht="13" thickBot="1">
       <c r="B10" s="88"/>
-      <c r="C10" s="159" t="s">
+      <c r="C10" s="180" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="93">
@@ -4362,42 +4469,42 @@
     </row>
     <row r="11" spans="2:16" ht="13" thickBot="1">
       <c r="B11" s="88"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="148">
+      <c r="C11" s="180"/>
+      <c r="D11" s="182">
         <f>D10*E10</f>
         <v>60000000</v>
       </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="148">
+      <c r="E11" s="183"/>
+      <c r="F11" s="182">
         <f>F10*G10</f>
         <v>78000000</v>
       </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="153">
+      <c r="G11" s="184"/>
+      <c r="H11" s="183">
         <f>H10*I10</f>
         <v>101400000</v>
       </c>
-      <c r="I11" s="153"/>
-      <c r="J11" s="148">
+      <c r="I11" s="183"/>
+      <c r="J11" s="182">
         <f>J10*K10</f>
         <v>131820000.00000001</v>
       </c>
-      <c r="K11" s="149"/>
-      <c r="L11" s="153">
+      <c r="K11" s="184"/>
+      <c r="L11" s="183">
         <f>L10*M10</f>
         <v>171366000</v>
       </c>
-      <c r="M11" s="153"/>
-      <c r="N11" s="148">
+      <c r="M11" s="183"/>
+      <c r="N11" s="182">
         <f>N10*O10</f>
         <v>222775800</v>
       </c>
-      <c r="O11" s="149"/>
+      <c r="O11" s="184"/>
       <c r="P11" s="88"/>
     </row>
     <row r="12" spans="2:16" ht="13" thickBot="1">
       <c r="B12" s="88"/>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="179" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="93"/>
@@ -4446,42 +4553,42 @@
     </row>
     <row r="13" spans="2:16" ht="13" thickBot="1">
       <c r="B13" s="88"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="151">
+      <c r="C13" s="181"/>
+      <c r="D13" s="185">
         <f>D12*E12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="150"/>
-      <c r="F13" s="151">
+      <c r="E13" s="176"/>
+      <c r="F13" s="185">
         <f>F12*G12</f>
         <v>10920000</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="150">
+      <c r="G13" s="192"/>
+      <c r="H13" s="176">
         <f>H12*I12</f>
         <v>14196000</v>
       </c>
-      <c r="I13" s="150"/>
-      <c r="J13" s="151">
+      <c r="I13" s="176"/>
+      <c r="J13" s="185">
         <f>J12*K12</f>
         <v>18454800</v>
       </c>
-      <c r="K13" s="152"/>
-      <c r="L13" s="150">
+      <c r="K13" s="192"/>
+      <c r="L13" s="176">
         <f>L12*M12</f>
         <v>23991240</v>
       </c>
-      <c r="M13" s="150"/>
-      <c r="N13" s="151">
+      <c r="M13" s="176"/>
+      <c r="N13" s="185">
         <f>N12*O12</f>
         <v>31188612</v>
       </c>
-      <c r="O13" s="152"/>
+      <c r="O13" s="192"/>
       <c r="P13" s="88"/>
     </row>
     <row r="14" spans="2:16" ht="13" thickBot="1">
       <c r="B14" s="88"/>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="180" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="93"/>
@@ -4525,42 +4632,42 @@
     </row>
     <row r="15" spans="2:16" ht="13" thickBot="1">
       <c r="B15" s="88"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="148">
+      <c r="C15" s="180"/>
+      <c r="D15" s="182">
         <f>D14*E14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="148">
+      <c r="E15" s="183"/>
+      <c r="F15" s="182">
         <f>F14*G14</f>
         <v>1950000</v>
       </c>
-      <c r="G15" s="149"/>
-      <c r="H15" s="153">
+      <c r="G15" s="184"/>
+      <c r="H15" s="183">
         <f>H14*I14</f>
         <v>2535000</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="148">
+      <c r="I15" s="183"/>
+      <c r="J15" s="182">
         <f>J14*K14</f>
         <v>3295500</v>
       </c>
-      <c r="K15" s="149"/>
-      <c r="L15" s="153">
+      <c r="K15" s="184"/>
+      <c r="L15" s="183">
         <f>L14*M14</f>
         <v>4284150</v>
       </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="148">
+      <c r="M15" s="183"/>
+      <c r="N15" s="182">
         <f>N14*O14</f>
         <v>5569395</v>
       </c>
-      <c r="O15" s="149"/>
+      <c r="O15" s="184"/>
       <c r="P15" s="88"/>
     </row>
     <row r="16" spans="2:16" ht="13" thickBot="1">
       <c r="B16" s="88"/>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="179" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="93"/>
@@ -4604,37 +4711,37 @@
     </row>
     <row r="17" spans="2:16" ht="13" thickBot="1">
       <c r="B17" s="88"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="144">
+      <c r="C17" s="181"/>
+      <c r="D17" s="177">
         <f>D16*E16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="147"/>
-      <c r="F17" s="144">
+      <c r="E17" s="178"/>
+      <c r="F17" s="177">
         <f>F16*G16</f>
         <v>6500000</v>
       </c>
-      <c r="G17" s="145"/>
-      <c r="H17" s="147">
+      <c r="G17" s="193"/>
+      <c r="H17" s="178">
         <f>H16*I16</f>
         <v>8450000</v>
       </c>
-      <c r="I17" s="147"/>
-      <c r="J17" s="144">
+      <c r="I17" s="178"/>
+      <c r="J17" s="177">
         <f>J16*K16</f>
         <v>10985000</v>
       </c>
-      <c r="K17" s="145"/>
-      <c r="L17" s="147">
+      <c r="K17" s="193"/>
+      <c r="L17" s="178">
         <f>L16*M16</f>
         <v>14280500</v>
       </c>
-      <c r="M17" s="147"/>
-      <c r="N17" s="144">
+      <c r="M17" s="178"/>
+      <c r="N17" s="177">
         <f>N16*O16</f>
         <v>18564650</v>
       </c>
-      <c r="O17" s="145"/>
+      <c r="O17" s="193"/>
       <c r="P17" s="88"/>
     </row>
     <row r="18" spans="2:16" ht="13" thickBot="1">
@@ -4642,36 +4749,36 @@
       <c r="C18" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="142">
+      <c r="D18" s="186">
         <f>D7+D9+D11+D13+D15+D17</f>
         <v>109500000</v>
       </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="142">
+      <c r="E18" s="187"/>
+      <c r="F18" s="186">
         <f>F7+F9+F11+F13+F15+F17</f>
         <v>156820000</v>
       </c>
-      <c r="G18" s="143"/>
-      <c r="H18" s="146">
+      <c r="G18" s="188"/>
+      <c r="H18" s="187">
         <f>H7+H9+H11+H13+H15+H17</f>
         <v>199978000</v>
       </c>
-      <c r="I18" s="146"/>
-      <c r="J18" s="142">
+      <c r="I18" s="187"/>
+      <c r="J18" s="186">
         <f>J7+J9+J11+J13+J15+J17</f>
         <v>255186169.23076925</v>
       </c>
-      <c r="K18" s="143"/>
-      <c r="L18" s="146">
+      <c r="K18" s="188"/>
+      <c r="L18" s="187">
         <f>L7+L9+L11+L13+L15+L17</f>
         <v>325852505.20710063</v>
       </c>
-      <c r="M18" s="146"/>
-      <c r="N18" s="142">
+      <c r="M18" s="187"/>
+      <c r="N18" s="186">
         <f>N7+N9+N11+N13+N15+N17</f>
         <v>416359623.17796993</v>
       </c>
-      <c r="O18" s="143"/>
+      <c r="O18" s="188"/>
       <c r="P18" s="88"/>
     </row>
     <row r="19" spans="2:16">
@@ -4708,12 +4815,12 @@
       <c r="P20" s="88"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="C21" s="157" t="s">
+      <c r="C21" s="175" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="C22" s="157"/>
+      <c r="C22" s="175"/>
     </row>
     <row r="23" spans="2:16">
       <c r="C23" s="117">
@@ -4748,6 +4855,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="D17:E17"/>
@@ -4764,47 +4910,8 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -4868,10 +4975,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="88"/>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="165"/>
+      <c r="C4" s="204"/>
       <c r="D4" s="6">
         <v>600000</v>
       </c>
@@ -4883,10 +4990,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="88"/>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="163"/>
+      <c r="C5" s="199"/>
       <c r="D5" s="4">
         <f>IF('HW y SW'!C5=0,100000,0)</f>
         <v>0</v>
@@ -4917,10 +5024,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="88"/>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="163"/>
+      <c r="C6" s="199"/>
       <c r="D6" s="4">
         <f>PERSONAL!E12</f>
         <v>8000000</v>
@@ -4959,10 +5066,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="88"/>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="163"/>
+      <c r="C7" s="199"/>
       <c r="D7" s="4">
         <v>100000</v>
       </c>
@@ -5000,10 +5107,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="88"/>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="163"/>
+      <c r="C8" s="199"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>13000</v>
@@ -5038,10 +5145,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="88"/>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="163"/>
+      <c r="C9" s="199"/>
       <c r="D9" s="4">
         <v>50000</v>
       </c>
@@ -5053,10 +5160,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="88"/>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="198" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="163"/>
+      <c r="C10" s="199"/>
       <c r="D10" s="4">
         <v>45000</v>
       </c>
@@ -5064,10 +5171,10 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="G10" s="161" t="s">
+      <c r="G10" s="202" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="161"/>
+      <c r="H10" s="202"/>
       <c r="I10" s="130">
         <f>'FLUJO CAJA PRINCIPAL'!E29</f>
         <v>0.1</v>
@@ -5075,10 +5182,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="88"/>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="163"/>
+      <c r="C11" s="199"/>
       <c r="D11" s="4">
         <v>45000</v>
       </c>
@@ -5086,20 +5193,20 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="G11" s="161" t="s">
+      <c r="G11" s="202" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="161"/>
+      <c r="H11" s="202"/>
       <c r="I11" s="130">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="88"/>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="163"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="4">
         <f>'CREACIÓN CURSOS'!D9</f>
         <v>1100000</v>
@@ -5112,10 +5219,10 @@
     </row>
     <row r="13" spans="1:13" ht="13" thickBot="1">
       <c r="A13" s="88"/>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="168"/>
+      <c r="C13" s="196"/>
       <c r="D13" s="5">
         <f>SUM(D4:D12)*0.02</f>
         <v>198800</v>
@@ -5129,10 +5236,10 @@
     <row r="14" spans="1:13" ht="13" thickBot="1">
       <c r="A14" s="88"/>
       <c r="B14" s="88"/>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="169"/>
+      <c r="D14" s="197"/>
       <c r="E14" s="11">
         <f>SUM(E4:E13)</f>
         <v>113378600</v>
@@ -5157,10 +5264,10 @@
     </row>
     <row r="17" spans="1:7" ht="13" thickBot="1">
       <c r="A17" s="88"/>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="171"/>
+      <c r="C17" s="201"/>
       <c r="D17" s="30" t="s">
         <v>61</v>
       </c>
@@ -5181,10 +5288,10 @@
     </row>
     <row r="19" spans="1:7" ht="13" thickBot="1">
       <c r="A19" s="88"/>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="167"/>
+      <c r="C19" s="195"/>
       <c r="D19" s="87">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5217,12 +5324,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B9:C9"/>
@@ -5232,8 +5333,14 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -5308,7 +5415,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -5559,7 +5666,7 @@
       <c r="C18" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -5676,7 +5783,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -5719,10 +5826,10 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="13" thickBot="1">
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="172"/>
+      <c r="E2" s="205"/>
     </row>
     <row r="3" spans="2:10" ht="13" thickBot="1">
       <c r="B3" s="8" t="s">
@@ -5888,7 +5995,7 @@
   <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -5916,10 +6023,10 @@
   <sheetData>
     <row r="3" spans="3:10" ht="13" thickBot="1"/>
     <row r="4" spans="3:10" ht="13" thickBot="1">
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="206" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="169"/>
+      <c r="D4" s="197"/>
     </row>
     <row r="5" spans="3:10" ht="13" thickBot="1">
       <c r="C5" s="27" t="s">
@@ -6052,7 +6159,7 @@
   <mergeCells count="1">
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>

--- a/FLUJO.xlsx
+++ b/FLUJO.xlsx
@@ -18,9 +18,6 @@
     <sheet name="CREACIÓN CURSOS" sheetId="5" r:id="rId9"/>
     <sheet name="Plan de Marketing" sheetId="11" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -442,8 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0"/>
@@ -452,17 +448,10 @@
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1101,92 +1090,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1195,25 +1174,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1249,85 +1228,85 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1343,58 +1322,58 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1407,215 +1386,215 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="12" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="10" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="61">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
@@ -1645,10 +1624,6 @@
     <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
@@ -1678,14 +1653,8 @@
     <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Millares [0] 2" xfId="70"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="69"/>
     <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1859,11 +1828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2063062728"/>
-        <c:axId val="2063065272"/>
+        <c:axId val="2047548104"/>
+        <c:axId val="2047550616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2063062728"/>
+        <c:axId val="2047548104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063065272"/>
+        <c:crossAx val="2047550616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1881,7 +1850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063065272"/>
+        <c:axId val="2047550616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1905,7 +1874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063062728"/>
+        <c:crossAx val="2047548104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2096,11 +2065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2063156648"/>
-        <c:axId val="2063159592"/>
+        <c:axId val="2047631912"/>
+        <c:axId val="2047634856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2063156648"/>
+        <c:axId val="2047631912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063159592"/>
+        <c:crossAx val="2047634856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2118,7 +2087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063159592"/>
+        <c:axId val="2047634856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2142,7 +2111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063156648"/>
+        <c:crossAx val="2047631912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2333,11 +2302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2063188584"/>
-        <c:axId val="2063191528"/>
+        <c:axId val="2047663656"/>
+        <c:axId val="2047666600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2063188584"/>
+        <c:axId val="2047663656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063191528"/>
+        <c:crossAx val="2047666600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2355,7 +2324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063191528"/>
+        <c:axId val="2047666600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2358,7 @@
             <a:prstDash val="sysDot"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2063188584"/>
+        <c:crossAx val="2047663656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2597,82 +2566,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Gráfico2"/>
-      <sheetName val="Gráfico3"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="INFORME"/>
-      <sheetName val="Region"/>
-      <sheetName val="VolumenVenta"/>
-      <sheetName val="Rubro"/>
-      <sheetName val="Trabajadores"/>
-      <sheetName val="Sexo"/>
-      <sheetName val="Certificacion"/>
-      <sheetName val="Premios"/>
-      <sheetName val="Sitio Web"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="N1" t="str">
-            <v>Web</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>1 a 9</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>NO TIENE CERTIFICACIÓN</v>
-          </cell>
-          <cell r="C2">
-            <v>0.67286245353159846</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>TIENE CERTIFICACIÓN</v>
-          </cell>
-          <cell r="C3">
-            <v>0.32713754646840149</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>PREMIOS</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>TIENE</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2963,7 +2856,7 @@
   <dimension ref="A4:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:D24"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2976,683 +2869,683 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="14" thickBot="1">
-      <c r="B4" s="157"/>
-      <c r="C4" s="159" t="s">
+      <c r="B4" s="199"/>
+      <c r="C4" s="201" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
+      <c r="I4" s="199"/>
+      <c r="J4" s="199"/>
     </row>
     <row r="5" spans="2:10" ht="16" thickBot="1">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="135">
+      <c r="D5" s="175">
         <v>0</v>
       </c>
-      <c r="E5" s="135">
+      <c r="E5" s="175">
         <v>1</v>
       </c>
-      <c r="F5" s="135">
+      <c r="F5" s="175">
         <v>2</v>
       </c>
-      <c r="G5" s="135">
+      <c r="G5" s="175">
         <v>3</v>
       </c>
-      <c r="H5" s="135">
+      <c r="H5" s="175">
         <v>4</v>
       </c>
-      <c r="I5" s="135">
+      <c r="I5" s="175">
         <v>5</v>
       </c>
-      <c r="J5" s="135">
+      <c r="J5" s="175">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="13" thickBot="1">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="137">
+      <c r="D6" s="202"/>
+      <c r="E6" s="177">
         <f>INGRESOS!D18</f>
         <v>109500000</v>
       </c>
-      <c r="F6" s="137">
+      <c r="F6" s="177">
         <f>INGRESOS!F18</f>
         <v>156820000</v>
       </c>
-      <c r="G6" s="137">
+      <c r="G6" s="177">
         <f>INGRESOS!H18</f>
         <v>199978000</v>
       </c>
-      <c r="H6" s="137">
+      <c r="H6" s="177">
         <f>INGRESOS!J18</f>
         <v>255186169.23076925</v>
       </c>
-      <c r="I6" s="137">
+      <c r="I6" s="177">
         <f>INGRESOS!L18</f>
         <v>325852505.20710063</v>
       </c>
-      <c r="J6" s="137">
+      <c r="J6" s="177">
         <f>INGRESOS!N18</f>
         <v>416359623.17796993</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="13" thickBot="1">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="161"/>
-      <c r="E7" s="137">
+      <c r="D7" s="203"/>
+      <c r="E7" s="177">
         <v>5000000</v>
       </c>
-      <c r="F7" s="137">
+      <c r="F7" s="177">
         <f>E7*1.3</f>
         <v>6500000</v>
       </c>
-      <c r="G7" s="137">
+      <c r="G7" s="177">
         <f>F7*1.3</f>
         <v>8450000</v>
       </c>
-      <c r="H7" s="137">
+      <c r="H7" s="177">
         <f>G7*1.3</f>
         <v>10985000</v>
       </c>
-      <c r="I7" s="137">
+      <c r="I7" s="177">
         <f>H7*1.3</f>
         <v>14280500</v>
       </c>
-      <c r="J7" s="137">
+      <c r="J7" s="177">
         <f>I7*1.3</f>
         <v>18564650</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="13" thickBot="1">
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="137">
+      <c r="D8" s="203"/>
+      <c r="E8" s="177">
         <f>-'CREACIÓN CURSOS'!E14</f>
         <v>-4400000</v>
       </c>
-      <c r="F8" s="137">
+      <c r="F8" s="177">
         <f>-'CREACIÓN CURSOS'!F14</f>
         <v>-4400000</v>
       </c>
-      <c r="G8" s="137">
+      <c r="G8" s="177">
         <f>-'CREACIÓN CURSOS'!G14</f>
         <v>-4400000</v>
       </c>
-      <c r="H8" s="137">
+      <c r="H8" s="177">
         <f>-'CREACIÓN CURSOS'!H14</f>
         <v>-4400000</v>
       </c>
-      <c r="I8" s="137">
+      <c r="I8" s="177">
         <f>-'CREACIÓN CURSOS'!I14</f>
         <v>-4400000</v>
       </c>
-      <c r="J8" s="137">
+      <c r="J8" s="177">
         <f>-'CREACIÓN CURSOS'!J14</f>
         <v>-4400000</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="13" thickBot="1">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="137">
+      <c r="D9" s="203"/>
+      <c r="E9" s="177">
         <f>-INGRESOS!D18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-8212500.0000000009</v>
       </c>
-      <c r="F9" s="137">
+      <c r="F9" s="177">
         <f>-INGRESOS!F18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-11761500.000000002</v>
       </c>
-      <c r="G9" s="137">
+      <c r="G9" s="177">
         <f>-INGRESOS!H18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-14998350.000000002</v>
       </c>
-      <c r="H9" s="137">
+      <c r="H9" s="177">
         <f>-INGRESOS!J18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-19138962.692307696</v>
       </c>
-      <c r="I9" s="137">
+      <c r="I9" s="177">
         <f>-INGRESOS!L18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-24438937.890532549</v>
       </c>
-      <c r="J9" s="137">
+      <c r="J9" s="177">
         <f>-INGRESOS!N18*('ESTRUCTURA DE COSTOS'!$D$18+'ESTRUCTURA DE COSTOS'!$D$19)</f>
         <v>-31226971.73834775</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="13" thickBot="1">
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="137">
+      <c r="D10" s="203"/>
+      <c r="E10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!H8</f>
         <v>-113378600</v>
       </c>
-      <c r="F10" s="137">
+      <c r="F10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!I8</f>
         <v>-123847530.00000001</v>
       </c>
-      <c r="G10" s="137">
+      <c r="G10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!J8</f>
         <v>-135319906.50000003</v>
       </c>
-      <c r="H10" s="137">
+      <c r="H10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!K8</f>
         <v>-147893901.82500005</v>
       </c>
-      <c r="I10" s="137">
+      <c r="I10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!L8</f>
         <v>-161677396.91625005</v>
       </c>
-      <c r="J10" s="137">
+      <c r="J10" s="177">
         <f>-'ESTRUCTURA DE COSTOS'!M8</f>
         <v>-176788946.76206258</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="13" thickBot="1">
-      <c r="B11" s="136" t="s">
+      <c r="B11" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="137">
+      <c r="D11" s="203"/>
+      <c r="E11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="F11" s="137">
+      <c r="F11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="G11" s="137">
+      <c r="G11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="H11" s="137">
+      <c r="H11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="I11" s="137">
+      <c r="I11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
-      <c r="J11" s="137">
+      <c r="J11" s="177">
         <f>-DEPRECIACION!$G$9</f>
         <v>-526666.66666666663</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="13" thickBot="1">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="162"/>
-      <c r="E12" s="139">
+      <c r="D12" s="204"/>
+      <c r="E12" s="179">
         <f t="shared" ref="E12:J12" si="0">SUM(E6:E11)</f>
         <v>-12017766.666666666</v>
       </c>
-      <c r="F12" s="139">
+      <c r="F12" s="179">
         <f t="shared" si="0"/>
         <v>22784303.333333317</v>
       </c>
-      <c r="G12" s="139">
+      <c r="G12" s="179">
         <f t="shared" si="0"/>
         <v>53183076.833333306</v>
       </c>
-      <c r="H12" s="139">
+      <c r="H12" s="179">
         <f t="shared" si="0"/>
         <v>94211638.046794847</v>
       </c>
-      <c r="I12" s="139">
+      <c r="I12" s="179">
         <f t="shared" si="0"/>
         <v>149090003.73365137</v>
       </c>
-      <c r="J12" s="139">
+      <c r="J12" s="179">
         <f t="shared" si="0"/>
         <v>221981688.01089293</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="13" thickBot="1">
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="137">
+      <c r="D13" s="203"/>
+      <c r="E13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="F13" s="137">
+      <c r="F13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="G13" s="137">
+      <c r="G13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="H13" s="137">
+      <c r="H13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="I13" s="137">
+      <c r="I13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
-      <c r="J13" s="137">
+      <c r="J13" s="177">
         <f>'G. FINANCIERO'!$E$5</f>
         <v>-2839324.8655647454</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="13" thickBot="1">
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="178" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="162"/>
-      <c r="E14" s="139">
+      <c r="D14" s="204"/>
+      <c r="E14" s="179">
         <f t="shared" ref="E14:J14" si="1">SUM(E12:E13)</f>
         <v>-14857091.532231411</v>
       </c>
-      <c r="F14" s="139">
+      <c r="F14" s="179">
         <f t="shared" si="1"/>
         <v>19944978.467768572</v>
       </c>
-      <c r="G14" s="139">
+      <c r="G14" s="179">
         <f t="shared" si="1"/>
         <v>50343751.967768557</v>
       </c>
-      <c r="H14" s="139">
+      <c r="H14" s="179">
         <f t="shared" si="1"/>
         <v>91372313.181230098</v>
       </c>
-      <c r="I14" s="139">
+      <c r="I14" s="179">
         <f t="shared" si="1"/>
         <v>146250678.86808664</v>
       </c>
-      <c r="J14" s="139">
+      <c r="J14" s="179">
         <f t="shared" si="1"/>
         <v>219142363.14532819</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="13" thickBot="1">
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="137">
+      <c r="D15" s="203"/>
+      <c r="E15" s="177">
         <f t="shared" ref="E15:J15" si="2">+IF(E14&gt;0,-(E14*0.17),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="137">
+      <c r="F15" s="177">
         <f t="shared" si="2"/>
         <v>-3390646.3395206574</v>
       </c>
-      <c r="G15" s="137">
+      <c r="G15" s="177">
         <f t="shared" si="2"/>
         <v>-8558437.8345206548</v>
       </c>
-      <c r="H15" s="137">
+      <c r="H15" s="177">
         <f t="shared" si="2"/>
         <v>-15533293.240809118</v>
       </c>
-      <c r="I15" s="137">
+      <c r="I15" s="177">
         <f t="shared" si="2"/>
         <v>-24862615.407574728</v>
       </c>
-      <c r="J15" s="137">
+      <c r="J15" s="177">
         <f t="shared" si="2"/>
         <v>-37254201.734705798</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="13" thickBot="1">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="137">
+      <c r="D16" s="203"/>
+      <c r="E16" s="177">
         <f t="shared" ref="E16:J16" si="3">-(E11)</f>
         <v>526666.66666666663</v>
       </c>
-      <c r="F16" s="137">
+      <c r="F16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="G16" s="137">
+      <c r="G16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="H16" s="137">
+      <c r="H16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="I16" s="137">
+      <c r="I16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
-      <c r="J16" s="137">
+      <c r="J16" s="177">
         <f t="shared" si="3"/>
         <v>526666.66666666663</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="13" thickBot="1">
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="137">
+      <c r="D17" s="203"/>
+      <c r="E17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="F17" s="137">
+      <c r="F17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="G17" s="137">
+      <c r="G17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="H17" s="137">
+      <c r="H17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="I17" s="137">
+      <c r="I17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
-      <c r="J17" s="137">
+      <c r="J17" s="177">
         <f>-'G. FINANCIERO'!$C$7</f>
         <v>-2061000</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="13" thickBot="1">
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="163">
+      <c r="D18" s="205">
         <f>-INVERSION!D20</f>
         <v>-20610000</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
     </row>
     <row r="19" spans="2:10" ht="13" thickBot="1">
-      <c r="B19" s="136"/>
-      <c r="C19" s="136" t="s">
+      <c r="B19" s="176"/>
+      <c r="C19" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="164">
+      <c r="D19" s="206">
         <f>'G. FINANCIERO'!C5</f>
         <v>12366000</v>
       </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
     </row>
     <row r="20" spans="2:10" ht="13" thickBot="1">
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="141">
+      <c r="D20" s="181">
         <f>SUM(D18:D19)</f>
         <v>-8244000</v>
       </c>
-      <c r="E20" s="142">
+      <c r="E20" s="182">
         <f t="shared" ref="E20:J20" si="4">SUM(E14:E19)</f>
         <v>-16391424.865564745</v>
       </c>
-      <c r="F20" s="142">
+      <c r="F20" s="182">
         <f t="shared" si="4"/>
         <v>15019998.794914581</v>
       </c>
-      <c r="G20" s="142">
+      <c r="G20" s="182">
         <f t="shared" si="4"/>
         <v>40250980.799914569</v>
       </c>
-      <c r="H20" s="142">
+      <c r="H20" s="182">
         <f t="shared" si="4"/>
         <v>74304686.607087657</v>
       </c>
-      <c r="I20" s="142">
+      <c r="I20" s="182">
         <f t="shared" si="4"/>
         <v>119853730.12717858</v>
       </c>
-      <c r="J20" s="142">
+      <c r="J20" s="182">
         <f t="shared" si="4"/>
         <v>180353828.07728904</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="13" thickBot="1">
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="184"/>
     </row>
     <row r="22" spans="2:10" ht="13" customHeight="1" thickBot="1">
-      <c r="B22" s="166" t="s">
+      <c r="B22" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="145">
+      <c r="C22" s="186"/>
+      <c r="D22" s="187">
         <f>NPV(D24,E20:J20)+D20</f>
         <v>195369906.18668318</v>
       </c>
-      <c r="E22" s="144"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
     </row>
     <row r="23" spans="2:10" ht="13" customHeight="1" thickBot="1">
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="167"/>
-      <c r="D23" s="156">
+      <c r="C23" s="186"/>
+      <c r="D23" s="198">
         <f>IRR(D20:J20)</f>
         <v>1.1222172349230157</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
     </row>
     <row r="24" spans="2:10" ht="13" customHeight="1" thickBot="1">
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="156">
+      <c r="C24" s="185"/>
+      <c r="D24" s="198">
         <v>0.15</v>
       </c>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="165"/>
+      <c r="D27" s="134"/>
       <c r="E27" s="131">
         <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="C28" s="165" t="s">
+      <c r="C28" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="165"/>
+      <c r="D28" s="134"/>
       <c r="E28" s="117">
         <v>50000</v>
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="C29" s="165" t="s">
+      <c r="C29" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="165"/>
+      <c r="D29" s="134"/>
       <c r="E29" s="131">
         <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" thickBot="1">
-      <c r="C34" s="150" t="s">
+      <c r="C34" s="192" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="151" t="s">
+      <c r="D34" s="193" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13" thickBot="1">
-      <c r="C35" s="152">
+      <c r="C35" s="194">
         <v>0.05</v>
       </c>
-      <c r="D35" s="153">
+      <c r="D35" s="195">
         <v>12428476.569774456</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13" thickBot="1">
-      <c r="C36" s="152">
+      <c r="C36" s="194">
         <v>0.1</v>
       </c>
-      <c r="D36" s="153">
+      <c r="D36" s="195">
         <v>41001309.400372759</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13" thickBot="1">
-      <c r="C37" s="152">
+      <c r="C37" s="194">
         <v>0.15</v>
       </c>
-      <c r="D37" s="153">
+      <c r="D37" s="195">
         <v>73187535.701469153</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13" thickBot="1">
-      <c r="C38" s="152">
+      <c r="C38" s="194">
         <v>0.2</v>
       </c>
-      <c r="D38" s="153">
+      <c r="D38" s="195">
         <v>109367561.87008296</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13" thickBot="1">
       <c r="A39" s="122"/>
-      <c r="C39" s="152">
+      <c r="C39" s="194">
         <v>0.25</v>
       </c>
-      <c r="D39" s="153">
+      <c r="D39" s="195">
         <v>149949445.5219993</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13" thickBot="1">
-      <c r="C40" s="152">
+      <c r="C40" s="194">
         <v>0.3</v>
       </c>
-      <c r="D40" s="153">
+      <c r="D40" s="195">
         <v>195369906.18668318</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13" thickBot="1">
-      <c r="C41" s="152">
+      <c r="C41" s="194">
         <v>0.35</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="195">
         <v>246095336.00219232</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13" thickBot="1">
-      <c r="C42" s="152">
+      <c r="C42" s="194">
         <v>0.4</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="195">
         <v>302622810.41009074</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13" thickBot="1">
-      <c r="C43" s="152">
+      <c r="C43" s="194">
         <v>0.45</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="195">
         <v>365481098.85036224</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="C44" s="154">
+      <c r="C44" s="196">
         <v>0.5</v>
       </c>
-      <c r="D44" s="155">
+      <c r="D44" s="197">
         <v>435231675.45632291</v>
       </c>
     </row>
@@ -3670,90 +3563,90 @@
     </row>
     <row r="48" spans="1:4" ht="13" thickBot="1"/>
     <row r="49" spans="3:4" ht="16" thickBot="1">
-      <c r="C49" s="135" t="s">
+      <c r="C49" s="175" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="135" t="s">
+      <c r="D49" s="175" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="50" spans="3:4" ht="13" thickBot="1">
-      <c r="C50" s="149">
+      <c r="C50" s="191">
         <v>25000</v>
       </c>
-      <c r="D50" s="149">
+      <c r="D50" s="191">
         <v>22321890.626882717</v>
       </c>
     </row>
     <row r="51" spans="3:4" ht="13" thickBot="1">
-      <c r="C51" s="149">
+      <c r="C51" s="191">
         <v>30000</v>
       </c>
-      <c r="D51" s="149">
+      <c r="D51" s="191">
         <v>57444256.890377134</v>
       </c>
     </row>
     <row r="52" spans="3:4" ht="13" thickBot="1">
-      <c r="C52" s="149">
+      <c r="C52" s="191">
         <v>35000</v>
       </c>
-      <c r="D52" s="149">
+      <c r="D52" s="191">
         <v>92566623.153871506</v>
       </c>
     </row>
     <row r="53" spans="3:4" ht="13" thickBot="1">
-      <c r="C53" s="149">
+      <c r="C53" s="191">
         <v>40000</v>
       </c>
-      <c r="D53" s="149">
+      <c r="D53" s="191">
         <v>126980069.68994012</v>
       </c>
     </row>
     <row r="54" spans="3:4" ht="13" thickBot="1">
-      <c r="C54" s="149">
+      <c r="C54" s="191">
         <v>45000</v>
       </c>
-      <c r="D54" s="149">
+      <c r="D54" s="191">
         <v>161174987.93831164</v>
       </c>
     </row>
     <row r="55" spans="3:4" ht="13" thickBot="1">
-      <c r="C55" s="149">
+      <c r="C55" s="191">
         <v>50000</v>
       </c>
-      <c r="D55" s="149">
+      <c r="D55" s="191">
         <v>195369906.18668318</v>
       </c>
     </row>
     <row r="56" spans="3:4" ht="13" thickBot="1">
-      <c r="C56" s="149">
+      <c r="C56" s="191">
         <v>55000</v>
       </c>
-      <c r="D56" s="149">
+      <c r="D56" s="191">
         <v>229564824.43505466</v>
       </c>
     </row>
     <row r="57" spans="3:4" ht="13" thickBot="1">
-      <c r="C57" s="149">
+      <c r="C57" s="191">
         <v>60000</v>
       </c>
-      <c r="D57" s="149">
+      <c r="D57" s="191">
         <v>263759742.68342614</v>
       </c>
     </row>
     <row r="58" spans="3:4" ht="13" thickBot="1">
-      <c r="C58" s="149">
+      <c r="C58" s="191">
         <v>65000</v>
       </c>
-      <c r="D58" s="149">
+      <c r="D58" s="191">
         <v>297689622.28873622</v>
       </c>
     </row>
     <row r="59" spans="3:4" ht="13" thickBot="1">
-      <c r="C59" s="149">
+      <c r="C59" s="191">
         <v>70000</v>
       </c>
-      <c r="D59" s="149">
+      <c r="D59" s="191">
         <v>331064105.75449902</v>
       </c>
     </row>
@@ -3771,90 +3664,90 @@
     </row>
     <row r="63" spans="3:4" ht="13" thickBot="1"/>
     <row r="64" spans="3:4" ht="16" thickBot="1">
-      <c r="C64" s="135" t="s">
+      <c r="C64" s="175" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="135" t="s">
+      <c r="D64" s="175" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="3:4" ht="13" thickBot="1">
-      <c r="C65" s="148">
+      <c r="C65" s="190">
         <v>0.04</v>
       </c>
-      <c r="D65" s="149">
+      <c r="D65" s="191">
         <v>240326790.21024233</v>
       </c>
     </row>
     <row r="66" spans="3:4" ht="13" thickBot="1">
-      <c r="C66" s="148">
+      <c r="C66" s="190">
         <v>0.05</v>
       </c>
-      <c r="D66" s="149">
+      <c r="D66" s="191">
         <v>233274407.53094852</v>
       </c>
     </row>
     <row r="67" spans="3:4" ht="13" thickBot="1">
-      <c r="C67" s="148">
+      <c r="C67" s="190">
         <v>0.06</v>
       </c>
-      <c r="D67" s="149">
+      <c r="D67" s="191">
         <v>226050675.05015779</v>
       </c>
     </row>
     <row r="68" spans="3:4" ht="13" thickBot="1">
-      <c r="C68" s="148">
+      <c r="C68" s="190">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D68" s="149">
+      <c r="D68" s="191">
         <v>218652015.83958411</v>
       </c>
     </row>
     <row r="69" spans="3:4" ht="13" thickBot="1">
-      <c r="C69" s="148">
+      <c r="C69" s="190">
         <v>0.08</v>
       </c>
-      <c r="D69" s="149">
+      <c r="D69" s="191">
         <v>211074799.64564967</v>
       </c>
     </row>
     <row r="70" spans="3:4" ht="13" thickBot="1">
-      <c r="C70" s="148">
+      <c r="C70" s="190">
         <v>0.09</v>
       </c>
-      <c r="D70" s="149">
+      <c r="D70" s="191">
         <v>203315342.47611076</v>
       </c>
     </row>
     <row r="71" spans="3:4" ht="13" thickBot="1">
-      <c r="C71" s="148">
+      <c r="C71" s="190">
         <v>0.1</v>
       </c>
-      <c r="D71" s="149">
+      <c r="D71" s="191">
         <v>195369906.18668318</v>
       </c>
     </row>
     <row r="72" spans="3:4" ht="13" thickBot="1">
-      <c r="C72" s="148">
+      <c r="C72" s="190">
         <v>0.11</v>
       </c>
-      <c r="D72" s="149">
+      <c r="D72" s="191">
         <v>187234698.06766796</v>
       </c>
     </row>
     <row r="73" spans="3:4" ht="13" thickBot="1">
-      <c r="C73" s="148">
+      <c r="C73" s="190">
         <v>0.12</v>
       </c>
-      <c r="D73" s="149">
+      <c r="D73" s="191">
         <v>178905870.4305771</v>
       </c>
     </row>
     <row r="74" spans="3:4" ht="13" thickBot="1">
-      <c r="C74" s="148">
+      <c r="C74" s="190">
         <v>0.13</v>
       </c>
-      <c r="D74" s="149">
+      <c r="D74" s="191">
         <v>170379520.1947594</v>
       </c>
     </row>
@@ -3867,7 +3760,7 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3942,19 +3835,19 @@
   <sheetData>
     <row r="3" spans="2:4" ht="13" thickBot="1"/>
     <row r="4" spans="2:4" ht="13" thickBot="1">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="173"/>
+      <c r="C4" s="140"/>
       <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="13" thickBot="1">
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="45"/>
     </row>
     <row r="6" spans="2:4">
@@ -3972,28 +3865,28 @@
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="2:4" ht="13" thickBot="1">
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="174"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="46">
         <v>5000000</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="13" thickBot="1">
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="171"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="46">
         <v>2500000</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="13" thickBot="1">
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="171"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="45"/>
     </row>
     <row r="11" spans="2:4">
@@ -4031,10 +3924,10 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="13" thickBot="1">
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="171"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="45"/>
     </row>
     <row r="15" spans="2:4">
@@ -4084,10 +3977,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="13" thickBot="1">
-      <c r="B20" s="168" t="s">
+      <c r="B20" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="169"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="47">
         <f>SUM(D5:D19)</f>
         <v>20610000</v>
@@ -4103,7 +3996,7 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -4178,30 +4071,30 @@
     <row r="4" spans="2:16" ht="13" thickBot="1">
       <c r="B4" s="88"/>
       <c r="C4" s="88"/>
-      <c r="D4" s="189" t="s">
+      <c r="D4" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="191"/>
-      <c r="F4" s="189" t="s">
+      <c r="E4" s="156"/>
+      <c r="F4" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="190"/>
-      <c r="H4" s="191" t="s">
+      <c r="G4" s="155"/>
+      <c r="H4" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="189" t="s">
+      <c r="I4" s="156"/>
+      <c r="J4" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="190"/>
-      <c r="L4" s="191" t="s">
+      <c r="K4" s="155"/>
+      <c r="L4" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="191"/>
-      <c r="N4" s="189" t="s">
+      <c r="M4" s="156"/>
+      <c r="N4" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="190"/>
+      <c r="O4" s="155"/>
       <c r="P4" s="88"/>
     </row>
     <row r="5" spans="2:16" ht="13" thickBot="1">
@@ -4247,7 +4140,7 @@
     </row>
     <row r="6" spans="2:16" ht="13" thickBot="1">
       <c r="B6" s="88"/>
-      <c r="C6" s="179" t="s">
+      <c r="C6" s="158" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="116">
@@ -4296,42 +4189,42 @@
     </row>
     <row r="7" spans="2:16" ht="13" thickBot="1">
       <c r="B7" s="88"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="182">
+      <c r="C7" s="159"/>
+      <c r="D7" s="148">
         <f>D6*E6</f>
         <v>43200000</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="182">
+      <c r="E7" s="153"/>
+      <c r="F7" s="148">
         <f>F6*G6</f>
         <v>56160000</v>
       </c>
-      <c r="G7" s="184"/>
-      <c r="H7" s="183">
+      <c r="G7" s="149"/>
+      <c r="H7" s="153">
         <f>H6*I6</f>
         <v>69120000</v>
       </c>
-      <c r="I7" s="183"/>
-      <c r="J7" s="182">
+      <c r="I7" s="153"/>
+      <c r="J7" s="148">
         <f>J6*K6</f>
         <v>85070769.230769232</v>
       </c>
-      <c r="K7" s="184"/>
-      <c r="L7" s="183">
+      <c r="K7" s="149"/>
+      <c r="L7" s="153">
         <f>L6*M6</f>
         <v>104702485.2071006</v>
       </c>
-      <c r="M7" s="183"/>
-      <c r="N7" s="182">
+      <c r="M7" s="153"/>
+      <c r="N7" s="148">
         <f>N6*O6</f>
         <v>128864597.17796996</v>
       </c>
-      <c r="O7" s="184"/>
+      <c r="O7" s="149"/>
       <c r="P7" s="88"/>
     </row>
     <row r="8" spans="2:16" ht="13" thickBot="1">
       <c r="B8" s="88"/>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="158" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="93">
@@ -4380,42 +4273,42 @@
     </row>
     <row r="9" spans="2:16" ht="13" thickBot="1">
       <c r="B9" s="88"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="185">
+      <c r="C9" s="160"/>
+      <c r="D9" s="151">
         <f>D8*E8</f>
         <v>6300000</v>
       </c>
-      <c r="E9" s="176"/>
-      <c r="F9" s="185">
+      <c r="E9" s="150"/>
+      <c r="F9" s="151">
         <f>F8*G8</f>
         <v>3290000</v>
       </c>
-      <c r="G9" s="192"/>
-      <c r="H9" s="176">
+      <c r="G9" s="152"/>
+      <c r="H9" s="150">
         <f>H8*I8</f>
         <v>4277000</v>
       </c>
-      <c r="I9" s="176"/>
-      <c r="J9" s="185">
+      <c r="I9" s="150"/>
+      <c r="J9" s="151">
         <f>J8*K8</f>
         <v>5560100.0000000019</v>
       </c>
-      <c r="K9" s="192"/>
-      <c r="L9" s="176">
+      <c r="K9" s="152"/>
+      <c r="L9" s="150">
         <f>L8*M8</f>
         <v>7228130</v>
       </c>
-      <c r="M9" s="176"/>
-      <c r="N9" s="185">
+      <c r="M9" s="150"/>
+      <c r="N9" s="151">
         <f>N8*O8</f>
         <v>9396569</v>
       </c>
-      <c r="O9" s="192"/>
+      <c r="O9" s="152"/>
       <c r="P9" s="88"/>
     </row>
     <row r="10" spans="2:16" ht="13" thickBot="1">
       <c r="B10" s="88"/>
-      <c r="C10" s="180" t="s">
+      <c r="C10" s="159" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="93">
@@ -4469,42 +4362,42 @@
     </row>
     <row r="11" spans="2:16" ht="13" thickBot="1">
       <c r="B11" s="88"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="182">
+      <c r="C11" s="159"/>
+      <c r="D11" s="148">
         <f>D10*E10</f>
         <v>60000000</v>
       </c>
-      <c r="E11" s="183"/>
-      <c r="F11" s="182">
+      <c r="E11" s="153"/>
+      <c r="F11" s="148">
         <f>F10*G10</f>
         <v>78000000</v>
       </c>
-      <c r="G11" s="184"/>
-      <c r="H11" s="183">
+      <c r="G11" s="149"/>
+      <c r="H11" s="153">
         <f>H10*I10</f>
         <v>101400000</v>
       </c>
-      <c r="I11" s="183"/>
-      <c r="J11" s="182">
+      <c r="I11" s="153"/>
+      <c r="J11" s="148">
         <f>J10*K10</f>
         <v>131820000.00000001</v>
       </c>
-      <c r="K11" s="184"/>
-      <c r="L11" s="183">
+      <c r="K11" s="149"/>
+      <c r="L11" s="153">
         <f>L10*M10</f>
         <v>171366000</v>
       </c>
-      <c r="M11" s="183"/>
-      <c r="N11" s="182">
+      <c r="M11" s="153"/>
+      <c r="N11" s="148">
         <f>N10*O10</f>
         <v>222775800</v>
       </c>
-      <c r="O11" s="184"/>
+      <c r="O11" s="149"/>
       <c r="P11" s="88"/>
     </row>
     <row r="12" spans="2:16" ht="13" thickBot="1">
       <c r="B12" s="88"/>
-      <c r="C12" s="179" t="s">
+      <c r="C12" s="158" t="s">
         <v>121</v>
       </c>
       <c r="D12" s="93"/>
@@ -4553,42 +4446,42 @@
     </row>
     <row r="13" spans="2:16" ht="13" thickBot="1">
       <c r="B13" s="88"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="185">
+      <c r="C13" s="160"/>
+      <c r="D13" s="151">
         <f>D12*E12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="176"/>
-      <c r="F13" s="185">
+      <c r="E13" s="150"/>
+      <c r="F13" s="151">
         <f>F12*G12</f>
         <v>10920000</v>
       </c>
-      <c r="G13" s="192"/>
-      <c r="H13" s="176">
+      <c r="G13" s="152"/>
+      <c r="H13" s="150">
         <f>H12*I12</f>
         <v>14196000</v>
       </c>
-      <c r="I13" s="176"/>
-      <c r="J13" s="185">
+      <c r="I13" s="150"/>
+      <c r="J13" s="151">
         <f>J12*K12</f>
         <v>18454800</v>
       </c>
-      <c r="K13" s="192"/>
-      <c r="L13" s="176">
+      <c r="K13" s="152"/>
+      <c r="L13" s="150">
         <f>L12*M12</f>
         <v>23991240</v>
       </c>
-      <c r="M13" s="176"/>
-      <c r="N13" s="185">
+      <c r="M13" s="150"/>
+      <c r="N13" s="151">
         <f>N12*O12</f>
         <v>31188612</v>
       </c>
-      <c r="O13" s="192"/>
+      <c r="O13" s="152"/>
       <c r="P13" s="88"/>
     </row>
     <row r="14" spans="2:16" ht="13" thickBot="1">
       <c r="B14" s="88"/>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="159" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="93"/>
@@ -4632,42 +4525,42 @@
     </row>
     <row r="15" spans="2:16" ht="13" thickBot="1">
       <c r="B15" s="88"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="182">
+      <c r="C15" s="159"/>
+      <c r="D15" s="148">
         <f>D14*E14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="183"/>
-      <c r="F15" s="182">
+      <c r="E15" s="153"/>
+      <c r="F15" s="148">
         <f>F14*G14</f>
         <v>1950000</v>
       </c>
-      <c r="G15" s="184"/>
-      <c r="H15" s="183">
+      <c r="G15" s="149"/>
+      <c r="H15" s="153">
         <f>H14*I14</f>
         <v>2535000</v>
       </c>
-      <c r="I15" s="183"/>
-      <c r="J15" s="182">
+      <c r="I15" s="153"/>
+      <c r="J15" s="148">
         <f>J14*K14</f>
         <v>3295500</v>
       </c>
-      <c r="K15" s="184"/>
-      <c r="L15" s="183">
+      <c r="K15" s="149"/>
+      <c r="L15" s="153">
         <f>L14*M14</f>
         <v>4284150</v>
       </c>
-      <c r="M15" s="183"/>
-      <c r="N15" s="182">
+      <c r="M15" s="153"/>
+      <c r="N15" s="148">
         <f>N14*O14</f>
         <v>5569395</v>
       </c>
-      <c r="O15" s="184"/>
+      <c r="O15" s="149"/>
       <c r="P15" s="88"/>
     </row>
     <row r="16" spans="2:16" ht="13" thickBot="1">
       <c r="B16" s="88"/>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="158" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="93"/>
@@ -4711,37 +4604,37 @@
     </row>
     <row r="17" spans="2:16" ht="13" thickBot="1">
       <c r="B17" s="88"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="177">
+      <c r="C17" s="160"/>
+      <c r="D17" s="144">
         <f>D16*E16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="178"/>
-      <c r="F17" s="177">
+      <c r="E17" s="147"/>
+      <c r="F17" s="144">
         <f>F16*G16</f>
         <v>6500000</v>
       </c>
-      <c r="G17" s="193"/>
-      <c r="H17" s="178">
+      <c r="G17" s="145"/>
+      <c r="H17" s="147">
         <f>H16*I16</f>
         <v>8450000</v>
       </c>
-      <c r="I17" s="178"/>
-      <c r="J17" s="177">
+      <c r="I17" s="147"/>
+      <c r="J17" s="144">
         <f>J16*K16</f>
         <v>10985000</v>
       </c>
-      <c r="K17" s="193"/>
-      <c r="L17" s="178">
+      <c r="K17" s="145"/>
+      <c r="L17" s="147">
         <f>L16*M16</f>
         <v>14280500</v>
       </c>
-      <c r="M17" s="178"/>
-      <c r="N17" s="177">
+      <c r="M17" s="147"/>
+      <c r="N17" s="144">
         <f>N16*O16</f>
         <v>18564650</v>
       </c>
-      <c r="O17" s="193"/>
+      <c r="O17" s="145"/>
       <c r="P17" s="88"/>
     </row>
     <row r="18" spans="2:16" ht="13" thickBot="1">
@@ -4749,36 +4642,36 @@
       <c r="C18" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="186">
+      <c r="D18" s="142">
         <f>D7+D9+D11+D13+D15+D17</f>
         <v>109500000</v>
       </c>
-      <c r="E18" s="187"/>
-      <c r="F18" s="186">
+      <c r="E18" s="146"/>
+      <c r="F18" s="142">
         <f>F7+F9+F11+F13+F15+F17</f>
         <v>156820000</v>
       </c>
-      <c r="G18" s="188"/>
-      <c r="H18" s="187">
+      <c r="G18" s="143"/>
+      <c r="H18" s="146">
         <f>H7+H9+H11+H13+H15+H17</f>
         <v>199978000</v>
       </c>
-      <c r="I18" s="187"/>
-      <c r="J18" s="186">
+      <c r="I18" s="146"/>
+      <c r="J18" s="142">
         <f>J7+J9+J11+J13+J15+J17</f>
         <v>255186169.23076925</v>
       </c>
-      <c r="K18" s="188"/>
-      <c r="L18" s="187">
+      <c r="K18" s="143"/>
+      <c r="L18" s="146">
         <f>L7+L9+L11+L13+L15+L17</f>
         <v>325852505.20710063</v>
       </c>
-      <c r="M18" s="187"/>
-      <c r="N18" s="186">
+      <c r="M18" s="146"/>
+      <c r="N18" s="142">
         <f>N7+N9+N11+N13+N15+N17</f>
         <v>416359623.17796993</v>
       </c>
-      <c r="O18" s="188"/>
+      <c r="O18" s="143"/>
       <c r="P18" s="88"/>
     </row>
     <row r="19" spans="2:16">
@@ -4815,12 +4708,12 @@
       <c r="P20" s="88"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="157" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:16">
-      <c r="C22" s="175"/>
+      <c r="C22" s="157"/>
     </row>
     <row r="23" spans="2:16">
       <c r="C23" s="117">
@@ -4855,45 +4748,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="D17:E17"/>
@@ -4910,8 +4764,47 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -4975,10 +4868,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="88"/>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="204"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="6">
         <v>600000</v>
       </c>
@@ -4990,10 +4883,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="88"/>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="162" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="199"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="4">
         <f>IF('HW y SW'!C5=0,100000,0)</f>
         <v>0</v>
@@ -5024,10 +4917,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="88"/>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="199"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="4">
         <f>PERSONAL!E12</f>
         <v>8000000</v>
@@ -5066,10 +4959,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="88"/>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="199"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="4">
         <v>100000</v>
       </c>
@@ -5107,10 +5000,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="88"/>
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="199"/>
+      <c r="C8" s="163"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>13000</v>
@@ -5145,10 +5038,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="88"/>
-      <c r="B9" s="198" t="s">
+      <c r="B9" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="199"/>
+      <c r="C9" s="163"/>
       <c r="D9" s="4">
         <v>50000</v>
       </c>
@@ -5160,10 +5053,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="88"/>
-      <c r="B10" s="198" t="s">
+      <c r="B10" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="199"/>
+      <c r="C10" s="163"/>
       <c r="D10" s="4">
         <v>45000</v>
       </c>
@@ -5171,10 +5064,10 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="G10" s="202" t="s">
+      <c r="G10" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="202"/>
+      <c r="H10" s="161"/>
       <c r="I10" s="130">
         <f>'FLUJO CAJA PRINCIPAL'!E29</f>
         <v>0.1</v>
@@ -5182,10 +5075,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="88"/>
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="199"/>
+      <c r="C11" s="163"/>
       <c r="D11" s="4">
         <v>45000</v>
       </c>
@@ -5193,20 +5086,20 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="G11" s="202" t="s">
+      <c r="G11" s="161" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="202"/>
+      <c r="H11" s="161"/>
       <c r="I11" s="130">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="88"/>
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="199"/>
+      <c r="C12" s="163"/>
       <c r="D12" s="4">
         <f>'CREACIÓN CURSOS'!D9</f>
         <v>1100000</v>
@@ -5219,10 +5112,10 @@
     </row>
     <row r="13" spans="1:13" ht="13" thickBot="1">
       <c r="A13" s="88"/>
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="166" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="196"/>
+      <c r="C13" s="168"/>
       <c r="D13" s="5">
         <f>SUM(D4:D12)*0.02</f>
         <v>198800</v>
@@ -5236,10 +5129,10 @@
     <row r="14" spans="1:13" ht="13" thickBot="1">
       <c r="A14" s="88"/>
       <c r="B14" s="88"/>
-      <c r="C14" s="168" t="s">
+      <c r="C14" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="197"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="11">
         <f>SUM(E4:E13)</f>
         <v>113378600</v>
@@ -5264,10 +5157,10 @@
     </row>
     <row r="17" spans="1:7" ht="13" thickBot="1">
       <c r="A17" s="88"/>
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="201"/>
+      <c r="C17" s="171"/>
       <c r="D17" s="30" t="s">
         <v>61</v>
       </c>
@@ -5288,10 +5181,10 @@
     </row>
     <row r="19" spans="1:7" ht="13" thickBot="1">
       <c r="A19" s="88"/>
-      <c r="B19" s="194" t="s">
+      <c r="B19" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="195"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="87">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -5324,6 +5217,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B9:C9"/>
@@ -5333,14 +5232,8 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -5415,7 +5308,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -5666,7 +5559,7 @@
       <c r="C18" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -5783,7 +5676,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -5826,10 +5719,10 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="13" thickBot="1">
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="205"/>
+      <c r="E2" s="172"/>
     </row>
     <row r="3" spans="2:10" ht="13" thickBot="1">
       <c r="B3" s="8" t="s">
@@ -5995,7 +5888,7 @@
   <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
@@ -6023,10 +5916,10 @@
   <sheetData>
     <row r="3" spans="3:10" ht="13" thickBot="1"/>
     <row r="4" spans="3:10" ht="13" thickBot="1">
-      <c r="C4" s="206" t="s">
+      <c r="C4" s="173" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="197"/>
+      <c r="D4" s="169"/>
     </row>
     <row r="5" spans="3:10" ht="13" thickBot="1">
       <c r="C5" s="27" t="s">
@@ -6159,7 +6052,7 @@
   <mergeCells count="1">
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
